--- a/TRL Calculations - Cells.xlsx
+++ b/TRL Calculations - Cells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/TRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="794" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CA112B-B719-40C2-B2E9-3CB91D06C8F4}"/>
+  <xr:revisionPtr revIDLastSave="863" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357E229E-9584-4875-AE33-29EAA699F699}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TG" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="214">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Uncorrected intracellular 13C 16:0 (nmol/L)</t>
   </si>
   <si>
-    <t>Intracellular 13C 16:0 from TG(nmol/g of protein)</t>
-  </si>
-  <si>
     <t>Intracellular 13C 16:0 (nmol/g of protein)</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
     <t>TG_50</t>
   </si>
   <si>
-    <t>Uncorrected intracellular 13C 16:0 from TG (nmol/L)</t>
-  </si>
-  <si>
     <t>TG_51</t>
   </si>
   <si>
@@ -672,6 +666,21 @@
   </si>
   <si>
     <t>TG_60</t>
+  </si>
+  <si>
+    <t>TTR-Background</t>
+  </si>
+  <si>
+    <t>TG 16:0 TTR</t>
+  </si>
+  <si>
+    <t>Uncorrected intracellular TG 13C 16:0 (nmol/L)</t>
+  </si>
+  <si>
+    <t>Intracellular TG 13C 16:0 (nmol/g of protein)</t>
+  </si>
+  <si>
+    <t>TTR-background</t>
   </si>
 </sst>
 </file>
@@ -769,13 +778,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42C8B7F5-C567-45AA-AA9A-3E8890A5232D}" name="Table1" displayName="Table1" ref="A1:M49" totalsRowShown="0">
-  <autoFilter ref="A1:M49" xr:uid="{42C8B7F5-C567-45AA-AA9A-3E8890A5232D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42C8B7F5-C567-45AA-AA9A-3E8890A5232D}" name="Table1" displayName="Table1" ref="A1:N49" totalsRowShown="0">
+  <autoFilter ref="A1:N49" xr:uid="{42C8B7F5-C567-45AA-AA9A-3E8890A5232D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
     <sortCondition descending="1" ref="F1:F49"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FB9AD91E-B274-4F78-B93E-E4FC01F5906A}" name="SAMPLE_ID"/>
     <tableColumn id="11" xr3:uid="{D2FF2C08-18B8-4A92-9CB6-ADC15C316AEB}" name="Round"/>
     <tableColumn id="2" xr3:uid="{0F34B3BB-F897-41EE-9ACB-D6A01F846333}" name="Sample Type"/>
@@ -784,12 +797,13 @@
     <tableColumn id="5" xr3:uid="{E5371C94-581D-41A0-BCAE-96C9F276ADE6}" name="TRL"/>
     <tableColumn id="6" xr3:uid="{3F8E5551-F7D3-4DFE-A714-E936EC0CE0F0}" name="Time (hours)"/>
     <tableColumn id="7" xr3:uid="{30C17254-8D00-4AB4-B480-07C283640A57}" name="Protein (mg/mL)"/>
-    <tableColumn id="9" xr3:uid="{E0DE2800-3AD9-4FE4-ACCE-80C185C474CE}" name="Uncorrected intracellular 13C 16:0 from TG (nmol/L)"/>
+    <tableColumn id="14" xr3:uid="{0B9BFFAD-F7BF-4B67-9C9B-7667C3EC7897}" name="TG 16:0 TTR"/>
+    <tableColumn id="9" xr3:uid="{E0DE2800-3AD9-4FE4-ACCE-80C185C474CE}" name="Uncorrected intracellular TG 13C 16:0 (nmol/L)"/>
     <tableColumn id="10" xr3:uid="{30808097-CD2E-468E-B6B5-911BCFC6A12D}" name="Uncorrected intracellular 13C 16:0 (nmol/L)"/>
-    <tableColumn id="12" xr3:uid="{EC731FEC-C13E-40C6-B53D-435B7748D450}" name="Intracellular 13C 16:0 from TG(nmol/g of protein)"/>
+    <tableColumn id="12" xr3:uid="{EC731FEC-C13E-40C6-B53D-435B7748D450}" name="Intracellular TG 13C 16:0 (nmol/g of protein)"/>
     <tableColumn id="13" xr3:uid="{AF3E17E8-54D9-4097-9854-5B2C72957095}" name="Intracellular 13C 16:0 (nmol/g of protein)"/>
     <tableColumn id="8" xr3:uid="{71DE8C6D-B5F0-49C7-8CC5-DD5CE9B727F0}" name="Lipolysis ratio">
-      <calculatedColumnFormula>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1083,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="E30" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,19 +1113,19 @@
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1119,7 +1133,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1127,13 +1141,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J3" s="2">
-        <f>AVERAGE(J6:J8,J12:J14,J18:J20)</f>
-        <v>1.1445664348783724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I3" s="2">
+        <f>AVERAGE(I6:I8,I12:I14,I18:I20,I24:I26,I54:I56,I60:I62)</f>
+        <v>1.1571866563526389E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <f>AVERAGE(K6:K8,K12:K14,K18:K20,K24:K26,K54:K56,K60:K62)</f>
+        <v>1.1439489833372503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1144,15 +1162,16 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1181,34 +1200,37 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1237,35 +1259,35 @@
         <f>(((G6/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.15934698074E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f>(I6/(1+I6))*100</f>
         <v>1.1460601667987549</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>650.79999999999995</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-33.869999999999997</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>14.363</v>
       </c>
-      <c r="Q6" s="4">
-        <f>((H6/P6)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>278.6468373028593</v>
-      </c>
       <c r="R6" s="4">
-        <f>Q6*(K6/100)*1000</f>
+        <f>((H6/Q6)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <v>92.882279100953099</v>
+      </c>
+      <c r="S6" s="4">
+        <f>R6*(L6/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1294,35 +1316,35 @@
         <f t="shared" ref="I7:I15" si="0">(((G7/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.15735069216E-2</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J23" si="1">(I7/(1+I7))*100</f>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K23" si="1">(I7/(1+I7))*100</f>
         <v>1.1441093348539999</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>651.5</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>-34.183999999999997</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>14.942</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" ref="Q7:Q49" si="2">((H7/P7)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>988.60558277236726</v>
-      </c>
       <c r="R7" s="4">
-        <f t="shared" ref="R7:R35" si="3">Q7*(K7/100)*1000</f>
+        <f t="shared" ref="R7:R65" si="2">((H7/Q7)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <v>329.53519425745577</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" ref="S7:S35" si="3">R7*(L7/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1351,35 +1373,35 @@
         <f t="shared" si="0"/>
         <v>1.157467699505E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>1.1442236799989249</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>651.20000000000005</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>-33.991</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>13.532999999999999</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="2"/>
-        <v>1505.9363873114003</v>
-      </c>
-      <c r="R8" s="4">
+        <v>501.97879577046677</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1409,38 +1431,42 @@
         <v>1.2885123440475E-2</v>
       </c>
       <c r="J9" s="2">
+        <f>I9-AVERAGE($I$6:$I$8)</f>
+        <v>1.3045721991250016E-3</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>1.272120909102505</v>
       </c>
-      <c r="K9" s="2">
-        <f>J9-AVERAGE($J$6:$J$8)</f>
+      <c r="L9" s="2">
+        <f>K9-AVERAGE($K$6:$K$8)</f>
         <v>0.12732318188527847</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>5</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>649.79999999999995</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>-34.408999999999999</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>11.538</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="2"/>
-        <v>321.71976530647294</v>
-      </c>
-      <c r="R9" s="4">
-        <f>Q9*(K9/100)*1000</f>
-        <v>409.62384194205157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>107.23992176882432</v>
+      </c>
+      <c r="S9" s="4">
+        <f>R9*(L9/100)*1000</f>
+        <v>136.54128064735053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1470,38 +1496,42 @@
         <v>1.1810804980974999E-2</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" ref="J10:J11" si="4">I10-AVERAGE($I$6:$I$8)</f>
+        <v>2.3025373962499984E-4</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>1.1672938184522623</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10:K11" si="4">J10-AVERAGE($J$6:$J$8)</f>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10:L11" si="5">K10-AVERAGE($K$6:$K$8)</f>
         <v>2.249609123503582E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>6</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>650.6</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>-34.505000000000003</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>14.579000000000001</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="2"/>
-        <v>1144.6987572897526</v>
-      </c>
-      <c r="R10" s="4">
+        <v>381.56625242991754</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
-        <v>257.51247680622396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>85.837492268741343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1531,38 +1561,42 @@
         <v>1.17356456711E-2</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5509442975000093E-4</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>1.1599517839776776</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="4"/>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
         <v>1.5154056760451118E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>7</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>650.6</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>-34.279000000000003</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>14.452</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="2"/>
-        <v>1666.6998678286466</v>
-      </c>
-      <c r="R11" s="4">
+        <v>555.56662260954886</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
-        <v>252.57264399711681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>84.190881332372271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -1591,35 +1625,35 @@
         <f t="shared" si="0"/>
         <v>1.1602149842074999E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>1.1469083813123817</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>8</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>650</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>-34.401000000000003</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>12.85</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="2"/>
-        <v>251.1002385620717</v>
-      </c>
-      <c r="R12" s="4">
+        <v>83.700079520690565</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1648,35 +1682,35 @@
         <f t="shared" si="0"/>
         <v>1.1568528139674999E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>1.1436227816369593</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>9</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>650.6</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>-34.630000000000003</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>14.836</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="2"/>
-        <v>1045.0187468269828</v>
-      </c>
-      <c r="R13" s="4">
+        <v>348.33958227566092</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1705,35 +1739,35 @@
         <f t="shared" si="0"/>
         <v>1.156703569905E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>1.1434769314182449</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>10</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>650.4</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>-34.555</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>14.003</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="4">
         <f t="shared" si="2"/>
-        <v>1809.51874252932</v>
-      </c>
-      <c r="R14" s="4">
+        <v>603.17291417644003</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1763,38 +1797,42 @@
         <v>1.2436364453824997E-2</v>
       </c>
       <c r="J15" s="2">
+        <f>I15-AVERAGE($I$12:$I$14)</f>
+        <v>8.5712656022499806E-4</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>1.2283601113571214</v>
       </c>
-      <c r="K15" s="2">
-        <f>J15-AVERAGE($J$12:$J$14)</f>
+      <c r="L15" s="2">
+        <f>K15-AVERAGE($K$12:$K$14)</f>
         <v>8.3690746567926189E-2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>649.79999999999995</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>-34.277999999999999</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>12.532999999999999</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <f t="shared" si="2"/>
-        <v>316.61838020636446</v>
-      </c>
-      <c r="R15" s="4">
+        <v>105.53946006878816</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="3"/>
-        <v>264.98028616598145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>88.326762055327166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1820,42 +1858,46 @@
         <v>44.933999999999997</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:I23" si="5">(((G16/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I16:I23" si="6">(((G16/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1729401299524999E-2</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" ref="J16:J17" si="7">I16-AVERAGE($I$12:$I$14)</f>
+        <v>1.5016340592500024E-4</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>1.1593417453776733</v>
       </c>
-      <c r="K16" s="2">
-        <f t="shared" ref="K16:K17" si="6">J16-AVERAGE($J$12:$J$14)</f>
+      <c r="L16" s="2">
+        <f t="shared" ref="L16:L17" si="8">K16-AVERAGE($K$12:$K$14)</f>
         <v>1.4672380588478084E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>12</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>650.20000000000005</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>-34.558999999999997</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>13.978999999999999</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="2"/>
-        <v>1257.1736811814558</v>
-      </c>
-      <c r="R16" s="4">
+        <v>419.05789372715191</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="3"/>
-        <v>184.45730716112328</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>61.485769053707749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -1881,42 +1923,46 @@
         <v>61.856999999999999</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1671602058999999E-2</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="7"/>
+        <v>9.2364165400000281E-5</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>1.1536947399971913</v>
       </c>
-      <c r="K17" s="2">
-        <f t="shared" si="6"/>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
         <v>9.025375207996067E-3</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>13</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>650.4</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>-34.643000000000001</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>13.718999999999999</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="2"/>
-        <v>1763.4481779883488</v>
-      </c>
-      <c r="R17" s="4">
+        <v>587.81605932944956</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="3"/>
-        <v>159.15781466201878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>53.052604887339584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -1942,38 +1988,38 @@
         <v>9.6</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1596884511549999E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="1"/>
         <v>1.14639385402512</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>14</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>650.20000000000005</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>-34.671999999999997</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>14.028</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="2"/>
-        <v>267.65279336579795</v>
-      </c>
-      <c r="R18" s="4">
+        <v>89.217597788599321</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -1987,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="2">
         <v>808.8</v>
@@ -1999,38 +2045,38 @@
         <v>39.700000000000003</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1565304467924999E-2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="1"/>
         <v>1.143307744625371</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>26</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" s="1">
         <v>648.70000000000005</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>-35.536000000000001</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>12.146000000000001</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="2"/>
-        <v>1278.3610636373421</v>
-      </c>
-      <c r="R19" s="4">
+        <v>426.12035454578069</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -2044,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F20" s="2">
         <v>813.2</v>
@@ -2056,38 +2102,38 @@
         <v>60.066000000000003</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1562104675224999E-2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="1"/>
         <v>1.1429950392355952</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>27</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" s="1">
         <v>649.6</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>-37.680999999999997</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>14.441000000000001</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="2"/>
-        <v>1626.7759686220147</v>
-      </c>
-      <c r="R20" s="4">
+        <v>542.25865620733828</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -2101,7 +2147,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2">
         <v>800.1</v>
@@ -2113,42 +2159,46 @@
         <v>9.0969999999999995</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2187258204224997E-2</v>
       </c>
       <c r="J21" s="2">
+        <f>I21-AVERAGE($I$18:$I$20)</f>
+        <v>6.1249365265833057E-4</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="1"/>
         <v>1.2040517310845285</v>
       </c>
-      <c r="K21" s="2">
-        <f>J21-AVERAGE($J$18:$J$20)</f>
+      <c r="L21" s="2">
+        <f>K21-AVERAGE($K$18:$K$20)</f>
         <v>5.9819518455832998E-2</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>28</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" s="1">
         <v>648.5</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>-38.847999999999999</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>10.993</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="2"/>
-        <v>323.65198219317836</v>
-      </c>
-      <c r="R21" s="4">
+        <v>107.88399406439278</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="3"/>
-        <v>193.60705722071768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>64.535685740239231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -2162,7 +2212,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" s="2">
         <v>809.9</v>
@@ -2174,42 +2224,46 @@
         <v>45.396000000000001</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1752850526624999E-2</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" ref="J22:J23" si="9">I22-AVERAGE($I$18:$I$20)</f>
+        <v>1.7808597505833239E-4</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="1"/>
         <v>1.1616325588316903</v>
       </c>
-      <c r="K22" s="2">
-        <f t="shared" ref="K22:K23" si="7">J22-AVERAGE($J$18:$J$20)</f>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:L23" si="10">K22-AVERAGE($K$18:$K$20)</f>
         <v>1.7400346202994799E-2</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>29</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" s="1">
         <v>649.20000000000005</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>-36.798000000000002</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>12.683999999999999</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <f t="shared" si="2"/>
-        <v>1399.7731489202806</v>
-      </c>
-      <c r="R22" s="4">
+        <v>466.59104964009356</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="3"/>
-        <v>243.56537396869078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>81.188457989563588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2223,7 +2277,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" s="2">
         <v>811.8</v>
@@ -2235,42 +2289,46 @@
         <v>53.390999999999998</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.16681157177E-2</v>
       </c>
       <c r="J23" s="2">
+        <f t="shared" si="9"/>
+        <v>9.3351166133332983E-5</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="1"/>
         <v>1.1533541026369478</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="7"/>
+      <c r="L23" s="2">
+        <f t="shared" si="10"/>
         <v>9.1218900082523646E-3</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>30</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" s="1">
         <v>648.70000000000005</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>-37.933</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>12.161</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <f t="shared" si="2"/>
-        <v>1717.0979555241747</v>
-      </c>
-      <c r="R23" s="4">
+        <v>572.36598517472487</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="3"/>
-        <v>156.63178683686533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>52.210595612288436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2284,7 +2342,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F24" s="2">
         <v>799.4</v>
@@ -2296,38 +2354,38 @@
         <v>7.3280000000000003</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:I25" si="8">(((G24/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I24:I25" si="11">(((G24/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1527874057049999E-2</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" ref="J24:J25" si="9">(I24/(1+I24))*100</f>
+      <c r="K24" s="2">
+        <f t="shared" ref="K24:K25" si="12">(I24/(1+I24))*100</f>
         <v>1.139649667864697</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>31</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="N24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" s="1">
         <v>648.29999999999995</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>-38.973999999999997</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>10.157999999999999</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <f t="shared" si="2"/>
-        <v>282.14577844779484</v>
-      </c>
-      <c r="R24" s="4">
+        <v>94.048592815931613</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2341,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F25" s="2">
         <v>808.2</v>
@@ -2353,38 +2411,38 @@
         <v>39.347999999999999</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1558642212975E-2</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="9"/>
+      <c r="K25" s="2">
+        <f t="shared" si="12"/>
         <v>1.1426566617718072</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>32</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="N25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O25" s="1">
         <v>649.20000000000005</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>-37.043999999999997</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>13.023</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <f t="shared" si="2"/>
-        <v>1181.7018803765279</v>
-      </c>
-      <c r="R25" s="4">
+        <v>393.90062679217596</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2398,7 +2456,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="2">
         <v>806.3</v>
@@ -2410,38 +2468,38 @@
         <v>41.39</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I29" si="10">(((G26/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I26:I29" si="13">(((G26/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.155547823885E-2</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" ref="J26:J29" si="11">(I26/(1+I26))*100</f>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26:K29" si="14">(I26/(1+I26))*100</f>
         <v>1.1423474527535011</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>16</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="N26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" s="1">
         <v>646</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>-37.29</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>8.2159999999999993</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <f t="shared" si="2"/>
-        <v>1970.2952042132322</v>
-      </c>
-      <c r="R26" s="4">
+        <v>656.76506807107739</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2455,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F27" s="2">
         <v>795.9</v>
@@ -2467,42 +2525,46 @@
         <v>5.5019999999999998</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.21369569854E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="11"/>
+        <f>I27-AVERAGE($I$24:$I$26)</f>
+        <v>5.8962548244166982E-4</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="14"/>
         <v>1.1991417665005859</v>
       </c>
-      <c r="K27" s="2">
-        <f>J27-AVERAGE($J$24:$J$26)</f>
+      <c r="L27" s="2">
+        <f>K27-AVERAGE($K$24:$K$26)</f>
         <v>5.7590505703917438E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>17</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="N27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="1">
         <v>645.6</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>-36.514000000000003</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>7.8609999999999998</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <f t="shared" si="2"/>
-        <v>273.7405239753669</v>
-      </c>
-      <c r="R27" s="4">
+        <v>91.246841325122304</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="3"/>
-        <v>157.64855207396715</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>52.54951735798906</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2516,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="2">
         <v>803.2</v>
@@ -2532,38 +2594,42 @@
         <v>1.1653573376249999E-2</v>
       </c>
       <c r="J28" s="2">
+        <f t="shared" ref="J28:J29" si="15">I28-AVERAGE($I$24:$I$26)</f>
+        <v>1.0624187329166812E-4</v>
+      </c>
+      <c r="K28" s="2">
         <f>(I28/(1+I28))*100</f>
         <v>1.151933199559396</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" ref="K28:K29" si="12">J28-AVERAGE($J$24:$J$26)</f>
+      <c r="L28" s="2">
+        <f t="shared" ref="L28:L29" si="16">K28-AVERAGE($K$24:$K$26)</f>
         <v>1.0381938762727527E-2</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>18</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O28" s="1">
         <v>645.79999999999995</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>-36.119</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>8.3640000000000008</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <f t="shared" si="2"/>
-        <v>1281.6210324166198</v>
-      </c>
-      <c r="R28" s="4">
+        <v>427.20701080553994</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="3"/>
-        <v>133.05711075572978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>44.352370251909932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -2577,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F29" s="2">
         <v>803.4</v>
@@ -2589,42 +2655,46 @@
         <v>29.834</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1623879777574998E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
+        <v>7.6548274616667147E-5</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="14"/>
         <v>1.1490317705954838</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" si="12"/>
+      <c r="L29" s="2">
+        <f t="shared" si="16"/>
         <v>7.4805097988153157E-3</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>19</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="N29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="1">
         <v>645.20000000000005</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>-35.622999999999998</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>6.9580000000000002</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <f t="shared" si="2"/>
-        <v>1676.9625553633816</v>
-      </c>
-      <c r="R29" s="4">
+        <v>558.98751845446054</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="3"/>
-        <v>125.44534827642148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>41.815116092140492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2634,16 +2704,16 @@
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="4" t="e">
+      <c r="R30" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
+      <c r="S30" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2653,16 +2723,16 @@
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="4" t="e">
+      <c r="R31" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R31" s="4" t="e">
+      <c r="S31" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2672,16 +2742,16 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="4" t="e">
+      <c r="R32" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="4" t="e">
+      <c r="S32" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2691,16 +2761,16 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="4" t="e">
+      <c r="R33" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R33" s="4" t="e">
+      <c r="S33" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2710,16 +2780,16 @@
       <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="4" t="e">
+      <c r="R34" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="4" t="e">
+      <c r="S34" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -2729,16 +2799,16 @@
       <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="4" t="e">
+      <c r="R35" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="4" t="e">
+      <c r="S35" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -2748,16 +2818,16 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="4" t="e">
+      <c r="R36" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="4" t="e">
-        <f t="shared" ref="R36:R49" si="13">Q36*(K36/100)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="4" t="e">
+        <f t="shared" ref="S36:S49" si="17">R36*(L36/100)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -2767,16 +2837,16 @@
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="4" t="e">
+      <c r="R37" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R37" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -2786,16 +2856,16 @@
       <c r="C38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q38" s="4" t="e">
+      <c r="R38" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -2805,16 +2875,16 @@
       <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="4" t="e">
+      <c r="R39" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -2824,16 +2894,16 @@
       <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q40" s="4" t="e">
+      <c r="R40" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>25</v>
       </c>
@@ -2843,16 +2913,16 @@
       <c r="C41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q41" s="4" t="e">
+      <c r="R41" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -2862,16 +2932,16 @@
       <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="4" t="e">
+      <c r="R42" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R42" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -2881,16 +2951,16 @@
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q43" s="4" t="e">
+      <c r="R43" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R43" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -2900,16 +2970,16 @@
       <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q44" s="4" t="e">
+      <c r="R44" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -2919,16 +2989,16 @@
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q45" s="4" t="e">
+      <c r="R45" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -2938,16 +3008,16 @@
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q46" s="4" t="e">
+      <c r="R46" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R46" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -2957,16 +3027,16 @@
       <c r="C47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="4" t="e">
+      <c r="R47" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -2976,16 +3046,16 @@
       <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="4" t="e">
+      <c r="R48" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -2995,16 +3065,16 @@
       <c r="C49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="4" t="e">
+      <c r="R49" s="4" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="4" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -3014,16 +3084,16 @@
       <c r="C50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q50" s="4" t="e">
-        <f t="shared" ref="Q50:Q65" si="14">((H50/P50)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R50" s="4" t="e">
-        <f t="shared" ref="R50:R65" si="15">Q50*(K50/100)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="4" t="e">
+        <f t="shared" ref="S50:S65" si="18">R50*(L50/100)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -3033,16 +3103,16 @@
       <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q51" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R51" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" s="4" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -3052,16 +3122,16 @@
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q52" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R52" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="4" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -3071,16 +3141,16 @@
       <c r="C53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q53" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R53" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" s="4" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -3094,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F54" s="2">
         <v>795.2</v>
@@ -3106,38 +3176,38 @@
         <v>5.0739999999999998</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" ref="I54:I65" si="16">(((G54/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I54:I65" si="19">(((G54/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1608704641299998E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" ref="J54:J65" si="17">(I54/(1+I54))*100</f>
+      <c r="K54" s="2">
+        <f t="shared" ref="K54:K65" si="20">(I54/(1+I54))*100</f>
         <v>1.1475489077979273</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>20</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="N54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O54" s="1">
         <v>645.20000000000005</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>-35.953000000000003</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>7.25</v>
       </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="14"/>
-        <v>273.72140513206739</v>
-      </c>
       <c r="R54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
+        <v>91.240468377355796</v>
+      </c>
+      <c r="S54" s="4">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -3151,7 +3221,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F55" s="2">
         <v>801.5</v>
@@ -3163,38 +3233,38 @@
         <v>21.853000000000002</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1543992415799998E-2</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="17"/>
+      <c r="K55" s="2">
+        <f t="shared" si="20"/>
         <v>1.1412249494191828</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>21</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="N55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O55" s="1">
         <v>645.6</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>-35.847000000000001</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>7.8529999999999998</v>
       </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="14"/>
-        <v>1088.3579970729711</v>
-      </c>
       <c r="R55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
+        <v>362.7859990243237</v>
+      </c>
+      <c r="S55" s="4">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -3208,7 +3278,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F56" s="2">
         <v>808</v>
@@ -3220,38 +3290,38 @@
         <v>51.368000000000002</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.156703569905E-2</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="17"/>
+      <c r="K56" s="2">
+        <f t="shared" si="20"/>
         <v>1.1434769314182449</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>5</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="N56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O56" s="1">
         <v>646.4</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>-33.64</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>13.465</v>
       </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="14"/>
-        <v>1492.0473429408771</v>
-      </c>
       <c r="R56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
+        <v>497.34911431362571</v>
+      </c>
+      <c r="S56" s="4">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -3265,7 +3335,7 @@
         <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F57" s="2">
         <v>795.2</v>
@@ -3277,42 +3347,46 @@
         <v>7.7530000000000001</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2921897177474998E-2</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="17"/>
+        <f>I57-AVERAGE($I$54:$I$56)</f>
+        <v>1.3486529254249976E-3</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="20"/>
         <v>1.2757051864987909</v>
       </c>
-      <c r="K57" s="2">
-        <f>J57-AVERAGE($J$54:$J$56)</f>
+      <c r="L57" s="2">
+        <f>K57-AVERAGE($K$54:$K$56)</f>
         <v>0.13162159028700593</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>6</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="N57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O57" s="1">
         <v>645.20000000000005</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>-33.523000000000003</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <v>10.273999999999999</v>
       </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="14"/>
-        <v>295.13894941625978</v>
-      </c>
       <c r="R57" s="4">
-        <f t="shared" si="15"/>
-        <v>388.46657877804307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>98.37964980541993</v>
+      </c>
+      <c r="S57" s="4">
+        <f t="shared" si="18"/>
+        <v>129.48885959268105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -3326,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F58" s="2">
         <v>805.3</v>
@@ -3338,42 +3412,46 @@
         <v>36.927999999999997</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1870048904025E-2</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J58:J59" si="21">I58-AVERAGE($I$54:$I$56)</f>
+        <v>2.968046519749995E-4</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="20"/>
         <v>1.1730803690534835</v>
       </c>
-      <c r="K58" s="2">
-        <f t="shared" ref="K58:K59" si="18">J58-AVERAGE($J$54:$J$56)</f>
+      <c r="L58" s="2">
+        <f t="shared" ref="L58:L59" si="22">K58-AVERAGE($K$54:$K$56)</f>
         <v>2.8996772841698437E-2</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>7</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="N58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O58" s="1">
         <v>646.4</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>-34.487000000000002</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>10.067</v>
       </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="14"/>
-        <v>1434.6700197599639</v>
-      </c>
       <c r="R58" s="4">
-        <f t="shared" si="15"/>
-        <v>416.00800665774676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>478.22333991998795</v>
+      </c>
+      <c r="S58" s="4">
+        <f t="shared" si="18"/>
+        <v>138.66933555258225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -3387,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F59" s="2">
         <v>808.2</v>
@@ -3399,42 +3477,46 @@
         <v>54.302999999999997</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1756909965125E-2</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
+        <v>1.8366571307499961E-4</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="20"/>
         <v>1.1620291247163568</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L59" s="2">
+        <f t="shared" si="22"/>
+        <v>1.7945528504571762E-2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>8</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O59" s="1">
+        <v>646.6</v>
+      </c>
+      <c r="P59" s="1">
+        <v>-36.683999999999997</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>11.787000000000001</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" si="2"/>
+        <v>600.61419102220941</v>
+      </c>
+      <c r="S59" s="4">
         <f t="shared" si="18"/>
-        <v>1.7945528504571762E-2</v>
-      </c>
-      <c r="L59" s="1">
-        <v>8</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N59" s="1">
-        <v>646.6</v>
-      </c>
-      <c r="O59" s="1">
-        <v>-36.683999999999997</v>
-      </c>
-      <c r="P59" s="1">
-        <v>11.787000000000001</v>
-      </c>
-      <c r="Q59" s="4">
-        <f t="shared" si="14"/>
-        <v>1801.8425730666283</v>
-      </c>
-      <c r="R59" s="4">
-        <f t="shared" si="15"/>
-        <v>323.35017255718105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>107.78339085239369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -3448,7 +3530,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F60" s="2">
         <v>793.4</v>
@@ -3460,38 +3542,38 @@
         <v>5.1059999999999999</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1613062567924999E-2</v>
       </c>
-      <c r="J60" s="2">
-        <f t="shared" si="17"/>
+      <c r="K60" s="2">
+        <f t="shared" si="20"/>
         <v>1.1479747541462018</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>10</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="N60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O60" s="1">
         <v>645</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>-34.273000000000003</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <v>11.37</v>
       </c>
-      <c r="Q60" s="4">
-        <f t="shared" si="14"/>
-        <v>175.63725873573205</v>
-      </c>
       <c r="R60" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
+        <v>58.545752911910682</v>
+      </c>
+      <c r="S60" s="4">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -3505,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F61" s="2">
         <v>804.6</v>
@@ -3517,38 +3599,38 @@
         <v>34.661000000000001</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.15598958631E-2</v>
       </c>
-      <c r="J61" s="2">
-        <f t="shared" si="17"/>
+      <c r="K61" s="2">
+        <f t="shared" si="20"/>
         <v>1.1427791780175975</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>11</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="N61" s="1">
+      <c r="N61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O61" s="1">
         <v>646.4</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>-33.292000000000002</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <v>11.994</v>
       </c>
-      <c r="Q61" s="4">
-        <f t="shared" si="14"/>
-        <v>1130.2469617544084</v>
-      </c>
       <c r="R61" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
+        <v>376.74898725146949</v>
+      </c>
+      <c r="S61" s="4">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -3562,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F62" s="2">
         <v>806.7</v>
@@ -3574,38 +3656,38 @@
         <v>44.567</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1555251387874999E-2</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" si="17"/>
+      <c r="K62" s="2">
+        <f t="shared" si="20"/>
         <v>1.1423252829759871</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>12</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="N62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O62" s="1">
         <v>646.20000000000005</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P62" s="1">
         <v>-33.540999999999997</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <v>10.058999999999999</v>
       </c>
-      <c r="Q62" s="4">
-        <f t="shared" si="14"/>
-        <v>1732.8257663560346</v>
-      </c>
       <c r="R62" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
+        <v>577.60858878534486</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -3619,7 +3701,7 @@
         <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F63" s="2">
         <v>794.8</v>
@@ -3631,42 +3713,46 @@
         <v>5.851</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2754708008899999E-2</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="17"/>
+        <f>I63-AVERAGE($I$60:$I$62)</f>
+        <v>1.1786380692666663E-3</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="20"/>
         <v>1.259407426895705</v>
       </c>
-      <c r="K63" s="2">
-        <f>J63-AVERAGE($J$60:$J$62)</f>
+      <c r="L63" s="2">
+        <f>K63-AVERAGE($K$60:$K$62)</f>
         <v>0.11504768851577629</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>13</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="N63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O63" s="1">
         <v>646</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>-34.671999999999997</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <v>10.077999999999999</v>
       </c>
-      <c r="Q63" s="4">
-        <f t="shared" si="14"/>
-        <v>227.06596813187872</v>
-      </c>
       <c r="R63" s="4">
-        <f t="shared" si="15"/>
-        <v>261.23414774169566</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>75.688656043959568</v>
+      </c>
+      <c r="S63" s="4">
+        <f t="shared" si="18"/>
+        <v>87.078049247231888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -3680,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F64" s="2">
         <v>804.2</v>
@@ -3692,42 +3778,46 @@
         <v>27.759</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.176255736045E-2</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="17"/>
+        <f>I64-AVERAGE($I$60:$I$62)</f>
+        <v>1.8648742081666704E-4</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="20"/>
         <v>1.1625808125512078</v>
       </c>
-      <c r="K64" s="2">
-        <f t="shared" ref="K64:K65" si="19">J64-AVERAGE($J$60:$J$62)</f>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64:L65" si="23">K64-AVERAGE($K$60:$K$62)</f>
         <v>1.8221074171279161E-2</v>
       </c>
-      <c r="L64" s="1">
+      <c r="M64" s="1">
         <v>6</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N64" s="1">
+      <c r="N64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O64" s="1">
         <v>647.1</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>-40.023000000000003</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <v>9.8010000000000002</v>
       </c>
-      <c r="Q64" s="4">
-        <f t="shared" si="14"/>
-        <v>1107.7193243836275</v>
-      </c>
       <c r="R64" s="4">
-        <f t="shared" si="15"/>
-        <v>201.83835970553318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>369.23977479454248</v>
+      </c>
+      <c r="S64" s="4">
+        <f t="shared" si="18"/>
+        <v>67.279453235177726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -3741,7 +3831,7 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F65" s="2">
         <v>806.5</v>
@@ -3753,42 +3843,46 @@
         <v>38.817999999999998</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.16941916403E-2</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="17"/>
+        <f>I65-AVERAGE($I$60:$I$62)</f>
+        <v>1.1812170066666759E-4</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="20"/>
         <v>1.1559018265529175</v>
       </c>
-      <c r="K65" s="2">
-        <f t="shared" si="19"/>
+      <c r="L65" s="2">
+        <f t="shared" si="23"/>
         <v>1.1542088172988851E-2</v>
       </c>
-      <c r="L65" s="1">
+      <c r="M65" s="1">
         <v>7</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N65" s="1">
+      <c r="N65" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O65" s="1">
         <v>647.29999999999995</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P65" s="1">
         <v>-38.566000000000003</v>
       </c>
-      <c r="P65" s="1">
+      <c r="Q65" s="1">
         <v>10.185</v>
       </c>
-      <c r="Q65" s="4">
-        <f t="shared" si="14"/>
-        <v>1490.6250895102078</v>
-      </c>
       <c r="R65" s="4">
-        <f t="shared" si="15"/>
-        <v>172.04926215996215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>496.87502983673591</v>
+      </c>
+      <c r="S65" s="4">
+        <f t="shared" si="18"/>
+        <v>57.349754053320716</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -3799,7 +3893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -3810,7 +3904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -3821,7 +3915,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -3832,7 +3926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -3843,7 +3937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -3854,7 +3948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -3865,7 +3959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -3876,7 +3970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -3887,7 +3981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -3898,7 +3992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -3909,7 +4003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -3920,7 +4014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -3931,7 +4025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -3942,7 +4036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -4186,8 +4280,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4196,10 +4290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164ACBF-CB39-409E-845E-5FA3CBD74056}">
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q65"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="J63" activeCellId="5" sqref="J9:J11 J15:J17 J21:J23 J27:J29 J57:J59 J63:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,18 +4305,18 @@
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="17.28515625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="17.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26" style="4" customWidth="1"/>
-    <col min="18" max="18" width="24" style="4" customWidth="1"/>
+    <col min="9" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="17.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26" style="4" customWidth="1"/>
+    <col min="19" max="19" width="24" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -4230,7 +4324,7 @@
         <v>23.945</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -4238,7 +4332,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4249,15 +4343,16 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -4286,34 +4381,37 @@
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4342,35 +4440,35 @@
         <f>(((G6/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1544469996799998E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <f>(I6/(1+I6))*100</f>
         <v>1.1412716236624298</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>18</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1029.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-32.158999999999999</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>27.991</v>
       </c>
-      <c r="Q6" s="4">
-        <f>((H6/P6)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R6" s="4">
+        <f>((H6/Q6)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>32.44317554489183</v>
       </c>
-      <c r="R6" s="4">
-        <f>Q6*(K6/100)*1000</f>
+      <c r="S6" s="4">
+        <f>R6*(L6/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -4399,35 +4497,35 @@
         <f t="shared" ref="I7:I15" si="0">(((G7/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1576360468075E-2</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J17" si="1">(I7/(1+I7))*100</f>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K17" si="1">(I7/(1+I7))*100</f>
         <v>1.1443881965290692</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>1028.3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>-32.131999999999998</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>23.530999999999999</v>
       </c>
-      <c r="Q7" s="4">
-        <f t="shared" ref="Q7:Q15" si="2">((H7/P7)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R7" s="4">
+        <f t="shared" ref="R7:R15" si="2">((H7/Q7)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>55.118341914416874</v>
       </c>
-      <c r="R7" s="4">
-        <f t="shared" ref="R7:R35" si="3">Q7*(K7/100)*1000</f>
+      <c r="S7" s="4">
+        <f t="shared" ref="S7:S35" si="3">R7*(L7/100)*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -4456,35 +4554,35 @@
         <f t="shared" si="0"/>
         <v>1.1587070221999998E-2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>1.1454347888666798</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>20</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>1028.7</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>-31.306999999999999</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>24.344000000000001</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="2"/>
         <v>77.906202593815223</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -4514,38 +4612,42 @@
         <v>1.1905843599975E-2</v>
       </c>
       <c r="J9" s="2">
+        <f>I9-AVERAGE($I$6:$I$8)</f>
+        <v>3.3654337101666869E-4</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>1.1765762274500313</v>
       </c>
-      <c r="K9" s="2">
-        <f>J9-AVERAGE($J$6:$J$8)</f>
+      <c r="L9" s="2">
+        <f>K9-AVERAGE($K$6:$K$8)</f>
         <v>3.2878024430638364E-2</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>21</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>1026.5999999999999</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>-31.524000000000001</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>20.856000000000002</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="2"/>
         <v>57.638388964787595</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="3"/>
         <v>18.950363605269231</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -4575,38 +4677,42 @@
         <v>1.168495044795E-2</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" ref="J10:J29" si="4">I10-AVERAGE($I$6:$I$8)</f>
+        <v>1.1565021899166868E-4</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>1.1549989394204374</v>
       </c>
-      <c r="K10" s="2">
-        <f t="shared" ref="K10" si="4">J10-AVERAGE($J$6:$J$8)</f>
+      <c r="L10" s="2">
+        <f t="shared" ref="L10" si="5">K10-AVERAGE($K$6:$K$8)</f>
         <v>1.1300736401044453E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>1028.5</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>-32.261000000000003</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>25.63</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="2"/>
         <v>61.040049717478361</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="3"/>
         <v>6.8979751176387092</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -4636,38 +4742,42 @@
         <v>1.1669393246874998E-2</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0009301791666717E-4</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>1.1534789255038129</v>
       </c>
-      <c r="K11" s="2">
-        <f>J11-AVERAGE($J$6:$J$8)</f>
+      <c r="L11" s="2">
+        <f>K11-AVERAGE($K$6:$K$8)</f>
         <v>9.7807224844199681E-3</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>23</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>1028.0999999999999</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>-32.186</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>24.039000000000001</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="2"/>
         <v>74.201688896209305</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="3"/>
         <v>7.2574612696908982</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -4696,35 +4806,35 @@
         <f t="shared" si="0"/>
         <v>1.1591189358125E-2</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>1.1458373184803876</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>24</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>1027</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>-32.356000000000002</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>22.559000000000001</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="2"/>
         <v>51.598183968140681</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4753,35 +4863,35 @@
         <f>(((G13/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1583989824549999E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>1.1451337645783755</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>25</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>1031.2</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>-32.075000000000003</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <v>34.323999999999998</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="2"/>
         <v>63.26437785398609</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -4810,35 +4920,35 @@
         <f t="shared" si="0"/>
         <v>1.1582771992999999E-2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>1.1450147544703491</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>27</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>1030</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>-30.731000000000002</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>27.571999999999999</v>
       </c>
-      <c r="Q14" s="4">
-        <f>((H14/P14)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R14" s="4">
+        <f>((H14/Q14)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>89.026645426762954</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -4868,38 +4978,42 @@
         <v>1.178132629375E-2</v>
       </c>
       <c r="J15" s="2">
+        <f>I15-AVERAGE($I$12:$I$14)</f>
+        <v>1.9534256852500077E-4</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>1.1644142847453121</v>
       </c>
-      <c r="K15" s="2">
-        <f>J15-AVERAGE($J$12:$J$14)</f>
+      <c r="L15" s="2">
+        <f>K15-AVERAGE($K$12:$K$14)</f>
         <v>1.9085672235607865E-2</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>28</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>1031.4000000000001</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>-30.835000000000001</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>30.117000000000001</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <f t="shared" si="2"/>
         <v>49.390833886169482</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="3"/>
         <v>9.4265726699478503</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -4925,42 +5039,46 @@
         <v>6.6040000000000001</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:I18" si="5">(((G16/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I16:I18" si="6">(((G16/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.166064157505E-2</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" ref="J16:J17" si="7">I16-AVERAGE($I$12:$I$14)</f>
+        <v>7.4657849825000844E-5</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>1.1526238242199083</v>
       </c>
-      <c r="K16" s="2">
-        <f>J16-AVERAGE($J$12:$J$14)</f>
+      <c r="L16" s="2">
+        <f>K16-AVERAGE($K$12:$K$14)</f>
         <v>7.2952117102040859E-3</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>29</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>1031.4000000000001</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>-31.614000000000001</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>28.98</v>
       </c>
-      <c r="Q16" s="4">
-        <f t="shared" ref="Q16:Q25" si="6">((H16/P16)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R16" s="4">
+        <f t="shared" ref="R16:R25" si="8">((H16/Q16)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>85.126640676393109</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="3"/>
         <v>6.2101686591275849</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -4986,42 +5104,46 @@
         <v>8.0739999999999998</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1638541514274998E-2</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="7"/>
+        <v>5.2557789049998901E-5</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="1"/>
         <v>1.150464423474199</v>
       </c>
-      <c r="K17" s="2">
-        <f t="shared" ref="K17" si="7">J17-AVERAGE($J$12:$J$14)</f>
+      <c r="L17" s="2">
+        <f t="shared" ref="L17" si="9">K17-AVERAGE($K$12:$K$14)</f>
         <v>5.1358109644947803E-3</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>30</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>1033.3</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>-31.626999999999999</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>33.340000000000003</v>
       </c>
-      <c r="Q17" s="4">
-        <f t="shared" si="6"/>
+      <c r="R17" s="4">
+        <f t="shared" si="8"/>
         <v>90.464869584585429</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="3"/>
         <v>4.6461046911410415</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -5047,38 +5169,38 @@
         <v>3.5880000000000001</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1593577263125E-2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f>(I18/(1+I18))*100</f>
         <v>1.1460706674800685</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>31</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>1032.7</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>-31.488</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>31.100999999999999</v>
       </c>
-      <c r="Q18" s="4">
-        <f t="shared" si="6"/>
+      <c r="R18" s="4">
+        <f t="shared" si="8"/>
         <v>43.095794633367284</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -5092,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2">
         <v>798</v>
@@ -5104,38 +5226,38 @@
         <v>3.387</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I19:I25" si="8">(((G19/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I19:I25" si="10">(((G19/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1549520415875E-2</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" ref="J19:J25" si="9">(I19/(1+I19))*100</f>
+      <c r="K19" s="2">
+        <f t="shared" ref="K19:K25" si="11">(I19/(1+I19))*100</f>
         <v>1.1417652010874053</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>9</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="1">
         <v>1025.4000000000001</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>-33.433999999999997</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>18.210999999999999</v>
       </c>
-      <c r="Q19" s="4">
-        <f t="shared" si="6"/>
+      <c r="R19" s="4">
+        <f t="shared" si="8"/>
         <v>69.476545137254405</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -5149,7 +5271,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="2">
         <v>798.2</v>
@@ -5161,38 +5283,38 @@
         <v>3.427</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1549866662099999E-2</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1417990395483033</v>
+      </c>
+      <c r="M20" s="1">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1026</v>
+      </c>
+      <c r="P20" s="1">
+        <v>-34.765000000000001</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>22.844999999999999</v>
+      </c>
+      <c r="R20" s="4">
         <f t="shared" si="8"/>
-        <v>1.1549866662099999E-2</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1417990395483033</v>
-      </c>
-      <c r="L20" s="1">
-        <v>10</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1026</v>
-      </c>
-      <c r="O20" s="1">
-        <v>-34.765000000000001</v>
-      </c>
-      <c r="P20" s="1">
-        <v>22.844999999999999</v>
-      </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="6"/>
         <v>56.037629292433685</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -5206,7 +5328,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="2">
         <v>796.9</v>
@@ -5218,42 +5340,46 @@
         <v>2.5859999999999999</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1819831261874999E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <f>I21-AVERAGE($I$18:$I$20)</f>
+        <v>2.5550981484166388E-4</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1681754890229898</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:L23" si="12">K21-AVERAGE($K$18:$K$20)</f>
+        <v>2.4963852984397406E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>11</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1025.5999999999999</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-33.177</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>23.044</v>
+      </c>
+      <c r="R21" s="4">
         <f t="shared" si="8"/>
-        <v>1.1819831261874999E-2</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1681754890229898</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" ref="K21:K23" si="10">J21-AVERAGE($J$18:$J$20)</f>
-        <v>2.4963852984397406E-2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>11</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1025.5999999999999</v>
-      </c>
-      <c r="O21" s="1">
-        <v>-33.177</v>
-      </c>
-      <c r="P21" s="1">
-        <v>23.044</v>
-      </c>
-      <c r="Q21" s="4">
-        <f t="shared" si="6"/>
         <v>41.920597670981998</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="3"/>
         <v>10.464996372764666</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -5267,7 +5393,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="2">
         <v>797.3</v>
@@ -5279,42 +5405,46 @@
         <v>3.645</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="10"/>
+        <v>1.16963407548E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22:J23" si="13">I22-AVERAGE($I$18:$I$20)</f>
+        <v>1.3201930776666516E-4</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1561117979406417</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2900161902049234E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1025.5999999999999</v>
+      </c>
+      <c r="P22" s="1">
+        <v>-31.986999999999998</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>21.997</v>
+      </c>
+      <c r="R22" s="4">
         <f t="shared" si="8"/>
-        <v>1.16963407548E-2</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1561117979406417</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="10"/>
-        <v>1.2900161902049234E-2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>12</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1025.5999999999999</v>
-      </c>
-      <c r="O22" s="1">
-        <v>-31.986999999999998</v>
-      </c>
-      <c r="P22" s="1">
-        <v>21.997</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="6"/>
         <v>61.900034304777208</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="3"/>
         <v>7.9852046427402747</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -5328,7 +5458,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="2">
         <v>797.3</v>
@@ -5340,42 +5470,46 @@
         <v>3.831</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1670563320324999E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0624187329166465E-4</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1535932489744443</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="12"/>
+        <v>1.0381612935851825E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>13</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1024.3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-32.072000000000003</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>20.888000000000002</v>
+      </c>
+      <c r="R23" s="4">
         <f t="shared" si="8"/>
-        <v>1.1670563320324999E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1535932489744443</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0381612935851825E-2</v>
-      </c>
-      <c r="L23" s="1">
-        <v>13</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N23" s="1">
-        <v>1024.3</v>
-      </c>
-      <c r="O23" s="1">
-        <v>-32.072000000000003</v>
-      </c>
-      <c r="P23" s="1">
-        <v>20.888000000000002</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="6"/>
         <v>68.512861253630547</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="3"/>
         <v>7.1127400666291214</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -5389,7 +5523,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F24" s="2">
         <v>796.5</v>
@@ -5401,38 +5535,38 @@
         <v>2.641</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1593935448874999E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="11"/>
+        <v>1.1461056697350027</v>
+      </c>
+      <c r="M24" s="1">
+        <v>14</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1025.0999999999999</v>
+      </c>
+      <c r="P24" s="1">
+        <v>-32.515999999999998</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>21.434000000000001</v>
+      </c>
+      <c r="R24" s="4">
         <f t="shared" si="8"/>
-        <v>1.1593935448874999E-2</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="9"/>
-        <v>1.1461056697350027</v>
-      </c>
-      <c r="L24" s="1">
-        <v>14</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1025.0999999999999</v>
-      </c>
-      <c r="O24" s="1">
-        <v>-32.515999999999998</v>
-      </c>
-      <c r="P24" s="1">
-        <v>21.434000000000001</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="6"/>
         <v>46.027987522412161</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -5446,7 +5580,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="2">
         <v>797.1</v>
@@ -5458,38 +5592,38 @@
         <v>4.0880000000000001</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1580957185199999E-2</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="11"/>
+        <v>1.144837405542398</v>
+      </c>
+      <c r="M25" s="1">
+        <v>15</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1025.0999999999999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-33.103999999999999</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>20.888000000000002</v>
+      </c>
+      <c r="R25" s="4">
         <f t="shared" si="8"/>
-        <v>1.1580957185199999E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="9"/>
-        <v>1.144837405542398</v>
-      </c>
-      <c r="L25" s="1">
-        <v>15</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1025.0999999999999</v>
-      </c>
-      <c r="O25" s="1">
-        <v>-33.103999999999999</v>
-      </c>
-      <c r="P25" s="1">
-        <v>20.888000000000002</v>
-      </c>
-      <c r="Q25" s="4">
-        <f t="shared" si="6"/>
         <v>73.108999427001223</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -5503,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F26" s="2">
         <v>794.8</v>
@@ -5515,38 +5649,38 @@
         <v>4.3879999999999999</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I62" si="11">(((G26/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I26:I62" si="14">(((G26/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1587655258725E-2</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" ref="J26:J62" si="12">(I26/(1+I26))*100</f>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26:K62" si="15">(I26/(1+I26))*100</f>
         <v>1.1454919599390847</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>5</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="N26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" s="1">
         <v>1021</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>-32.055</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>19.969000000000001</v>
       </c>
-      <c r="Q26" s="4">
-        <f t="shared" ref="Q26:Q35" si="13">((H26/P26)*$D$1)/256.4*(1/$D$2*1000)</f>
+      <c r="R26" s="4">
+        <f t="shared" ref="R26:R35" si="16">((H26/Q26)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>82.085625855801922</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -5560,7 +5694,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="2">
         <v>794.8</v>
@@ -5572,42 +5706,46 @@
         <v>2.702</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1734439779075E-2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="12"/>
+        <f>I27-AVERAGE($I$24:$I$26)</f>
+        <v>1.4692381480833384E-4</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="15"/>
         <v>1.1598339759628389</v>
       </c>
-      <c r="K27" s="2">
-        <f>J27-AVERAGE($J$24:$J$26)</f>
+      <c r="L27" s="2">
+        <f>K27-AVERAGE($K$24:$K$26)</f>
         <v>1.4355630890677151E-2</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>6</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="N27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" s="1">
         <v>1022.4</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>-32.854999999999997</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>21.231999999999999</v>
       </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="13"/>
+      <c r="R27" s="4">
+        <f t="shared" si="16"/>
         <v>47.539132349016647</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="3"/>
         <v>6.8245423686553277</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -5621,7 +5759,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="2">
         <v>794.6</v>
@@ -5633,42 +5771,46 @@
         <v>3.355</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1636464036924999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J28:J59" si="17">I28-AVERAGE($I$24:$I$26)</f>
+        <v>4.8948072658332523E-5</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="15"/>
         <v>1.1502614279530621</v>
       </c>
-      <c r="K28" s="2">
-        <f>J28-AVERAGE($J$24:$J$26)</f>
+      <c r="L28" s="2">
+        <f>K28-AVERAGE($K$24:$K$26)</f>
         <v>4.7830828809003467E-3</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>7</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" s="1">
         <v>1021</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>-33.069000000000003</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>17.686</v>
       </c>
-      <c r="Q28" s="4">
-        <f t="shared" si="13"/>
+      <c r="R28" s="4">
+        <f t="shared" si="16"/>
         <v>70.863029590730179</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="3"/>
         <v>3.3894374372415621</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -5682,7 +5824,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29" s="2">
         <v>794.8</v>
@@ -5694,42 +5836,46 @@
         <v>3.6</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1630530092999998E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
+        <v>4.3014128733332227E-5</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="15"/>
         <v>1.1496816028210215</v>
       </c>
-      <c r="K29" s="2">
-        <f t="shared" ref="K29" si="14">J29-AVERAGE($J$24:$J$26)</f>
+      <c r="L29" s="2">
+        <f t="shared" ref="L29" si="18">K29-AVERAGE($K$24:$K$26)</f>
         <v>4.2032577488597678E-3</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>8</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="N29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O29" s="1">
         <v>1021.6</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>-33.284999999999997</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>19.254999999999999</v>
       </c>
-      <c r="Q29" s="4">
-        <f t="shared" si="13"/>
+      <c r="R29" s="4">
+        <f t="shared" si="16"/>
         <v>69.841858852229976</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="3"/>
         <v>2.9356333441540583</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -5739,16 +5885,16 @@
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R30" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -5758,16 +5904,16 @@
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R31" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -5777,16 +5923,16 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R32" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -5796,16 +5942,16 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q33" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R33" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -5815,16 +5961,16 @@
       <c r="C34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R34" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S34" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -5834,16 +5980,16 @@
       <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q35" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R35" s="4" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -5853,16 +5999,16 @@
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q36" s="4" t="e">
-        <f t="shared" ref="Q36:Q45" si="15">((H36/P36)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R36" s="4" t="e">
-        <f t="shared" ref="R36:R45" si="16">Q36*(K36/100)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R36:R45" si="19">((H36/Q36)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="4" t="e">
+        <f t="shared" ref="S36:S45" si="20">R36*(L36/100)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -5872,16 +6018,16 @@
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R37" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -5891,16 +6037,16 @@
       <c r="C38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q38" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R38" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -5910,16 +6056,16 @@
       <c r="C39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q39" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R39" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -5929,16 +6075,16 @@
       <c r="C40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q40" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R40" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>25</v>
       </c>
@@ -5948,16 +6094,16 @@
       <c r="C41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q41" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R41" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -5967,16 +6113,16 @@
       <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q42" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R42" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -5986,16 +6132,16 @@
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q43" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R43" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -6005,16 +6151,16 @@
       <c r="C44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q44" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R44" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -6024,16 +6170,16 @@
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q45" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R45" s="4" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S45" s="4" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -6043,16 +6189,16 @@
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q46" s="4" t="e">
-        <f t="shared" ref="Q46:Q65" si="17">((H46/P46)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R46" s="4" t="e">
-        <f t="shared" ref="R46:R65" si="18">Q46*(K46/100)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R46:R65" si="21">((H46/Q46)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" s="4" t="e">
+        <f t="shared" ref="S46:S65" si="22">R46*(L46/100)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -6062,16 +6208,16 @@
       <c r="C47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R47" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S47" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -6081,16 +6227,16 @@
       <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q48" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R48" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S48" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -6100,16 +6246,16 @@
       <c r="C49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q49" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R49" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S49" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -6119,16 +6265,16 @@
       <c r="C50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q50" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R50" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S50" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -6138,16 +6284,16 @@
       <c r="C51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q51" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R51" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S51" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -6157,16 +6303,16 @@
       <c r="C52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q52" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R52" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -6176,16 +6322,16 @@
       <c r="C53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q53" s="4" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="R53" s="4" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S53" s="4" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -6199,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F54" s="2">
         <v>794.8</v>
@@ -6211,38 +6357,38 @@
         <v>3.97</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.162124114255E-2</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="12"/>
+      <c r="K54" s="2">
+        <f t="shared" si="15"/>
         <v>1.148773935334205</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>9</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="N54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O54" s="1">
         <v>1026</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>-32.652000000000001</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>33.411999999999999</v>
       </c>
-      <c r="Q54" s="4">
-        <f t="shared" si="17"/>
+      <c r="R54" s="4">
+        <f t="shared" si="21"/>
         <v>44.385881145769012</v>
       </c>
-      <c r="R54" s="4">
-        <f t="shared" si="18"/>
+      <c r="S54" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -6256,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F55" s="2">
         <v>794.8</v>
@@ -6268,38 +6414,38 @@
         <v>3.887</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1596896451074999E-2</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="12"/>
+      <c r="K55" s="2">
+        <f t="shared" si="15"/>
         <v>1.1463950207597213</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <v>10</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="N55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O55" s="1">
         <v>1024.9000000000001</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>-32.783999999999999</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>32.936</v>
       </c>
-      <c r="Q55" s="4">
-        <f t="shared" si="17"/>
+      <c r="R55" s="4">
+        <f t="shared" si="21"/>
         <v>44.085979919643719</v>
       </c>
-      <c r="R55" s="4">
-        <f t="shared" si="18"/>
+      <c r="S55" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -6313,7 +6459,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F56" s="2">
         <v>793.6</v>
@@ -6325,38 +6471,38 @@
         <v>2.931</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1586353850499999E-2</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="12"/>
+      <c r="K56" s="2">
+        <f t="shared" si="15"/>
         <v>1.1453647833818366</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <v>11</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="N56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O56" s="1">
         <v>1018.9</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>-34.796999999999997</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>16.818000000000001</v>
       </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="17"/>
+      <c r="R56" s="4">
+        <f t="shared" si="21"/>
         <v>65.102592330592984</v>
       </c>
-      <c r="R56" s="4">
-        <f t="shared" si="18"/>
+      <c r="S56" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -6370,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F57" s="2">
         <v>794</v>
@@ -6382,42 +6528,46 @@
         <v>4.0830000000000002</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1902679625849998E-2</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="12"/>
+        <f>I57-AVERAGE($I$54:$I$56)</f>
+        <v>3.0118247780833163E-4</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="15"/>
         <v>1.1762672305849613</v>
       </c>
-      <c r="K57" s="2">
-        <f>J57-AVERAGE($J$54:$J$56)</f>
+      <c r="L57" s="2">
+        <f>K57-AVERAGE($K$54:$K$56)</f>
         <v>2.942265075970707E-2</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>4</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="N57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O57" s="1">
         <v>1025.5999999999999</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>-32.305999999999997</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <v>36.549999999999997</v>
       </c>
-      <c r="Q57" s="4">
-        <f t="shared" si="17"/>
+      <c r="R57" s="4">
+        <f t="shared" si="21"/>
         <v>41.730040911622794</v>
       </c>
-      <c r="R57" s="4">
-        <f t="shared" si="18"/>
+      <c r="S57" s="4">
+        <f t="shared" si="22"/>
         <v>12.278084199309653</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -6431,7 +6581,7 @@
         <v>13</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F58" s="2">
         <v>792.9</v>
@@ -6443,42 +6593,46 @@
         <v>2.633</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1712112867324998E-2</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J58:J65" si="23">I58-AVERAGE($I$54:$I$56)</f>
+        <v>1.1061571928333222E-4</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="15"/>
         <v>1.1576527273288577</v>
       </c>
-      <c r="K58" s="2">
-        <f t="shared" ref="K58:K59" si="19">J58-AVERAGE($J$54:$J$56)</f>
+      <c r="L58" s="2">
+        <f t="shared" ref="L58:L59" si="24">K58-AVERAGE($K$54:$K$56)</f>
         <v>1.0808147503603482E-2</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>13</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N58" s="1">
+      <c r="N58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O58" s="1">
         <v>1016.8</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>-34.951000000000001</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>11.842000000000001</v>
       </c>
-      <c r="Q58" s="4">
-        <f t="shared" si="17"/>
+      <c r="R58" s="4">
+        <f t="shared" si="21"/>
         <v>83.058218967839963</v>
       </c>
-      <c r="R58" s="4">
-        <f t="shared" si="18"/>
+      <c r="S58" s="4">
+        <f t="shared" si="22"/>
         <v>8.9770548199101086</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -6492,7 +6646,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" s="2">
         <v>792.5</v>
@@ -6504,42 +6658,46 @@
         <v>2.198</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1696603424349999E-2</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
+        <v>9.5106276308333168E-5</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="15"/>
         <v>1.156137461049074</v>
       </c>
-      <c r="K59" s="2">
-        <f t="shared" si="19"/>
+      <c r="L59" s="2">
+        <f t="shared" si="24"/>
         <v>9.2928812238197711E-3</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <v>14</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N59" s="1">
+      <c r="N59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O59" s="1">
         <v>1016.2</v>
       </c>
-      <c r="O59" s="1">
+      <c r="P59" s="1">
         <v>-34.590000000000003</v>
       </c>
-      <c r="P59" s="1">
+      <c r="Q59" s="1">
         <v>10.311</v>
       </c>
-      <c r="Q59" s="4">
-        <f t="shared" si="17"/>
+      <c r="R59" s="4">
+        <f t="shared" si="21"/>
         <v>79.631283010994579</v>
       </c>
-      <c r="R59" s="4">
-        <f t="shared" si="18"/>
+      <c r="S59" s="4">
+        <f t="shared" si="22"/>
         <v>7.4000405472154984</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -6553,7 +6711,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F60" s="2">
         <v>792.7</v>
@@ -6565,38 +6723,38 @@
         <v>2.9289999999999998</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1591332632424999E-2</v>
       </c>
-      <c r="J60" s="2">
-        <f t="shared" si="12"/>
+      <c r="K60" s="2">
+        <f t="shared" si="15"/>
         <v>1.145851319451435</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>14</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="N60" s="1">
+      <c r="N60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O60" s="1">
         <v>1021.8</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>-34.067999999999998</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <v>25.594000000000001</v>
       </c>
-      <c r="Q60" s="4">
-        <f t="shared" si="17"/>
+      <c r="R60" s="4">
+        <f t="shared" si="21"/>
         <v>42.750186916127106</v>
       </c>
-      <c r="R60" s="4">
-        <f t="shared" si="18"/>
+      <c r="S60" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -6610,7 +6768,7 @@
         <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F61" s="2">
         <v>795</v>
@@ -6622,38 +6780,38 @@
         <v>3.74</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1560874904149998E-2</v>
       </c>
-      <c r="J61" s="2">
-        <f t="shared" si="12"/>
+      <c r="K61" s="2">
+        <f t="shared" si="15"/>
         <v>1.1428748571602716</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <v>15</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N61" s="1">
+      <c r="N61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O61" s="1">
         <v>1022.8</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>-33.912999999999997</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <v>29.236999999999998</v>
       </c>
-      <c r="Q61" s="4">
-        <f t="shared" si="17"/>
+      <c r="R61" s="4">
+        <f t="shared" si="21"/>
         <v>47.785441875656367</v>
       </c>
-      <c r="R61" s="4">
-        <f t="shared" si="18"/>
+      <c r="S61" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -6667,7 +6825,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F62" s="2">
         <v>793.2</v>
@@ -6679,38 +6837,38 @@
         <v>2.9849999999999999</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1590699837599999E-2</v>
       </c>
-      <c r="J62" s="2">
-        <f t="shared" si="12"/>
+      <c r="K62" s="2">
+        <f t="shared" si="15"/>
         <v>1.1457894817993839</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>16</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N62" s="1">
+      <c r="N62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O62" s="1">
         <v>1017.8</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P62" s="1">
         <v>-32.872999999999998</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <v>13.154999999999999</v>
       </c>
-      <c r="Q62" s="4">
-        <f t="shared" si="17"/>
+      <c r="R62" s="4">
+        <f t="shared" si="21"/>
         <v>84.763775955827299</v>
       </c>
-      <c r="R62" s="4">
-        <f t="shared" si="18"/>
+      <c r="S62" s="4">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -6724,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F63" s="2">
         <v>793.2</v>
@@ -6736,42 +6894,46 @@
         <v>2.2549999999999999</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" ref="I63:I65" si="20">(((G63/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I63:I65" si="25">(((G63/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1708184763599999E-2</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" ref="J63:J65" si="21">(I63/(1+I63))*100</f>
+        <f>I63-AVERAGE($I$60:$I$62)</f>
+        <v>1.2721563887499975E-4</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" ref="K63:K65" si="26">(I63/(1+I63))*100</f>
         <v>1.1572689575834343</v>
       </c>
-      <c r="K63" s="2">
-        <f>J63-AVERAGE($J$60:$J$62)</f>
+      <c r="L63" s="2">
+        <f>K63-AVERAGE($K$60:$K$62)</f>
         <v>1.2430404779737447E-2</v>
       </c>
-      <c r="L63" s="1">
+      <c r="M63" s="1">
         <v>3</v>
       </c>
-      <c r="M63" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N63" s="1">
+      <c r="N63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O63" s="1">
         <v>1022.4</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>-33.101999999999997</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <v>28.306999999999999</v>
       </c>
-      <c r="Q63" s="4">
-        <f t="shared" si="17"/>
+      <c r="R63" s="4">
+        <f t="shared" si="21"/>
         <v>29.758395620736692</v>
       </c>
-      <c r="R63" s="4">
-        <f t="shared" si="18"/>
+      <c r="S63" s="4">
+        <f t="shared" si="22"/>
         <v>3.6990890316132332</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -6785,7 +6947,7 @@
         <v>4</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F64" s="2">
         <v>794.6</v>
@@ -6797,42 +6959,46 @@
         <v>3.0390000000000001</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.1641383121224999E-2</v>
       </c>
       <c r="J64" s="2">
+        <f t="shared" ref="J64:J65" si="27">I64-AVERAGE($I$60:$I$62)</f>
+        <v>6.0413996499999317E-5</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1507420826644863</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" ref="L64" si="28">K64-AVERAGE($K$60:$K$62)</f>
+        <v>5.9035298607894582E-3</v>
+      </c>
+      <c r="M64" s="1">
+        <v>4</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1022.8</v>
+      </c>
+      <c r="P64" s="1">
+        <v>-34.518000000000001</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>24.760999999999999</v>
+      </c>
+      <c r="R64" s="4">
         <f t="shared" si="21"/>
-        <v>1.1507420826644863</v>
-      </c>
-      <c r="K64" s="2">
-        <f t="shared" ref="K64" si="22">J64-AVERAGE($J$60:$J$62)</f>
-        <v>5.9035298607894582E-3</v>
-      </c>
-      <c r="L64" s="1">
-        <v>4</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N64" s="1">
-        <v>1022.8</v>
-      </c>
-      <c r="O64" s="1">
-        <v>-34.518000000000001</v>
-      </c>
-      <c r="P64" s="1">
-        <v>24.760999999999999</v>
-      </c>
-      <c r="Q64" s="4">
-        <f t="shared" si="17"/>
         <v>45.847887709781652</v>
       </c>
-      <c r="R64" s="4">
-        <f t="shared" si="18"/>
+      <c r="S64" s="4">
+        <f t="shared" si="22"/>
         <v>2.7066437414881799</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -6846,7 +7012,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F65" s="2">
         <v>794.8</v>
@@ -6858,42 +7024,46 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.1654564356824999E-2</v>
       </c>
       <c r="J65" s="2">
+        <f t="shared" si="27"/>
+        <v>7.3595232099999894E-5</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1520300275850155</v>
+      </c>
+      <c r="L65" s="2">
+        <f>K65-AVERAGE($K$60:$K$62)</f>
+        <v>7.1914747813186519E-3</v>
+      </c>
+      <c r="M65" s="1">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1025.0999999999999</v>
+      </c>
+      <c r="P65" s="1">
+        <v>-34.311</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>31.367999999999999</v>
+      </c>
+      <c r="R65" s="4">
         <f t="shared" si="21"/>
-        <v>1.1520300275850155</v>
-      </c>
-      <c r="K65" s="2">
-        <f>J65-AVERAGE($J$60:$J$62)</f>
-        <v>7.1914747813186519E-3</v>
-      </c>
-      <c r="L65" s="1">
-        <v>5</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N65" s="1">
-        <v>1025.0999999999999</v>
-      </c>
-      <c r="O65" s="1">
-        <v>-34.311</v>
-      </c>
-      <c r="P65" s="1">
-        <v>31.367999999999999</v>
-      </c>
-      <c r="Q65" s="4">
-        <f t="shared" si="17"/>
         <v>40.109021346316744</v>
       </c>
-      <c r="R65" s="4">
-        <f t="shared" si="18"/>
+      <c r="S65" s="4">
+        <f t="shared" si="22"/>
         <v>2.8844301551540834</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -6904,7 +7074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -6915,7 +7085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -6926,7 +7096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -6937,7 +7107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -6948,7 +7118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -6959,7 +7129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -6970,7 +7140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -6981,7 +7151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -6992,7 +7162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -7003,7 +7173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -7014,7 +7184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -7025,7 +7195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -7036,7 +7206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -7047,7 +7217,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -7291,8 +7461,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7300,25 +7470,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E3CC5-31DA-4142-8695-256DEB906D50}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="51.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" customWidth="1"/>
-    <col min="11" max="11" width="45.140625" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.7109375" customWidth="1"/>
+    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="12" max="12" width="45.140625" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" customWidth="1"/>
+    <col min="14" max="14" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -7344,22 +7514,25 @@
         <v>106</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -7385,25 +7558,28 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I2">
-        <v>409.62384194205157</v>
+        <v>1.3045721991250016E-3</v>
       </c>
       <c r="J2">
+        <v>136.54128064735053</v>
+      </c>
+      <c r="K2">
         <v>18.950363605269231</v>
       </c>
-      <c r="K2">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>287.72993561481547</v>
-      </c>
       <c r="L2">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>95.90997853827183</v>
+      </c>
+      <c r="M2">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>13.311204919543773</v>
       </c>
-      <c r="M2">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>4.6262843284278578E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>0.13878852985283571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -7429,25 +7605,28 @@
         <v>1.2781464648750005</v>
       </c>
       <c r="I3">
-        <v>257.51247680622396</v>
+        <v>2.3025373962499984E-4</v>
       </c>
       <c r="J3">
+        <v>85.837492268741343</v>
+      </c>
+      <c r="K3">
         <v>6.8979751176387092</v>
       </c>
-      <c r="K3">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>201.47337091872959</v>
-      </c>
       <c r="L3">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>67.157790306243214</v>
+      </c>
+      <c r="M3">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>5.3968581122769166</v>
       </c>
-      <c r="M3">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.6786954959193608E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>8.0360864877580804E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -7473,25 +7652,28 @@
         <v>1.4635275138749999</v>
       </c>
       <c r="I4">
-        <v>252.57264399711681</v>
+        <v>1.5509442975000093E-4</v>
       </c>
       <c r="J4">
+        <v>84.190881332372271</v>
+      </c>
+      <c r="K4">
         <v>7.2574612696908982</v>
       </c>
-      <c r="K4">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>172.57799501724236</v>
-      </c>
       <c r="L4">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>57.525998339080779</v>
+      </c>
+      <c r="M4">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>4.9588827001107951</v>
       </c>
-      <c r="M4">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.8734154082711127E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>8.6202462248133396E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -7517,25 +7699,28 @@
         <v>1.0296552000000001</v>
       </c>
       <c r="I5">
-        <v>264.98028616598145</v>
+        <v>8.5712656022499806E-4</v>
       </c>
       <c r="J5">
+        <v>88.326762055327166</v>
+      </c>
+      <c r="K5">
         <v>9.4265726699478503</v>
       </c>
-      <c r="K5">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>257.34856305876127</v>
-      </c>
       <c r="L5">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>85.782854352920424</v>
+      </c>
+      <c r="M5">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>9.1550770296190898</v>
       </c>
-      <c r="M5">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>3.5574618800294916E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>0.10672385640088473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -7561,25 +7746,28 @@
         <v>1.3970977019999997</v>
       </c>
       <c r="I6">
-        <v>184.45730716112328</v>
+        <v>1.5016340592500024E-4</v>
       </c>
       <c r="J6">
+        <v>61.485769053707749</v>
+      </c>
+      <c r="K6">
         <v>6.2101686591275849</v>
       </c>
-      <c r="K6">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>132.02892460353021</v>
-      </c>
       <c r="L6">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>44.00964153451006</v>
+      </c>
+      <c r="M6">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>4.4450496556092585</v>
       </c>
-      <c r="M6">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>3.3667241242457305E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>0.10100172372737194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -7605,25 +7793,28 @@
         <v>1.5168491988749999</v>
       </c>
       <c r="I7">
-        <v>159.15781466201878</v>
+        <v>9.2364165400000281E-5</v>
       </c>
       <c r="J7">
+        <v>53.052604887339584</v>
+      </c>
+      <c r="K7">
         <v>4.6461046911410415</v>
       </c>
-      <c r="K7">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>104.92659044818774</v>
-      </c>
       <c r="L7">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>34.975530149395901</v>
+      </c>
+      <c r="M7">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>3.062997095945275</v>
       </c>
-      <c r="M7">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.9191810034633392E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>8.7575430103900204E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -7649,25 +7840,28 @@
         <v>1.1469169998750004</v>
       </c>
       <c r="I8">
-        <v>193.60705722071768</v>
+        <v>6.1249365265833057E-4</v>
       </c>
       <c r="J8">
+        <v>64.535685740239231</v>
+      </c>
+      <c r="K8">
         <v>10.464996372764666</v>
       </c>
-      <c r="K8">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>168.80651105687545</v>
-      </c>
       <c r="L8">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>56.268837018958486</v>
+      </c>
+      <c r="M8">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>9.1244583295087782</v>
       </c>
-      <c r="M8">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>5.405276296738639E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>0.16215828890215916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -7693,25 +7887,28 @@
         <v>1.3705949355</v>
       </c>
       <c r="I9">
-        <v>243.56537396869078</v>
+        <v>1.7808597505833239E-4</v>
       </c>
       <c r="J9">
+        <v>81.188457989563588</v>
+      </c>
+      <c r="K9">
         <v>7.9852046427402747</v>
       </c>
-      <c r="K9">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>177.70777321589685</v>
-      </c>
       <c r="L9">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>59.235924405298945</v>
+      </c>
+      <c r="M9">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>5.8260864942035058</v>
       </c>
-      <c r="M9">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>3.2784646325658494E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>9.8353938976975488E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -7737,25 +7934,28 @@
         <v>1.0947018468750003</v>
       </c>
       <c r="I10">
-        <v>156.63178683686533</v>
+        <v>9.3351166133332983E-5</v>
       </c>
       <c r="J10">
+        <v>52.210595612288436</v>
+      </c>
+      <c r="K10">
         <v>7.1127400666291214</v>
       </c>
-      <c r="K10">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>143.08168683920243</v>
-      </c>
       <c r="L10">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>47.693895613067475</v>
+      </c>
+      <c r="M10">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>6.4974221857152834</v>
       </c>
-      <c r="M10">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>4.5410578594989544E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>0.13623173578496864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -7781,25 +7981,28 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I11">
-        <v>157.64855207396715</v>
+        <v>5.8962548244166982E-4</v>
       </c>
       <c r="J11">
+        <v>52.54951735798906</v>
+      </c>
+      <c r="K11">
         <v>6.8245423686553277</v>
       </c>
-      <c r="K11">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>110.73624895210187</v>
-      </c>
       <c r="L11">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>36.912082984033965</v>
+      </c>
+      <c r="M11">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>4.7937276478442055</v>
       </c>
-      <c r="M11">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>4.3289597518493657E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>0.12986879255548095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -7825,25 +8028,28 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I12">
-        <v>133.05711075572978</v>
+        <v>1.0624187329166812E-4</v>
       </c>
       <c r="J12">
+        <v>44.352370251909932</v>
+      </c>
+      <c r="K12">
         <v>3.3894374372415621</v>
       </c>
-      <c r="K12">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>110.94654784317271</v>
-      </c>
       <c r="L12">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>36.982182614390908</v>
+      </c>
+      <c r="M12">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>2.8262028286689529</v>
       </c>
-      <c r="M12">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.5473553558997629E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>7.642066067699288E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -7869,25 +8075,28 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I13">
-        <v>125.44534827642148</v>
+        <v>7.6548274616667147E-5</v>
       </c>
       <c r="J13">
+        <v>41.815116092140492</v>
+      </c>
+      <c r="K13">
         <v>2.9356333441540583</v>
       </c>
-      <c r="K13">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>104.59965841137225</v>
-      </c>
       <c r="L13">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>34.866552803790746</v>
+      </c>
+      <c r="M13">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>2.4478089402161163</v>
       </c>
-      <c r="M13">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.3401691529328996E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>7.0205074587986985E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -7912,12 +8121,12 @@
       <c r="H14">
         <v>2.0038577838749996</v>
       </c>
-      <c r="M14" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -7942,12 +8151,12 @@
       <c r="H15">
         <v>2.2938591554999999</v>
       </c>
-      <c r="M15" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -7972,12 +8181,12 @@
       <c r="H16">
         <v>2.2660522619999997</v>
       </c>
-      <c r="M16" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -8002,12 +8211,12 @@
       <c r="H17">
         <v>3.2190963498749996</v>
       </c>
-      <c r="M17" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -8032,12 +8241,12 @@
       <c r="H18">
         <v>2.673120139875</v>
       </c>
-      <c r="M18" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -8062,12 +8271,12 @@
       <c r="H19">
         <v>2.7015000588749998</v>
       </c>
-      <c r="M19" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -8092,12 +8301,12 @@
       <c r="H20">
         <v>1.7317166988749999</v>
       </c>
-      <c r="M20" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -8122,12 +8331,12 @@
       <c r="H21">
         <v>1.6692833600000001</v>
       </c>
-      <c r="M21" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -8152,12 +8361,12 @@
       <c r="H22">
         <v>1.6938577850000003</v>
       </c>
-      <c r="M22" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -8182,12 +8391,12 @@
       <c r="H23">
         <v>1.6326304662499993</v>
       </c>
-      <c r="M23" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -8212,12 +8421,12 @@
       <c r="H24">
         <v>1.7433406250000003</v>
       </c>
-      <c r="M24" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -8242,12 +8451,12 @@
       <c r="H25">
         <v>1.6938577850000003</v>
       </c>
-      <c r="M25" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -8273,25 +8482,28 @@
         <v>1.5841495962500001</v>
       </c>
       <c r="I26">
-        <v>388.46657877804307</v>
+        <v>1.3486529254249976E-3</v>
       </c>
       <c r="J26">
+        <v>129.48885959268105</v>
+      </c>
+      <c r="K26">
         <v>12.278084199309653</v>
       </c>
-      <c r="K26">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>245.22089308839355</v>
-      </c>
       <c r="L26">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>81.740297696131194</v>
+      </c>
+      <c r="M26">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>7.7505838011601567</v>
       </c>
-      <c r="M26">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>3.1606539326835999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>9.4819617980507989E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -8317,25 +8529,28 @@
         <v>1.8817146162499998</v>
       </c>
       <c r="I27">
-        <v>416.00800665774676</v>
+        <v>2.968046519749995E-4</v>
       </c>
       <c r="J27">
+        <v>138.66933555258225</v>
+      </c>
+      <c r="K27">
         <v>8.9770548199101086</v>
       </c>
-      <c r="K27">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>221.07922373839764</v>
-      </c>
       <c r="L27">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>73.693074579465886</v>
+      </c>
+      <c r="M27">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>4.7706781583065725</v>
       </c>
-      <c r="M27">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.1579043374748325E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>6.4737130124244979E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -8361,25 +8576,28 @@
         <v>1.2685516249999997</v>
       </c>
       <c r="I28">
-        <v>323.35017255718105</v>
+        <v>1.8366571307499961E-4</v>
       </c>
       <c r="J28">
+        <v>107.78339085239369</v>
+      </c>
+      <c r="K28">
         <v>7.4000405472154984</v>
       </c>
-      <c r="K28">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>254.89713322245055</v>
-      </c>
       <c r="L28">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>84.965711074150192</v>
+      </c>
+      <c r="M28">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>5.8334563618689934</v>
       </c>
-      <c r="M28">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>2.2885531461737132E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>6.8656594385211392E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -8405,25 +8623,28 @@
         <v>1.5962280649999994</v>
       </c>
       <c r="I29">
-        <v>261.23414774169566</v>
+        <v>1.1786380692666663E-3</v>
       </c>
       <c r="J29">
+        <v>87.078049247231888</v>
+      </c>
+      <c r="K29">
         <v>3.6990890316132332</v>
       </c>
-      <c r="K29">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>163.65715743864945</v>
-      </c>
       <c r="L29">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>54.552385812883152</v>
+      </c>
+      <c r="M29">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>2.3173938065130026</v>
       </c>
-      <c r="M29">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>1.4160051676210554E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>4.2480155028631658E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -8449,25 +8670,28 @@
         <v>2.3444006599999998</v>
       </c>
       <c r="I30">
-        <v>201.83835970553318</v>
+        <v>1.8648742081666704E-4</v>
       </c>
       <c r="J30">
+        <v>67.279453235177726</v>
+      </c>
+      <c r="K30">
         <v>2.7066437414881799</v>
       </c>
-      <c r="K30">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>86.093799216697533</v>
-      </c>
       <c r="L30">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>28.697933072232512</v>
+      </c>
+      <c r="M30">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1.1545141526654323</v>
       </c>
-      <c r="M30">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>1.3409957083663222E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>4.0229871250989667E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -8493,25 +8717,28 @@
         <v>1.4766958399999999</v>
       </c>
       <c r="I31">
-        <v>172.04926215996215</v>
+        <v>1.1812170066666759E-4</v>
       </c>
       <c r="J31">
+        <v>57.349754053320716</v>
+      </c>
+      <c r="K31">
         <v>2.8844301551540834</v>
       </c>
-      <c r="K31">
-        <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 from TG (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>116.50961389581904</v>
-      </c>
       <c r="L31">
+        <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
+        <v>38.83653796527301</v>
+      </c>
+      <c r="M31">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
         <v>1.9533001157192151</v>
       </c>
-      <c r="M31">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>1.6765141093556653E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>5.0295423280669965E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -8536,12 +8763,12 @@
       <c r="H32">
         <v>1.7807449962499993</v>
       </c>
-      <c r="M32" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -8566,12 +8793,12 @@
       <c r="H33">
         <v>1.6692833599999997</v>
       </c>
-      <c r="M33" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -8596,12 +8823,12 @@
       <c r="H34">
         <v>2.6098511562500004</v>
       </c>
-      <c r="M34" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -8626,12 +8853,12 @@
       <c r="H35">
         <v>2.1552348650000002</v>
       </c>
-      <c r="M35" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -8656,12 +8883,12 @@
       <c r="H36">
         <v>3.2322898962499993</v>
       </c>
-      <c r="M36" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -8686,12 +8913,12 @@
       <c r="H37">
         <v>3.7884931399999995</v>
       </c>
-      <c r="M37" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -8713,12 +8940,12 @@
       <c r="G38">
         <v>6</v>
       </c>
-      <c r="M38" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -8740,12 +8967,12 @@
       <c r="G39">
         <v>6</v>
       </c>
-      <c r="M39" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -8767,12 +8994,12 @@
       <c r="G40">
         <v>6</v>
       </c>
-      <c r="M40" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -8794,12 +9021,12 @@
       <c r="G41">
         <v>6</v>
       </c>
-      <c r="M41" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -8821,12 +9048,12 @@
       <c r="G42">
         <v>6</v>
       </c>
-      <c r="M42" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -8848,12 +9075,12 @@
       <c r="G43">
         <v>6</v>
       </c>
-      <c r="M43" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -8875,12 +9102,12 @@
       <c r="G44">
         <v>6</v>
       </c>
-      <c r="M44" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -8902,12 +9129,12 @@
       <c r="G45">
         <v>6</v>
       </c>
-      <c r="M45" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -8929,12 +9156,12 @@
       <c r="G46">
         <v>6</v>
       </c>
-      <c r="M46" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -8956,12 +9183,12 @@
       <c r="G47">
         <v>6</v>
       </c>
-      <c r="M47" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -8983,12 +9210,12 @@
       <c r="G48">
         <v>6</v>
       </c>
-      <c r="M48" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -9010,8 +9237,8 @@
       <c r="G49">
         <v>6</v>
       </c>
-      <c r="M49" t="e">
-        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular 13C 16:0 from TG(nmol/g of protein)]]</f>
+      <c r="N49" t="e">
+        <f>Table1[[#This Row],[Intracellular 13C 16:0 (nmol/g of protein)]]/Table1[[#This Row],[Intracellular TG 13C 16:0 (nmol/g of protein)]]</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9028,8 +9255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AF5A50-7815-4DC8-A9A8-77E827F75BC9}">
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L61"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9070,21 +9297,21 @@
         <v>106</v>
       </c>
       <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
         <v>174</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>175</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>176</v>
-      </c>
-      <c r="L1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9108,14 +9335,14 @@
         <v>1.6105425179999999</v>
       </c>
       <c r="I2">
-        <v>278.6468373028593</v>
+        <v>92.882279100953099</v>
       </c>
       <c r="J2">
         <v>32.44317554489183</v>
       </c>
       <c r="K2">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>173.01426953253483</v>
+        <v>57.671423177511606</v>
       </c>
       <c r="L2">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9124,7 +9351,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9148,14 +9375,14 @@
         <v>1.8536911395000002</v>
       </c>
       <c r="I3">
-        <v>988.60558277236726</v>
+        <v>329.53519425745577</v>
       </c>
       <c r="J3">
         <v>55.118341914416874</v>
       </c>
       <c r="K3">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>533.31731576330765</v>
+        <v>177.77243858776924</v>
       </c>
       <c r="L3">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9164,7 +9391,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9188,14 +9415,14 @@
         <v>1.1077408155000004</v>
       </c>
       <c r="I4">
-        <v>1505.9363873114003</v>
+        <v>501.97879577046677</v>
       </c>
       <c r="J4">
         <v>77.906202593815223</v>
       </c>
       <c r="K4">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1359.466371771872</v>
+        <v>453.15545725729072</v>
       </c>
       <c r="L4">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9228,14 +9455,14 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I5">
-        <v>321.71976530647294</v>
+        <v>107.23992176882432</v>
       </c>
       <c r="J5">
         <v>57.638388964787595</v>
       </c>
       <c r="K5">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>225.98393423286237</v>
+        <v>75.327978077620799</v>
       </c>
       <c r="L5">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9268,14 +9495,14 @@
         <v>1.2781464648750005</v>
       </c>
       <c r="I6">
-        <v>1144.6987572897526</v>
+        <v>381.56625242991754</v>
       </c>
       <c r="J6">
         <v>61.040049717478361</v>
       </c>
       <c r="K6">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>895.59278904839846</v>
+        <v>298.53092968279952</v>
       </c>
       <c r="L6">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9308,14 +9535,14 @@
         <v>1.4635275138749999</v>
       </c>
       <c r="I7">
-        <v>1666.6998678286466</v>
+        <v>555.56662260954886</v>
       </c>
       <c r="J7">
         <v>74.201688896209305</v>
       </c>
       <c r="K7">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1138.8237337716355</v>
+        <v>379.60791125721187</v>
       </c>
       <c r="L7">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9324,7 +9551,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -9348,14 +9575,14 @@
         <v>1.6508449938750001</v>
       </c>
       <c r="I8">
-        <v>251.1002385620717</v>
+        <v>83.700079520690565</v>
       </c>
       <c r="J8">
         <v>51.598183968140681</v>
       </c>
       <c r="K8">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>152.10406761004765</v>
+        <v>50.701355870015881</v>
       </c>
       <c r="L8">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9364,7 +9591,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9388,14 +9615,14 @@
         <v>1.2124082355000003</v>
       </c>
       <c r="I9">
-        <v>1045.0187468269828</v>
+        <v>348.33958227566092</v>
       </c>
       <c r="J9">
         <v>63.26437785398609</v>
       </c>
       <c r="K9">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>861.93636452495252</v>
+        <v>287.31212150831749</v>
       </c>
       <c r="L9">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9404,7 +9631,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9428,14 +9655,14 @@
         <v>1.3177079594999996</v>
       </c>
       <c r="I10">
-        <v>1809.51874252932</v>
+        <v>603.17291417644003</v>
       </c>
       <c r="J10">
         <v>89.026645426762954</v>
       </c>
       <c r="K10">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1373.2320044692881</v>
+        <v>457.7440014897627</v>
       </c>
       <c r="L10">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9468,14 +9695,14 @@
         <v>1.0296552000000001</v>
       </c>
       <c r="I11">
-        <v>316.61838020636446</v>
+        <v>105.53946006878816</v>
       </c>
       <c r="J11">
         <v>49.390833886169482</v>
       </c>
       <c r="K11">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>307.49942330827292</v>
+        <v>102.49980776942432</v>
       </c>
       <c r="L11">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9508,14 +9735,14 @@
         <v>1.3970977019999997</v>
       </c>
       <c r="I12">
-        <v>1257.1736811814558</v>
+        <v>419.05789372715191</v>
       </c>
       <c r="J12">
         <v>85.126640676393109</v>
       </c>
       <c r="K12">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>899.84664593017567</v>
+        <v>299.9488819767252</v>
       </c>
       <c r="L12">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9548,14 +9775,14 @@
         <v>1.5168491988749999</v>
       </c>
       <c r="I13">
-        <v>1763.4481779883488</v>
+        <v>587.81605932944956</v>
       </c>
       <c r="J13">
         <v>90.464869584585429</v>
       </c>
       <c r="K13">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1162.5731676532141</v>
+        <v>387.52438921773802</v>
       </c>
       <c r="L13">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9564,7 +9791,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -9588,14 +9815,14 @@
         <v>1.1599954875000005</v>
       </c>
       <c r="I14">
-        <v>267.65279336579795</v>
+        <v>89.217597788599321</v>
       </c>
       <c r="J14">
         <v>43.095794633367284</v>
       </c>
       <c r="K14">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>230.7360642778344</v>
+        <v>76.912021425944801</v>
       </c>
       <c r="L14">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9604,7 +9831,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -9628,14 +9855,14 @@
         <v>1.0816727580000003</v>
       </c>
       <c r="I15">
-        <v>1278.3610636373421</v>
+        <v>426.12035454578069</v>
       </c>
       <c r="J15">
         <v>69.476545137254405</v>
       </c>
       <c r="K15">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1181.8371630261042</v>
+        <v>393.94572100870141</v>
       </c>
       <c r="L15">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9644,7 +9871,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -9668,14 +9895,14 @@
         <v>1.7182133820000001</v>
       </c>
       <c r="I16">
-        <v>1626.7759686220147</v>
+        <v>542.25865620733828</v>
       </c>
       <c r="J16">
         <v>56.037629292433685</v>
       </c>
       <c r="K16">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>946.78343543596884</v>
+        <v>315.5944784786563</v>
       </c>
       <c r="L16">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9708,14 +9935,14 @@
         <v>1.1469169998750004</v>
       </c>
       <c r="I17">
-        <v>323.65198219317836</v>
+        <v>107.88399406439278</v>
       </c>
       <c r="J17">
         <v>41.920597670981998</v>
       </c>
       <c r="K17">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>282.19302898854266</v>
+        <v>94.064342996180883</v>
       </c>
       <c r="L17">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9748,14 +9975,14 @@
         <v>1.3705949355</v>
       </c>
       <c r="I18">
-        <v>1399.7731489202806</v>
+        <v>466.59104964009356</v>
       </c>
       <c r="J18">
         <v>61.900034304777208</v>
       </c>
       <c r="K18">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1021.2887211710265</v>
+        <v>340.4295737236755</v>
       </c>
       <c r="L18">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9788,14 +10015,14 @@
         <v>1.0947018468750003</v>
       </c>
       <c r="I19">
-        <v>1717.0979555241747</v>
+        <v>572.36598517472487</v>
       </c>
       <c r="J19">
         <v>68.512861253630547</v>
       </c>
       <c r="K19">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1568.5530817600268</v>
+        <v>522.85102725334229</v>
       </c>
       <c r="L19">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9804,7 +10031,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -9828,14 +10055,14 @@
         <v>1.4369259498750007</v>
       </c>
       <c r="I20">
-        <v>282.14577844779484</v>
+        <v>94.048592815931613</v>
       </c>
       <c r="J20">
         <v>46.027987522412161</v>
       </c>
       <c r="K20">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>196.35373588481642</v>
+        <v>65.451245294938801</v>
       </c>
       <c r="L20">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9844,7 +10071,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -9868,14 +10095,14 @@
         <v>1.7317166988749999</v>
       </c>
       <c r="I21">
-        <v>1181.7018803765279</v>
+        <v>393.90062679217596</v>
       </c>
       <c r="J21">
         <v>73.108999427001223</v>
       </c>
       <c r="K21">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>682.38752975253624</v>
+        <v>227.46250991751208</v>
       </c>
       <c r="L21">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9884,7 +10111,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -9908,14 +10135,14 @@
         <v>1.7587529718750003</v>
       </c>
       <c r="I22">
-        <v>1970.2952042132322</v>
+        <v>656.76506807107739</v>
       </c>
       <c r="J22">
         <v>82.085625855801922</v>
       </c>
       <c r="K22">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1120.2796729962067</v>
+        <v>373.42655766540224</v>
       </c>
       <c r="L22">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9948,14 +10175,14 @@
         <v>1.4236399874999996</v>
       </c>
       <c r="I23">
-        <v>273.7405239753669</v>
+        <v>91.246841325122304</v>
       </c>
       <c r="J23">
         <v>47.539132349016647</v>
       </c>
       <c r="K23">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>192.28212636543898</v>
+        <v>64.09404212181299</v>
       </c>
       <c r="L23">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -9988,14 +10215,14 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I24">
-        <v>1281.6210324166198</v>
+        <v>427.20701080553994</v>
       </c>
       <c r="J24">
         <v>70.863029590730179</v>
       </c>
       <c r="K24">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1068.6496075423295</v>
+        <v>356.2165358474432</v>
       </c>
       <c r="L24">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10028,14 +10255,14 @@
         <v>1.1992902288750005</v>
       </c>
       <c r="I25">
-        <v>1676.9625553633816</v>
+        <v>558.98751845446054</v>
       </c>
       <c r="J25">
         <v>69.841858852229976</v>
       </c>
       <c r="K25">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1398.2958544875862</v>
+        <v>466.09861816252874</v>
       </c>
       <c r="L25">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10044,7 +10271,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -10070,7 +10297,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -10096,7 +10323,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -10200,7 +10427,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -10226,7 +10453,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -10252,7 +10479,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -10356,7 +10583,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -10382,7 +10609,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -10408,7 +10635,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -10512,7 +10739,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -10538,7 +10765,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -10564,7 +10791,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -10668,7 +10895,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -10692,14 +10919,14 @@
         <v>1.7932687849999995</v>
       </c>
       <c r="I50">
-        <v>273.72140513206739</v>
+        <v>91.240468377355796</v>
       </c>
       <c r="J50">
         <v>44.385881145769012</v>
       </c>
       <c r="K50">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>152.63824777503584</v>
+        <v>50.879415925011941</v>
       </c>
       <c r="L50">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10708,7 +10935,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -10732,14 +10959,14 @@
         <v>1.3254649062499999</v>
       </c>
       <c r="I51">
-        <v>1088.3579970729711</v>
+        <v>362.7859990243237</v>
       </c>
       <c r="J51">
         <v>44.085979919643719</v>
       </c>
       <c r="K51">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>821.11415544916179</v>
+        <v>273.70471848305391</v>
       </c>
       <c r="L51">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10748,7 +10975,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -10772,14 +10999,14 @@
         <v>1.1238334962500003</v>
       </c>
       <c r="I52">
-        <v>1492.0473429408771</v>
+        <v>497.34911431362571</v>
       </c>
       <c r="J52">
         <v>65.102592330592984</v>
       </c>
       <c r="K52">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1327.6409253857712</v>
+        <v>442.54697512859042</v>
       </c>
       <c r="L52">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10812,14 +11039,14 @@
         <v>1.5841495962500001</v>
       </c>
       <c r="I53">
-        <v>295.13894941625978</v>
+        <v>98.37964980541993</v>
       </c>
       <c r="J53">
         <v>41.730040911622794</v>
       </c>
       <c r="K53">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>186.30749906127105</v>
+        <v>62.102499687090351</v>
       </c>
       <c r="L53">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10852,14 +11079,14 @@
         <v>1.8817146162499998</v>
       </c>
       <c r="I54">
-        <v>1434.6700197599639</v>
+        <v>478.22333991998795</v>
       </c>
       <c r="J54">
         <v>83.058218967839963</v>
       </c>
       <c r="K54">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>762.42699470500224</v>
+        <v>254.14233156833407</v>
       </c>
       <c r="L54">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10892,14 +11119,14 @@
         <v>1.2685516249999997</v>
       </c>
       <c r="I55">
-        <v>1801.8425730666283</v>
+        <v>600.61419102220941</v>
       </c>
       <c r="J55">
         <v>79.631283010994579</v>
       </c>
       <c r="K55">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1420.3935713429312</v>
+        <v>473.464523780977</v>
       </c>
       <c r="L55">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10908,7 +11135,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -10932,14 +11159,14 @@
         <v>1.5003796249999999</v>
       </c>
       <c r="I56">
-        <v>175.63725873573205</v>
+        <v>58.545752911910682</v>
       </c>
       <c r="J56">
         <v>42.750186916127106</v>
       </c>
       <c r="K56">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>117.06187941317323</v>
+        <v>39.020626471057739</v>
       </c>
       <c r="L56">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10948,7 +11175,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -10972,14 +11199,14 @@
         <v>1.4766958399999999</v>
       </c>
       <c r="I57">
-        <v>1130.2469617544084</v>
+        <v>376.74898725146949</v>
       </c>
       <c r="J57">
         <v>47.785441875656367</v>
       </c>
       <c r="K57">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>765.38914185226429</v>
+        <v>255.12971395075476</v>
       </c>
       <c r="L57">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -10988,7 +11215,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -11012,14 +11239,14 @@
         <v>1.5480811849999991</v>
       </c>
       <c r="I58">
-        <v>1732.8257663560346</v>
+        <v>577.60858878534486</v>
       </c>
       <c r="J58">
         <v>84.763775955827299</v>
       </c>
       <c r="K58">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1119.3377861226545</v>
+        <v>373.11259537421819</v>
       </c>
       <c r="L58">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -11052,14 +11279,14 @@
         <v>1.5962280649999994</v>
       </c>
       <c r="I59">
-        <v>227.06596813187872</v>
+        <v>75.688656043959568</v>
       </c>
       <c r="J59">
         <v>29.758395620736692</v>
       </c>
       <c r="K59">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>142.2515824089829</v>
+        <v>47.41719413632763</v>
       </c>
       <c r="L59">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -11092,14 +11319,14 @@
         <v>2.3444006599999998</v>
       </c>
       <c r="I60">
-        <v>1107.7193243836275</v>
+        <v>369.23977479454248</v>
       </c>
       <c r="J60">
         <v>45.847887709781652</v>
       </c>
       <c r="K60">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>472.49573986369188</v>
+        <v>157.49857995456395</v>
       </c>
       <c r="L60">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -11132,14 +11359,14 @@
         <v>1.4766958399999999</v>
       </c>
       <c r="I61">
-        <v>1490.6250895102078</v>
+        <v>496.87502983673591</v>
       </c>
       <c r="J61">
         <v>40.109021346316744</v>
       </c>
       <c r="K61">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 from TG(umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
-        <v>1009.4327139908567</v>
+        <v>336.47757133028557</v>
       </c>
       <c r="L61">
         <f>Table2[[#This Row],[Uncorrected intracellular 16:0 (umol/L)]]/Table2[[#This Row],[Protein (mg/mL)]]</f>
@@ -11148,7 +11375,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -11174,7 +11401,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -11200,7 +11427,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -11304,7 +11531,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -11330,7 +11557,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -11356,7 +11583,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -11460,7 +11687,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -11483,7 +11710,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75">
         <v>7</v>
@@ -11506,7 +11733,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -11598,7 +11825,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -11621,7 +11848,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -11644,7 +11871,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82">
         <v>7</v>
@@ -11736,7 +11963,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -11759,7 +11986,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -11782,7 +12009,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -11874,7 +12101,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -11897,7 +12124,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -11920,7 +12147,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B94">
         <v>8</v>

--- a/TRL Calculations - Cells.xlsx
+++ b/TRL Calculations - Cells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/TRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1216" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC79B9D-FA67-415E-B8CA-BFE8C70D10DA}"/>
+  <xr:revisionPtr revIDLastSave="1266" documentId="13_ncr:1_{94779E9C-2E3D-4E3A-B9AD-064335246722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4780BE66-46C7-4A5D-8F66-A57D263EDA4E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="340">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -1053,6 +1053,12 @@
   </si>
   <si>
     <t>FA_96</t>
+  </si>
+  <si>
+    <t>Have I screwed Up?</t>
+  </si>
+  <si>
+    <t>Have I screwed up?</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1143,6 +1149,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,6 +1189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1492,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="J64" workbookViewId="0">
-      <selection activeCell="V85" sqref="V85"/>
+    <sheetView topLeftCell="K66" workbookViewId="0">
+      <selection activeCell="X96" sqref="X96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1534,7 @@
     <col min="19" max="19" width="34.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1542,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1536,7 +1550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I3" s="2">
         <f>AVERAGE(I6:I8,I12:I14,I18:I20,I24:I26,I54:I56,I60:I62,I30:I32,I36:I38,I42:I44,I48:I50)</f>
         <v>1.15738448101575E-2</v>
@@ -1546,7 +1560,7 @@
         <v>1.1441422958112899</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1580,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1624,8 +1638,11 @@
       <c r="S5" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1681,8 +1698,12 @@
         <f>R6*(L6/100)*1000</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f>M6-D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1738,8 +1759,12 @@
         <f t="shared" ref="S7:S56" si="3">R7*(L7/100)*1000</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" ref="U7:U70" si="4">M7-D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1795,8 +1820,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1853,15 +1882,19 @@
         <v>11.538</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" ref="R9:R33" si="4">((H9/Q9)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <f t="shared" ref="R9:R33" si="5">((H9/Q9)*$D$1)/256.4*(1/$D$2*1000)/3</f>
         <v>107.23992176882432</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" ref="S9:S33" si="5">R9*(L9/100)*1000</f>
+        <f t="shared" ref="S9:S33" si="6">R9*(L9/100)*1000</f>
         <v>136.54128064735053</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1891,7 +1924,7 @@
         <v>1.1810804980974999E-2</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" ref="J10:J11" si="6">I10-AVERAGE($I$6:$I$8)</f>
+        <f t="shared" ref="J10:J11" si="7">I10-AVERAGE($I$6:$I$8)</f>
         <v>2.3025373962499984E-4</v>
       </c>
       <c r="K10" s="2">
@@ -1899,7 +1932,7 @@
         <v>1.1672938184522623</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ref="L10:L11" si="7">K10-AVERAGE($K$6:$K$8)</f>
+        <f t="shared" ref="L10:L11" si="8">K10-AVERAGE($K$6:$K$8)</f>
         <v>2.249609123503582E-2</v>
       </c>
       <c r="M10" s="1">
@@ -1918,15 +1951,19 @@
         <v>14.579000000000001</v>
       </c>
       <c r="R10" s="4">
+        <f t="shared" si="5"/>
+        <v>381.56625242991754</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="6"/>
+        <v>85.837492268741343</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="4"/>
-        <v>381.56625242991754</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="5"/>
-        <v>85.837492268741343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1956,7 +1993,7 @@
         <v>1.17356456711E-2</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5509442975000093E-4</v>
       </c>
       <c r="K11" s="2">
@@ -1964,7 +2001,7 @@
         <v>1.1599517839776776</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5154056760451118E-2</v>
       </c>
       <c r="M11" s="1">
@@ -1983,15 +2020,19 @@
         <v>14.452</v>
       </c>
       <c r="R11" s="4">
+        <f t="shared" si="5"/>
+        <v>555.56662260954886</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="6"/>
+        <v>84.190881332372271</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="4"/>
-        <v>555.56662260954886</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="5"/>
-        <v>84.190881332372271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -2040,15 +2081,19 @@
         <v>12.85</v>
       </c>
       <c r="R12" s="4">
+        <f t="shared" si="5"/>
+        <v>83.700079520690565</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="4"/>
-        <v>83.700079520690565</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -2097,15 +2142,19 @@
         <v>14.836</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>348.33958227566092</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="4"/>
-        <v>348.33958227566092</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -2154,15 +2203,19 @@
         <v>14.003</v>
       </c>
       <c r="R14" s="4">
+        <f t="shared" si="5"/>
+        <v>603.17291417644003</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="4"/>
-        <v>603.17291417644003</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -2219,15 +2272,19 @@
         <v>12.532999999999999</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="5"/>
+        <v>105.53946006878816</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="6"/>
+        <v>88.326762055327166</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="4"/>
-        <v>105.53946006878816</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="5"/>
-        <v>88.326762055327166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -2253,11 +2310,11 @@
         <v>44.933999999999997</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:I23" si="8">(((G16/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I16:I23" si="9">(((G16/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1729401299524999E-2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J17" si="9">I16-AVERAGE($I$12:$I$14)</f>
+        <f t="shared" ref="J16:J17" si="10">I16-AVERAGE($I$12:$I$14)</f>
         <v>1.5016340592500024E-4</v>
       </c>
       <c r="K16" s="2">
@@ -2265,7 +2322,7 @@
         <v>1.1593417453776733</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:L17" si="10">K16-AVERAGE($K$12:$K$14)</f>
+        <f t="shared" ref="L16:L17" si="11">K16-AVERAGE($K$12:$K$14)</f>
         <v>1.4672380588478084E-2</v>
       </c>
       <c r="M16" s="1">
@@ -2284,15 +2341,19 @@
         <v>13.978999999999999</v>
       </c>
       <c r="R16" s="4">
+        <f t="shared" si="5"/>
+        <v>419.05789372715191</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="6"/>
+        <v>61.485769053707749</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="4"/>
-        <v>419.05789372715191</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="5"/>
-        <v>61.485769053707749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -2318,11 +2379,11 @@
         <v>61.856999999999999</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1671602058999999E-2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.2364165400000281E-5</v>
       </c>
       <c r="K17" s="2">
@@ -2330,7 +2391,7 @@
         <v>1.1536947399971913</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.025375207996067E-3</v>
       </c>
       <c r="M17" s="1">
@@ -2349,15 +2410,19 @@
         <v>13.718999999999999</v>
       </c>
       <c r="R17" s="4">
+        <f t="shared" si="5"/>
+        <v>587.81605932944956</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="6"/>
+        <v>53.052604887339584</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="4"/>
-        <v>587.81605932944956</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="5"/>
-        <v>53.052604887339584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -2383,7 +2448,7 @@
         <v>9.6</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1596884511549999E-2</v>
       </c>
       <c r="K18" s="2">
@@ -2406,15 +2471,19 @@
         <v>14.028</v>
       </c>
       <c r="R18" s="4">
+        <f t="shared" si="5"/>
+        <v>89.217597788599321</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="4"/>
-        <v>89.217597788599321</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -2440,7 +2509,7 @@
         <v>39.700000000000003</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1565304467924999E-2</v>
       </c>
       <c r="K19" s="2">
@@ -2463,15 +2532,19 @@
         <v>12.146000000000001</v>
       </c>
       <c r="R19" s="4">
+        <f t="shared" si="5"/>
+        <v>426.12035454578069</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="4"/>
-        <v>426.12035454578069</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -2497,7 +2570,7 @@
         <v>60.066000000000003</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1562104675224999E-2</v>
       </c>
       <c r="K20" s="2">
@@ -2520,15 +2593,19 @@
         <v>14.441000000000001</v>
       </c>
       <c r="R20" s="4">
+        <f t="shared" si="5"/>
+        <v>542.25865620733828</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="4"/>
-        <v>542.25865620733828</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -2554,7 +2631,7 @@
         <v>9.0969999999999995</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2187258204224997E-2</v>
       </c>
       <c r="J21" s="2">
@@ -2585,15 +2662,19 @@
         <v>10.993</v>
       </c>
       <c r="R21" s="4">
+        <f t="shared" si="5"/>
+        <v>107.88399406439278</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="6"/>
+        <v>64.535685740239231</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="4"/>
-        <v>107.88399406439278</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="5"/>
-        <v>64.535685740239231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -2619,11 +2700,11 @@
         <v>45.396000000000001</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1752850526624999E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22:J23" si="11">I22-AVERAGE($I$18:$I$20)</f>
+        <f t="shared" ref="J22:J23" si="12">I22-AVERAGE($I$18:$I$20)</f>
         <v>1.7808597505833239E-4</v>
       </c>
       <c r="K22" s="2">
@@ -2631,7 +2712,7 @@
         <v>1.1616325588316903</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" ref="L22:L23" si="12">K22-AVERAGE($K$18:$K$20)</f>
+        <f t="shared" ref="L22:L23" si="13">K22-AVERAGE($K$18:$K$20)</f>
         <v>1.7400346202994799E-2</v>
       </c>
       <c r="M22" s="1">
@@ -2650,15 +2731,19 @@
         <v>12.683999999999999</v>
       </c>
       <c r="R22" s="4">
+        <f t="shared" si="5"/>
+        <v>466.59104964009356</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="6"/>
+        <v>81.188457989563588</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="4"/>
-        <v>466.59104964009356</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="5"/>
-        <v>81.188457989563588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -2684,11 +2769,11 @@
         <v>53.390999999999998</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.16681157177E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3351166133332983E-5</v>
       </c>
       <c r="K23" s="2">
@@ -2696,7 +2781,7 @@
         <v>1.1533541026369478</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1218900082523646E-3</v>
       </c>
       <c r="M23" s="1">
@@ -2715,15 +2800,19 @@
         <v>12.161</v>
       </c>
       <c r="R23" s="4">
+        <f t="shared" si="5"/>
+        <v>572.36598517472487</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="6"/>
+        <v>52.210595612288436</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="4"/>
-        <v>572.36598517472487</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="5"/>
-        <v>52.210595612288436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -2749,11 +2838,11 @@
         <v>7.3280000000000003</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:I25" si="13">(((G24/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I24:I25" si="14">(((G24/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1527874057049999E-2</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" ref="K24:K25" si="14">(I24/(1+I24))*100</f>
+        <f t="shared" ref="K24:K25" si="15">(I24/(1+I24))*100</f>
         <v>1.139649667864697</v>
       </c>
       <c r="M24" s="1">
@@ -2772,15 +2861,19 @@
         <v>10.157999999999999</v>
       </c>
       <c r="R24" s="4">
+        <f t="shared" si="5"/>
+        <v>94.048592815931613</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="4"/>
-        <v>94.048592815931613</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -2806,11 +2899,11 @@
         <v>39.347999999999999</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1558642212975E-2</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1426566617718072</v>
       </c>
       <c r="M25" s="1">
@@ -2829,15 +2922,19 @@
         <v>13.023</v>
       </c>
       <c r="R25" s="4">
+        <f t="shared" si="5"/>
+        <v>393.90062679217596</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="4"/>
-        <v>393.90062679217596</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -2863,11 +2960,11 @@
         <v>41.39</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I61" si="15">(((G26/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I26:I61" si="16">(((G26/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.155547823885E-2</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:K29" si="16">(I26/(1+I26))*100</f>
+        <f t="shared" ref="K26:K29" si="17">(I26/(1+I26))*100</f>
         <v>1.1423474527535011</v>
       </c>
       <c r="M26" s="1">
@@ -2886,15 +2983,19 @@
         <v>8.2159999999999993</v>
       </c>
       <c r="R26" s="4">
+        <f t="shared" si="5"/>
+        <v>656.76506807107739</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="4"/>
-        <v>656.76506807107739</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -2920,7 +3021,7 @@
         <v>5.5019999999999998</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.21369569854E-2</v>
       </c>
       <c r="J27" s="2">
@@ -2928,7 +3029,7 @@
         <v>5.8962548244166982E-4</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1991417665005859</v>
       </c>
       <c r="L27" s="2">
@@ -2951,15 +3052,19 @@
         <v>7.8609999999999998</v>
       </c>
       <c r="R27" s="4">
+        <f t="shared" si="5"/>
+        <v>91.246841325122304</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="6"/>
+        <v>52.54951735798906</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="4"/>
-        <v>91.246841325122304</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="5"/>
-        <v>52.54951735798906</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -2989,7 +3094,7 @@
         <v>1.1653573376249999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ref="J28:J29" si="17">I28-AVERAGE($I$24:$I$26)</f>
+        <f t="shared" ref="J28:J29" si="18">I28-AVERAGE($I$24:$I$26)</f>
         <v>1.0624187329166812E-4</v>
       </c>
       <c r="K28" s="2">
@@ -2997,7 +3102,7 @@
         <v>1.151933199559396</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:L29" si="18">K28-AVERAGE($K$24:$K$26)</f>
+        <f t="shared" ref="L28:L29" si="19">K28-AVERAGE($K$24:$K$26)</f>
         <v>1.0381938762727527E-2</v>
       </c>
       <c r="M28" s="1">
@@ -3016,15 +3121,19 @@
         <v>8.3640000000000008</v>
       </c>
       <c r="R28" s="4">
+        <f t="shared" si="5"/>
+        <v>427.20701080553994</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="6"/>
+        <v>44.352370251909932</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="4"/>
-        <v>427.20701080553994</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="5"/>
-        <v>44.352370251909932</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -3050,19 +3159,19 @@
         <v>29.834</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1623879777574998E-2</v>
       </c>
       <c r="J29" s="2">
+        <f t="shared" si="18"/>
+        <v>7.6548274616667147E-5</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="17"/>
-        <v>7.6548274616667147E-5</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="16"/>
         <v>1.1490317705954838</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.4805097988153157E-3</v>
       </c>
       <c r="M29" s="1">
@@ -3081,15 +3190,19 @@
         <v>6.9580000000000002</v>
       </c>
       <c r="R29" s="4">
+        <f t="shared" si="5"/>
+        <v>558.98751845446054</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="6"/>
+        <v>41.815116092140492</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="4"/>
-        <v>558.98751845446054</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="5"/>
-        <v>41.815116092140492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -3115,11 +3228,11 @@
         <v>4.407</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1614566948074998E-2</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ref="K30:K35" si="19">(I30/(1+I30))*100</f>
+        <f t="shared" ref="K30:K35" si="20">(I30/(1+I30))*100</f>
         <v>1.1481217577871397</v>
       </c>
       <c r="M30" s="1">
@@ -3138,15 +3251,19 @@
         <v>7.5720000000000001</v>
       </c>
       <c r="R30" s="4">
+        <f t="shared" si="5"/>
+        <v>75.876535853827193</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="4"/>
-        <v>75.876535853827193</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -3172,11 +3289,11 @@
         <v>25.765000000000001</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1579787111749999E-2</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1447230618172455</v>
       </c>
       <c r="M31" s="1">
@@ -3195,15 +3312,19 @@
         <v>9.7650000000000006</v>
       </c>
       <c r="R31" s="4">
+        <f t="shared" si="5"/>
+        <v>343.97980732337334</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="4"/>
-        <v>343.97980732337334</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -3229,11 +3350,11 @@
         <v>33.106000000000002</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.157300546155E-2</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1440603297109129</v>
       </c>
       <c r="M32" s="1">
@@ -3252,15 +3373,19 @@
         <v>9.7159999999999993</v>
       </c>
       <c r="R32" s="4">
+        <f t="shared" si="5"/>
+        <v>444.21605847354539</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="4"/>
-        <v>444.21605847354539</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -3286,7 +3411,7 @@
         <v>4.5369999999999999</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2619982408799999E-2</v>
       </c>
       <c r="J33" s="2">
@@ -3294,7 +3419,7 @@
         <v>1.0308625683416676E-3</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2462703312233518</v>
       </c>
       <c r="L33" s="2">
@@ -3317,15 +3442,19 @@
         <v>8.4789999999999992</v>
       </c>
       <c r="R33" s="4">
+        <f t="shared" si="5"/>
+        <v>69.758830924058998</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="6"/>
+        <v>70.201995837762681</v>
+      </c>
+      <c r="U33">
         <f t="shared" si="4"/>
-        <v>69.758830924058998</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="5"/>
-        <v>70.201995837762681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -3351,19 +3480,19 @@
         <v>23.204999999999998</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1849859167249999E-2</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J35" si="20">I34-AVERAGE($I$30:$I$32)</f>
+        <f t="shared" ref="J34:J35" si="21">I34-AVERAGE($I$30:$I$32)</f>
         <v>2.6073932679166779E-4</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1711084465636437</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ref="L34" si="21">K34-AVERAGE($K$30:$K$32)</f>
+        <f t="shared" ref="L34" si="22">K34-AVERAGE($K$30:$K$32)</f>
         <v>2.5473396791877656E-2</v>
       </c>
       <c r="M34" s="1">
@@ -3389,8 +3518,12 @@
         <f>R34*(L34/100)*1000</f>
         <v>75.707406462117561</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -3416,15 +3549,15 @@
         <v>35.173999999999999</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1749877584899999E-2</v>
       </c>
       <c r="J35" s="2">
+        <f t="shared" si="21"/>
+        <v>1.6075774444166725E-4</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="20"/>
-        <v>1.6075774444166725E-4</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="19"/>
         <v>1.1613421306210159</v>
       </c>
       <c r="L35" s="2">
@@ -3447,15 +3580,19 @@
         <v>10.265000000000001</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" ref="R35:R55" si="22">((H35/Q35)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <f t="shared" ref="R35:R55" si="23">((H35/Q35)*$D$1)/256.4*(1/$D$2*1000)/3</f>
         <v>446.72252900832063</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" ref="S35:S55" si="23">R35*(L35/100)*1000</f>
+        <f t="shared" ref="S35:S55" si="24">R35*(L35/100)*1000</f>
         <v>70.167068803150656</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -3481,11 +3618,11 @@
         <v>4.657</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1611677583024999E-2</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ref="K36:K64" si="24">(I36/(1+I36))*100</f>
+        <f t="shared" ref="K36:K64" si="25">(I36/(1+I36))*100</f>
         <v>1.1478394170743451</v>
       </c>
       <c r="M36" s="1">
@@ -3504,15 +3641,19 @@
         <v>8.1839999999999993</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>74.1849258525571</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -3538,11 +3679,11 @@
         <v>21.725000000000001</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1554367863025E-2</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1422389374319406</v>
       </c>
       <c r="M37" s="1">
@@ -3561,15 +3702,19 @@
         <v>10.509</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>269.50910560925246</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -3595,11 +3740,11 @@
         <v>42.091999999999999</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1569280329749999E-2</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.143696289984079</v>
       </c>
       <c r="M38" s="1">
@@ -3618,15 +3763,19 @@
         <v>10.923</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>502.38038890776539</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -3652,7 +3801,7 @@
         <v>5.2069999999999999</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.272865596535E-2</v>
       </c>
       <c r="J39" s="2">
@@ -3660,7 +3809,7 @@
         <v>1.1502140400833343E-3</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2568673642612422</v>
       </c>
       <c r="L39" s="2">
@@ -3683,15 +3832,19 @@
         <v>8.6449999999999996</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>78.523134910358834</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>88.162490546171867</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -3717,19 +3870,19 @@
         <v>21.466999999999999</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1786555805699999E-2</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J40:J41" si="25">I40-AVERAGE($I$36:$I$38)</f>
+        <f t="shared" ref="J40:J41" si="26">I40-AVERAGE($I$36:$I$38)</f>
         <v>2.0811388043333323E-4</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1649251255680302</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" ref="L40:L41" si="26">K40-AVERAGE($K$36:$K$38)</f>
+        <f t="shared" ref="L40:L41" si="27">K40-AVERAGE($K$36:$K$38)</f>
         <v>2.0333577404575198E-2</v>
       </c>
       <c r="M40" s="1">
@@ -3748,15 +3901,19 @@
         <v>7.1310000000000002</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>392.46051513635365</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>79.801262627645031</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -3782,19 +3939,19 @@
         <v>36.587000000000003</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1721879398775E-2</v>
       </c>
       <c r="J41" s="2">
+        <f t="shared" si="26"/>
+        <v>1.434374735083347E-4</v>
+      </c>
+      <c r="K41" s="2">
         <f t="shared" si="25"/>
-        <v>1.434374735083347E-4</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="24"/>
         <v>1.1586068896464743</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.4015341483019306E-2</v>
       </c>
       <c r="M41" s="1">
@@ -3813,15 +3970,19 @@
         <v>8.0190000000000001</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>594.81462286300416</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>83.365300585183448</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -3847,11 +4008,11 @@
         <v>6.88</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.16124775312E-2</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1479175859455379</v>
       </c>
       <c r="M42" s="1">
@@ -3870,15 +4031,19 @@
         <v>10.608000000000001</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>84.553186049010577</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -3904,11 +4069,11 @@
         <v>25.102</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1548433919099998E-2</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1416590181803987</v>
       </c>
       <c r="M43" s="1">
@@ -3927,15 +4092,19 @@
         <v>10.073</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>324.88117036842698</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -3961,11 +4130,11 @@
         <v>38.795999999999999</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1550380061674999E-2</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1418492137752707</v>
       </c>
       <c r="M44" s="1">
@@ -3984,15 +4153,19 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>559.49159913299206</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -4018,7 +4191,7 @@
         <v>6.5209999999999999</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2236365470549997E-2</v>
       </c>
       <c r="J45" s="2">
@@ -4026,7 +4199,7 @@
         <v>6.6593496655833161E-4</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2088446817321941</v>
       </c>
       <c r="L45" s="2">
@@ -4049,15 +4222,19 @@
         <v>10.372999999999999</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>81.956777162439053</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>53.301471690018474</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -4083,19 +4260,19 @@
         <v>24.954000000000001</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1729902759574997E-2</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" ref="J46:J47" si="27">I46-AVERAGE($I$42:$I$44)</f>
+        <f t="shared" ref="J46:J47" si="28">I46-AVERAGE($I$42:$I$44)</f>
         <v>1.5947225558333132E-4</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1593907353712429</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" ref="L46" si="28">K46-AVERAGE($K$42:$K$44)</f>
+        <f t="shared" ref="L46" si="29">K46-AVERAGE($K$42:$K$44)</f>
         <v>1.5582129404173806E-2</v>
       </c>
       <c r="M46" s="1">
@@ -4114,15 +4291,19 @@
         <v>7.9240000000000004</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>410.55444035025408</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>63.973124169958155</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -4148,15 +4329,15 @@
         <v>40.597000000000001</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.168084325135E-2</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.1041274735833391E-4</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1545976509558082</v>
       </c>
       <c r="L47" s="2">
@@ -4179,15 +4360,19 @@
         <v>8.4640000000000004</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>625.30706663049148</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>67.464660736528614</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -4213,11 +4398,11 @@
         <v>5.9809999999999999</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1614769919999999E-2</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.148141591578236</v>
       </c>
       <c r="M48" s="1">
@@ -4236,15 +4421,19 @@
         <v>8.0730000000000004</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>96.585937511574528</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -4270,11 +4459,11 @@
         <v>25.677</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1540732925475E-2</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1409063965321562</v>
       </c>
       <c r="M49" s="1">
@@ -4293,15 +4482,19 @@
         <v>8.0489999999999995</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>415.88897100423719</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -4327,11 +4520,11 @@
         <v>39.460999999999999</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1552266506624999E-2</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1420335744509293</v>
       </c>
       <c r="M50" s="1">
@@ -4350,15 +4543,19 @@
         <v>7.9139999999999997</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>650.05049077373769</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -4384,7 +4581,7 @@
         <v>4.093</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.221836066685E-2</v>
       </c>
       <c r="J51" s="2">
@@ -4392,7 +4589,7 @@
         <v>6.4910421615000172E-4</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2070874370230289</v>
       </c>
       <c r="L51" s="2">
@@ -4415,15 +4612,19 @@
         <v>7.0629999999999997</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>75.548803064964176</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>47.893093052535313</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -4449,19 +4650,19 @@
         <v>23.288</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1670563320324999E-2</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" ref="J52:J53" si="29">I52-AVERAGE($I$48:$I$50)</f>
+        <f t="shared" ref="J52:J53" si="30">I52-AVERAGE($I$48:$I$50)</f>
         <v>1.0130686962500114E-4</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1535932489744443</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" ref="L52" si="30">K52-AVERAGE($K$48:$K$50)</f>
+        <f t="shared" ref="L52" si="31">K52-AVERAGE($K$48:$K$50)</f>
         <v>9.8993947873369237E-3</v>
       </c>
       <c r="M52" s="1">
@@ -4480,15 +4681,19 @@
         <v>7.4489999999999998</v>
       </c>
       <c r="R52" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>407.5766241818958</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>40.347619088666391</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -4514,15 +4719,15 @@
         <v>34.579000000000001</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1637061013174998E-2</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6.7804562475000038E-5</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1503197600847328</v>
       </c>
       <c r="L53" s="2">
@@ -4545,15 +4750,19 @@
         <v>6.851</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>658.01154247308421</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>43.599225599780354</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -4579,11 +4788,11 @@
         <v>5.0739999999999998</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1608704641299998E-2</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1475489077979273</v>
       </c>
       <c r="M54" s="1">
@@ -4602,15 +4811,19 @@
         <v>7.25</v>
       </c>
       <c r="R54" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>91.240468377355796</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -4636,11 +4849,11 @@
         <v>21.853000000000002</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1543992415799998E-2</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1412249494191828</v>
       </c>
       <c r="M55" s="1">
@@ -4659,15 +4872,19 @@
         <v>7.8529999999999998</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>362.7859990243237</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -4693,11 +4910,11 @@
         <v>51.368000000000002</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.156703569905E-2</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1434769314182449</v>
       </c>
       <c r="M56" s="1">
@@ -4723,8 +4940,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -4750,7 +4971,7 @@
         <v>7.7530000000000001</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.2921897177474998E-2</v>
       </c>
       <c r="J57" s="2">
@@ -4758,7 +4979,7 @@
         <v>1.3486529254249976E-3</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2757051864987909</v>
       </c>
       <c r="L57" s="2">
@@ -4781,15 +5002,19 @@
         <v>10.273999999999999</v>
       </c>
       <c r="R57" s="4">
-        <f t="shared" ref="R57:R65" si="31">((H57/Q57)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <f t="shared" ref="R57:R65" si="32">((H57/Q57)*$D$1)/256.4*(1/$D$2*1000)/3</f>
         <v>98.37964980541993</v>
       </c>
       <c r="S57" s="4">
-        <f t="shared" ref="S57:S65" si="32">R57*(L57/100)*1000</f>
+        <f t="shared" ref="S57:S65" si="33">R57*(L57/100)*1000</f>
         <v>129.48885959268105</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -4815,19 +5040,19 @@
         <v>36.927999999999997</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1870048904025E-2</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" ref="J58:J59" si="33">I58-AVERAGE($I$54:$I$56)</f>
+        <f t="shared" ref="J58:J59" si="34">I58-AVERAGE($I$54:$I$56)</f>
         <v>2.968046519749995E-4</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1730803690534835</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" ref="L58:L59" si="34">K58-AVERAGE($K$54:$K$56)</f>
+        <f t="shared" ref="L58:L59" si="35">K58-AVERAGE($K$54:$K$56)</f>
         <v>2.8996772841698437E-2</v>
       </c>
       <c r="M58" s="1">
@@ -4846,15 +5071,19 @@
         <v>10.067</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>478.22333991998795</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>138.66933555258225</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -4880,19 +5109,19 @@
         <v>54.302999999999997</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1756909965125E-2</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.8366571307499961E-4</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1620291247163568</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.7945528504571762E-2</v>
       </c>
       <c r="M59" s="1">
@@ -4911,15 +5140,19 @@
         <v>11.787000000000001</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>600.61419102220941</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107.78339085239369</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -4945,11 +5178,11 @@
         <v>5.1059999999999999</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.1613062567924999E-2</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1479747541462018</v>
       </c>
       <c r="M60" s="1">
@@ -4968,15 +5201,19 @@
         <v>11.37</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>58.545752911910682</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -5002,11 +5239,11 @@
         <v>34.661000000000001</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.15598958631E-2</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1427791780175975</v>
       </c>
       <c r="M61" s="1">
@@ -5025,15 +5262,19 @@
         <v>11.994</v>
       </c>
       <c r="R61" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>376.74898725146949</v>
       </c>
       <c r="S61" s="4">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -5059,11 +5300,11 @@
         <v>44.567</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" ref="I62:I65" si="35">(((G62/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I62:I65" si="36">(((G62/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1555251387874999E-2</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1423252829759871</v>
       </c>
       <c r="M62" s="1">
@@ -5082,15 +5323,19 @@
         <v>10.058999999999999</v>
       </c>
       <c r="R62" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>577.60858878534486</v>
       </c>
       <c r="S62" s="4">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -5116,7 +5361,7 @@
         <v>5.851</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.2754708008899999E-2</v>
       </c>
       <c r="J63" s="2">
@@ -5124,7 +5369,7 @@
         <v>1.1786380692666663E-3</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.259407426895705</v>
       </c>
       <c r="L63" s="2">
@@ -5147,15 +5392,19 @@
         <v>10.077999999999999</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>75.688656043959568</v>
       </c>
       <c r="S63" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>87.078049247231888</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -5181,7 +5430,7 @@
         <v>27.759</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.176255736045E-2</v>
       </c>
       <c r="J64" s="2">
@@ -5189,11 +5438,11 @@
         <v>1.8648742081666704E-4</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.1625808125512078</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" ref="L64" si="36">K64-AVERAGE($K$60:$K$62)</f>
+        <f t="shared" ref="L64" si="37">K64-AVERAGE($K$60:$K$62)</f>
         <v>1.8221074171279161E-2</v>
       </c>
       <c r="M64" s="1">
@@ -5212,15 +5461,19 @@
         <v>9.8010000000000002</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>369.23977479454248</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>67.279453235177726</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -5246,7 +5499,7 @@
         <v>38.817999999999998</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.16941916403E-2</v>
       </c>
       <c r="J65" s="2">
@@ -5254,7 +5507,7 @@
         <v>1.1812170066666759E-4</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" ref="K65" si="37">(I65/(1+I65))*100</f>
+        <f t="shared" ref="K65" si="38">(I65/(1+I65))*100</f>
         <v>1.1559018265529175</v>
       </c>
       <c r="L65" s="2">
@@ -5277,15 +5530,19 @@
         <v>10.185</v>
       </c>
       <c r="R65" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>496.87502983673591</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>57.349754053320716</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -5311,11 +5568,11 @@
         <v>5.5220000000000002</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" ref="I66:I87" si="38">(((G66/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I66:I87" si="39">(((G66/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1636129730224999E-2</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" ref="K66:K87" si="39">(I66/(1+I66))*100</f>
+        <f t="shared" ref="K66:K87" si="40">(I66/(1+I66))*100</f>
         <v>1.1502287619292551</v>
       </c>
       <c r="M66" s="1">
@@ -5334,15 +5591,19 @@
         <v>10.923</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" ref="R66:R87" si="40">((H66/Q66)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <f t="shared" ref="R66:R87" si="41">((H66/Q66)*$D$1)/256.4*(1/$D$2*1000)/3</f>
         <v>65.906692662469851</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" ref="S66:S87" si="41">R66*(L66/100)*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S66:S87" si="42">R66*(L66/100)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -5368,11 +5629,11 @@
         <v>19.555</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1542189547524999E-2</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1410487537537075</v>
       </c>
       <c r="M67" s="1">
@@ -5391,15 +5652,19 @@
         <v>10.539</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>241.89866161872973</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -5425,11 +5690,11 @@
         <v>47.924999999999997</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.15411269298E-2</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1409449030341741</v>
       </c>
       <c r="M68" s="1">
@@ -5448,15 +5713,19 @@
         <v>11.615</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>537.92032869433592</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>64</v>
       </c>
@@ -5489,7 +5758,7 @@
         <v>3.663273120974999E-3</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.5007757334944918</v>
       </c>
       <c r="L69" s="6">
@@ -5512,18 +5781,22 @@
         <v>8.67</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>75.033723378923639</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>267.6464872717296</v>
       </c>
       <c r="T69" s="9" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>65</v>
       </c>
@@ -5552,15 +5825,15 @@
         <v>1.220580028655E-2</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" ref="J70:J71" si="42">I70-AVERAGE($I$66:$I$68)</f>
+        <f>I70-AVERAGE($I$66:$I$68)</f>
         <v>6.3265155070000093E-4</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.2058615237231998</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" ref="L70:L71" si="43">K70-AVERAGE($K$66:$K$68)</f>
+        <f>K70-AVERAGE($K$66:$K$68)</f>
         <v>6.1787384150820746E-2</v>
       </c>
       <c r="M70" s="7">
@@ -5579,18 +5852,22 @@
         <v>10.502000000000001</v>
       </c>
       <c r="R70" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>440.0923064155474</v>
       </c>
       <c r="S70" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>271.92152398318137</v>
       </c>
       <c r="T70" s="9" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>66</v>
       </c>
@@ -5619,15 +5896,15 @@
         <v>1.198157600705E-2</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="J71" si="43">I71-AVERAGE($I$66:$I$68)</f>
         <v>4.0842727120000109E-4</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1839717531543805</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="L71" si="44">K71-AVERAGE($K$66:$K$68)</f>
         <v>3.9897613582001501E-2</v>
       </c>
       <c r="M71" s="7">
@@ -5646,18 +5923,22 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>691.39272318613132</v>
       </c>
       <c r="S71" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>275.84919703087996</v>
       </c>
       <c r="T71" s="9" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <f t="shared" ref="U71:U101" si="45">M71-D71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>67</v>
       </c>
@@ -5687,7 +5968,7 @@
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.150932243310808</v>
       </c>
       <c r="L72" s="6"/>
@@ -5707,18 +5988,22 @@
         <v>10.666</v>
       </c>
       <c r="R72" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>83.616707128438904</v>
       </c>
       <c r="S72" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T72" s="9" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>68</v>
       </c>
@@ -5748,7 +6033,7 @@
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1407663726355846</v>
       </c>
       <c r="L73" s="6"/>
@@ -5768,18 +6053,22 @@
         <v>9.5950000000000006</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>233.83576718785272</v>
       </c>
       <c r="S73" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T73" s="9" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>69</v>
       </c>
@@ -5809,7 +6098,7 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1420755805846396</v>
       </c>
       <c r="L74" s="6"/>
@@ -5829,18 +6118,22 @@
         <v>10.579000000000001</v>
       </c>
       <c r="R74" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>654.34772339376411</v>
       </c>
       <c r="S74" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T74" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U74">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>70</v>
       </c>
@@ -5866,7 +6159,7 @@
         <v>4.8410000000000002</v>
       </c>
       <c r="I75" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.5140260922474998E-2</v>
       </c>
       <c r="J75" s="6">
@@ -5874,7 +6167,7 @@
         <v>3.5618189972083346E-3</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.4914452224283559</v>
       </c>
       <c r="L75" s="6">
@@ -5897,15 +6190,19 @@
         <v>8.9149999999999991</v>
       </c>
       <c r="R75" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>70.792750274228595</v>
       </c>
       <c r="S75" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>245.54736114691471</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -5931,19 +6228,19 @@
         <v>35.036999999999999</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.2189646109224999E-2</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" ref="J76" si="44">I76-AVERAGE($I$72:$I$74)</f>
+        <f t="shared" ref="J76" si="46">I76-AVERAGE($I$72:$I$74)</f>
         <v>6.1120418395833528E-4</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.2042848053308006</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" ref="L76:L77" si="45">K76-AVERAGE($K$72:$K$74)</f>
+        <f t="shared" ref="L76:L77" si="47">K76-AVERAGE($K$72:$K$74)</f>
         <v>5.9693406487123069E-2</v>
       </c>
       <c r="M76" s="1">
@@ -5962,15 +6259,19 @@
         <v>11.468</v>
       </c>
       <c r="R76" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>398.30364299329563</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>237.76101266500743</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -5996,7 +6297,7 @@
         <v>49</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1943644136125E-2</v>
       </c>
       <c r="J77" s="6">
@@ -6004,11 +6305,11 @@
         <v>3.6520221085833623E-4</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1802677160269175</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>3.5676317183239936E-2</v>
       </c>
       <c r="M77" s="1">
@@ -6027,15 +6328,19 @@
         <v>12.154</v>
       </c>
       <c r="R77" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>525.59581402509036</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>187.51322971342313</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -6061,11 +6366,11 @@
         <v>7.7889999999999997</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1624297660949998E-2</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1490726041107733</v>
       </c>
       <c r="M78" s="1">
@@ -6084,15 +6389,19 @@
         <v>11.577</v>
       </c>
       <c r="R78" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>87.712344634409035</v>
       </c>
       <c r="S78" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -6118,11 +6427,11 @@
         <v>41.890999999999998</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1579882627950001E-2</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1447323960088061</v>
       </c>
       <c r="M79" s="1">
@@ -6141,15 +6450,19 @@
         <v>16.506</v>
       </c>
       <c r="R79" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>330.86736797958531</v>
       </c>
       <c r="S79" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -6175,11 +6488,11 @@
         <v>57.216999999999999</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1564086636375001E-2</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1431887301206571</v>
       </c>
       <c r="M80" s="1">
@@ -6198,15 +6511,19 @@
         <v>14.949</v>
       </c>
       <c r="R80" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>498.98557504946524</v>
       </c>
       <c r="S80" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -6232,7 +6549,7 @@
         <v>9.0150000000000006</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.3429541901425E-2</v>
       </c>
       <c r="J81" s="2">
@@ -6240,7 +6557,7 @@
         <v>1.8401195929999992E-3</v>
       </c>
       <c r="K81" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.3251579262459743</v>
       </c>
       <c r="L81" s="2">
@@ -6263,15 +6580,19 @@
         <v>11.17</v>
       </c>
       <c r="R81" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>105.21741012881341</v>
       </c>
       <c r="S81" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>188.85825369654802</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U81">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -6297,19 +6618,19 @@
         <v>39.238999999999997</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1971845294174999E-2</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" ref="J82:J83" si="46">I82-AVERAGE($I$78:$I$80)</f>
+        <f t="shared" ref="J82:J83" si="48">I82-AVERAGE($I$78:$I$80)</f>
         <v>3.8242298574999757E-4</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1830215781047588</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" ref="L82:L83" si="47">K82-AVERAGE($K$78:$K$80)</f>
+        <f t="shared" ref="L82:L83" si="49">K82-AVERAGE($K$78:$K$80)</f>
         <v>3.7357001358013342E-2</v>
       </c>
       <c r="M82" s="1">
@@ -6328,15 +6649,19 @@
         <v>11.664999999999999</v>
       </c>
       <c r="R82" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>438.53901571407908</v>
       </c>
       <c r="S82" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>163.82502605572688</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -6362,19 +6687,19 @@
         <v>57.332999999999998</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1842337266499999E-2</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2.5291495807499773E-4</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1703737657876785</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.4709189040933E-2</v>
       </c>
       <c r="M83" s="1">
@@ -6393,15 +6718,19 @@
         <v>11.813000000000001</v>
       </c>
       <c r="R83" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>632.73158302951094</v>
       </c>
       <c r="S83" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>156.3428429724498</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U83">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -6427,11 +6756,11 @@
         <v>8.08</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1619366637124999E-2</v>
       </c>
       <c r="K84" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1485907664807438</v>
       </c>
       <c r="M84" s="1">
@@ -6450,15 +6779,19 @@
         <v>11.657</v>
       </c>
       <c r="R84" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>90.36486706101168</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -6484,11 +6817,11 @@
         <v>37.597999999999999</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1549162230124999E-2</v>
       </c>
       <c r="K85" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.141730195758651</v>
       </c>
       <c r="M85" s="1">
@@ -6507,15 +6840,19 @@
         <v>11.795999999999999</v>
       </c>
       <c r="R85" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>415.53253110117635</v>
       </c>
       <c r="S85" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -6541,11 +6878,11 @@
         <v>60.149000000000001</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.1558295966749999E-2</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.1426228238980229</v>
       </c>
       <c r="M86" s="1">
@@ -6564,15 +6901,19 @@
         <v>11.577999999999999</v>
       </c>
       <c r="R86" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>677.28259622697908</v>
       </c>
       <c r="S86" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -6598,7 +6939,7 @@
         <v>7.4429999999999996</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.327128349755E-2</v>
       </c>
       <c r="J87" s="2">
@@ -6606,7 +6947,7 @@
         <v>1.6956752195500004E-3</v>
       </c>
       <c r="K87" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.3097463348355207</v>
       </c>
       <c r="L87" s="2">
@@ -6629,15 +6970,19 @@
         <v>9.6370000000000005</v>
       </c>
       <c r="R87" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>100.68881036864387</v>
       </c>
       <c r="S87" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>166.57125043078503</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U87">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -6663,19 +7008,19 @@
         <v>26.408000000000001</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" ref="I88:I93" si="48">(((G88/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I88:I93" si="50">(((G88/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1836069015874999E-2</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" ref="J88:J89" si="49">I88-AVERAGE($I$84:$I$86)</f>
+        <f t="shared" ref="J88:J89" si="51">I88-AVERAGE($I$84:$I$86)</f>
         <v>2.604607378749995E-4</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" ref="K88:K93" si="50">(I88/(1+I88))*100</f>
+        <f t="shared" ref="K88:K93" si="52">(I88/(1+I88))*100</f>
         <v>1.1697615234636689</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" ref="L88:L89" si="51">K88-AVERAGE($K$84:$K$86)</f>
+        <f t="shared" ref="L88:L89" si="53">K88-AVERAGE($K$84:$K$86)</f>
         <v>2.5446928084529752E-2</v>
       </c>
       <c r="M88" s="1">
@@ -6694,15 +7039,19 @@
         <v>7.8550000000000004</v>
       </c>
       <c r="R88" s="4">
-        <f t="shared" ref="R88:R101" si="52">((H88/Q88)*$D$1)/256.4*(1/$D$2*1000)/3</f>
+        <f t="shared" ref="R88:R101" si="54">((H88/Q88)*$D$1)/256.4*(1/$D$2*1000)/3</f>
         <v>438.29283559630107</v>
       </c>
       <c r="S88" s="4">
-        <f t="shared" ref="S88:S93" si="53">R88*(L88/100)*1000</f>
+        <f t="shared" ref="S88:S93" si="55">R88*(L88/100)*1000</f>
         <v>111.53206267383696</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U88">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -6728,19 +7077,19 @@
         <v>38.728999999999999</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1756599537475E-2</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.8099125947500065E-4</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1619987992022522</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>1.7684203823113087E-2</v>
       </c>
       <c r="M89" s="1">
@@ -6759,15 +7108,19 @@
         <v>8.2970000000000006</v>
       </c>
       <c r="R89" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>608.54155945194066</v>
       </c>
       <c r="S89" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>107.61572972183208</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U89">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -6793,11 +7146,11 @@
         <v>5.8449999999999998</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1607259958774999E-2</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1474077360069577</v>
       </c>
       <c r="M90" s="1">
@@ -6816,15 +7169,19 @@
         <v>7.226</v>
       </c>
       <c r="R90" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>105.4536479826201</v>
       </c>
       <c r="S90" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -6850,11 +7207,11 @@
         <v>26.521000000000001</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1545759465500001E-2</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1413976438990532</v>
       </c>
       <c r="M91" s="1">
@@ -6873,15 +7230,19 @@
         <v>7.49</v>
       </c>
       <c r="R91" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>461.61841720664825</v>
       </c>
       <c r="S91" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -6907,11 +7268,11 @@
         <v>43.265000000000001</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1552696329524999E-2</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.1420755805846396</v>
       </c>
       <c r="M92" s="1">
@@ -6930,15 +7291,19 @@
         <v>7.8849999999999998</v>
       </c>
       <c r="R92" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>715.33596410438543</v>
       </c>
       <c r="S92" s="4">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -6964,7 +7329,7 @@
         <v>5.141</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.3259952888324999E-2</v>
       </c>
       <c r="J93" s="2">
@@ -6972,7 +7337,7 @@
         <v>1.6913809703916656E-3</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1.3086427476509994</v>
       </c>
       <c r="L93" s="2">
@@ -6995,15 +7360,19 @@
         <v>6.6429999999999998</v>
       </c>
       <c r="R93" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>100.89238794600709</v>
       </c>
       <c r="S93" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>166.48834157935929</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U93">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -7029,19 +7398,19 @@
         <v>36.177999999999997</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" ref="I94:I101" si="54">(((G94/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I94:I101" si="56">(((G94/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.2019543696549999E-2</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" ref="J94:J101" si="55">I94-AVERAGE($I$90:$I$92)</f>
+        <f t="shared" ref="J94" si="57">I94-AVERAGE($I$90:$I$92)</f>
         <v>4.509717786166656E-4</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" ref="K94:K101" si="56">(I94/(1+I94))*100</f>
+        <f t="shared" ref="K94:K101" si="58">(I94/(1+I94))*100</f>
         <v>1.187679009898055</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" ref="L94:L101" si="57">K94-AVERAGE($K$90:$K$92)</f>
+        <f t="shared" ref="L94" si="59">K94-AVERAGE($K$90:$K$92)</f>
         <v>4.4052023067838286E-2</v>
       </c>
       <c r="M94" s="1">
@@ -7060,15 +7429,19 @@
         <v>10.318</v>
       </c>
       <c r="R94" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>457.11353478368642</v>
       </c>
       <c r="S94" s="4">
-        <f t="shared" ref="S94:S101" si="58">R94*(L94/100)*1000</f>
+        <f t="shared" ref="S94:S101" si="60">R94*(L94/100)*1000</f>
         <v>201.36775978912053</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -7094,7 +7467,7 @@
         <v>54.838999999999999</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.185286792755E-2</v>
       </c>
       <c r="J95" s="2">
@@ -7102,7 +7475,7 @@
         <v>2.8429600961666669E-4</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1714023158156113</v>
       </c>
       <c r="L95" s="2">
@@ -7125,15 +7498,19 @@
         <v>9.6280000000000001</v>
       </c>
       <c r="R95" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>742.55477448013596</v>
       </c>
       <c r="S95" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>206.24703150861259</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -7159,11 +7536,11 @@
         <v>6.5919999999999996</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.154449387585E-2</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1412739573734354</v>
       </c>
       <c r="M96" s="1">
@@ -7182,15 +7559,19 @@
         <v>8.8420000000000005</v>
       </c>
       <c r="R96" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>97.194510716415991</v>
       </c>
       <c r="S96" s="4">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -7216,11 +7597,11 @@
         <v>35.773000000000003</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.154277458425E-2</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1411059298994199</v>
       </c>
       <c r="M97" s="1">
@@ -7239,15 +7620,19 @@
         <v>9.8209999999999997</v>
       </c>
       <c r="R97" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>474.86996435360942</v>
       </c>
       <c r="S97" s="4">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -7273,11 +7658,11 @@
         <v>56.421999999999997</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1547490696625001E-2</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1415668372300107</v>
       </c>
       <c r="M98" s="1">
@@ -7296,15 +7681,19 @@
         <v>10.904999999999999</v>
       </c>
       <c r="R98" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>674.52469836528462</v>
       </c>
       <c r="S98" s="4">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -7330,7 +7719,7 @@
         <v>9.6969999999999992</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.368276728715E-2</v>
       </c>
       <c r="J99" s="2">
@@ -7338,7 +7727,7 @@
         <v>2.1378475682416655E-3</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.3498076250983586</v>
       </c>
       <c r="L99" s="2">
@@ -7361,15 +7750,19 @@
         <v>9.92</v>
       </c>
       <c r="R99" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>127.43853584788553</v>
       </c>
       <c r="S99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>265.69921621576827</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -7395,19 +7788,19 @@
         <v>38.68</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.2142317832125001E-2</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" ref="J100:J101" si="59">I100-AVERAGE($I$96:$I$98)</f>
+        <f t="shared" ref="J100:J101" si="61">I100-AVERAGE($I$96:$I$98)</f>
         <v>5.9739811321666593E-4</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1996650686567716</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" ref="L100:L101" si="60">K100-AVERAGE($K$96:$K$98)</f>
+        <f t="shared" ref="L100:L101" si="62">K100-AVERAGE($K$96:$K$98)</f>
         <v>5.834949382248289E-2</v>
       </c>
       <c r="M100" s="1">
@@ -7426,15 +7819,19 @@
         <v>10.051</v>
       </c>
       <c r="R100" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>501.70940476062987</v>
       </c>
       <c r="S100" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>292.74489813761937</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -7460,19 +7857,19 @@
         <v>52.637</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.18895222693E-2</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>3.4460255039166568E-4</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1749822493107871</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.3666674476498404E-2</v>
       </c>
       <c r="M101" s="1">
@@ -7491,12 +7888,16 @@
         <v>10.254</v>
       </c>
       <c r="R101" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>669.22609301485386</v>
       </c>
       <c r="S101" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>225.30617024709929</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7516,10 +7917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164ACBF-CB39-409E-845E-5FA3CBD74056}">
-  <dimension ref="A1:T101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView topLeftCell="D73" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView topLeftCell="E61" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7542,7 +7943,7 @@
     <col min="19" max="19" width="27.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
@@ -7550,7 +7951,7 @@
         <v>23.945</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
@@ -7558,7 +7959,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
@@ -7578,7 +7979,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -7636,8 +8037,11 @@
       <c r="S5" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -7693,8 +8097,12 @@
         <f>R6*(L6/100)*1000</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f>M6-D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -7750,8 +8158,12 @@
         <f t="shared" ref="S7:S8" si="3">R7*(L7/100)*1000</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" ref="U7:U70" si="4">M7-D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -7807,8 +8219,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -7865,15 +8281,19 @@
         <v>20.856000000000002</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" ref="R9:R32" si="4">((H9/Q9)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R9:R32" si="5">((H9/Q9)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>57.638388964787595</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" ref="S9:S32" si="5">R9*(L9/100)*1000</f>
+        <f t="shared" ref="S9:S32" si="6">R9*(L9/100)*1000</f>
         <v>18.950363605269231</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -7903,7 +8323,7 @@
         <v>1.168495044795E-2</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" ref="J10:J11" si="6">I10-AVERAGE($I$6:$I$8)</f>
+        <f t="shared" ref="J10:J11" si="7">I10-AVERAGE($I$6:$I$8)</f>
         <v>1.1565021899166868E-4</v>
       </c>
       <c r="K10" s="2">
@@ -7911,7 +8331,7 @@
         <v>1.1549989394204374</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" ref="L10" si="7">K10-AVERAGE($K$6:$K$8)</f>
+        <f t="shared" ref="L10" si="8">K10-AVERAGE($K$6:$K$8)</f>
         <v>1.1300736401044453E-2</v>
       </c>
       <c r="M10" s="1">
@@ -7930,15 +8350,19 @@
         <v>25.63</v>
       </c>
       <c r="R10" s="4">
+        <f t="shared" si="5"/>
+        <v>61.040049717478361</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="6"/>
+        <v>6.8979751176387092</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="4"/>
-        <v>61.040049717478361</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="5"/>
-        <v>6.8979751176387092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -7968,7 +8392,7 @@
         <v>1.1669393246874998E-2</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0009301791666717E-4</v>
       </c>
       <c r="K11" s="2">
@@ -7995,15 +8419,19 @@
         <v>24.039000000000001</v>
       </c>
       <c r="R11" s="4">
+        <f t="shared" si="5"/>
+        <v>74.201688896209305</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="6"/>
+        <v>7.2574612696908982</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="4"/>
-        <v>74.201688896209305</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="5"/>
-        <v>7.2574612696908982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -8052,15 +8480,19 @@
         <v>22.559000000000001</v>
       </c>
       <c r="R12" s="4">
+        <f t="shared" si="5"/>
+        <v>51.598183968140681</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="4"/>
-        <v>51.598183968140681</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -8109,15 +8541,19 @@
         <v>34.323999999999998</v>
       </c>
       <c r="R13" s="4">
+        <f t="shared" si="5"/>
+        <v>63.26437785398609</v>
+      </c>
+      <c r="S13" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="4"/>
-        <v>63.26437785398609</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -8166,15 +8602,19 @@
         <v>27.571999999999999</v>
       </c>
       <c r="R14" s="4">
+        <f t="shared" si="5"/>
+        <v>89.026645426762954</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="4"/>
-        <v>89.026645426762954</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -8231,15 +8671,19 @@
         <v>30.117000000000001</v>
       </c>
       <c r="R15" s="4">
+        <f t="shared" si="5"/>
+        <v>49.390833886169482</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="6"/>
+        <v>9.4265726699478503</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="4"/>
-        <v>49.390833886169482</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="5"/>
-        <v>9.4265726699478503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -8265,11 +8709,11 @@
         <v>6.6040000000000001</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:I18" si="8">(((G16/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I16:I18" si="9">(((G16/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.166064157505E-2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ref="J16:J17" si="9">I16-AVERAGE($I$12:$I$14)</f>
+        <f t="shared" ref="J16:J17" si="10">I16-AVERAGE($I$12:$I$14)</f>
         <v>7.4657849825000844E-5</v>
       </c>
       <c r="K16" s="2">
@@ -8296,15 +8740,19 @@
         <v>28.98</v>
       </c>
       <c r="R16" s="4">
+        <f t="shared" si="5"/>
+        <v>85.126640676393109</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="6"/>
+        <v>6.2101686591275849</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="4"/>
-        <v>85.126640676393109</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="5"/>
-        <v>6.2101686591275849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -8330,11 +8778,11 @@
         <v>8.0739999999999998</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1638541514274998E-2</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2557789049998901E-5</v>
       </c>
       <c r="K17" s="2">
@@ -8342,7 +8790,7 @@
         <v>1.150464423474199</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" ref="L17" si="10">K17-AVERAGE($K$12:$K$14)</f>
+        <f t="shared" ref="L17" si="11">K17-AVERAGE($K$12:$K$14)</f>
         <v>5.1358109644947803E-3</v>
       </c>
       <c r="M17" s="1">
@@ -8361,15 +8809,19 @@
         <v>33.340000000000003</v>
       </c>
       <c r="R17" s="4">
+        <f t="shared" si="5"/>
+        <v>90.464869584585429</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="6"/>
+        <v>4.6461046911410415</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="4"/>
-        <v>90.464869584585429</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="5"/>
-        <v>4.6461046911410415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -8395,7 +8847,7 @@
         <v>3.5880000000000001</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1593577263125E-2</v>
       </c>
       <c r="K18" s="2">
@@ -8418,15 +8870,19 @@
         <v>31.100999999999999</v>
       </c>
       <c r="R18" s="4">
+        <f t="shared" si="5"/>
+        <v>43.095794633367284</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="4"/>
-        <v>43.095794633367284</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -8452,7 +8908,7 @@
         <v>3.387</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" ref="I19:I25" si="11">(((G19/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I19:I25" si="12">(((G19/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1549520415875E-2</v>
       </c>
       <c r="K19" s="2">
@@ -8475,15 +8931,19 @@
         <v>18.210999999999999</v>
       </c>
       <c r="R19" s="4">
+        <f t="shared" si="5"/>
+        <v>69.476545137254405</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="4"/>
-        <v>69.476545137254405</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -8509,7 +8969,7 @@
         <v>3.427</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1549866662099999E-2</v>
       </c>
       <c r="K20" s="2">
@@ -8532,15 +8992,19 @@
         <v>22.844999999999999</v>
       </c>
       <c r="R20" s="4">
+        <f t="shared" si="5"/>
+        <v>56.037629292433685</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="4"/>
-        <v>56.037629292433685</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -8566,7 +9030,7 @@
         <v>2.5859999999999999</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1819831261874999E-2</v>
       </c>
       <c r="J21" s="2">
@@ -8578,7 +9042,7 @@
         <v>1.1681754890229898</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" ref="L21:L23" si="12">K21-AVERAGE($K$18:$K$20)</f>
+        <f t="shared" ref="L21:L23" si="13">K21-AVERAGE($K$18:$K$20)</f>
         <v>2.4963852984397406E-2</v>
       </c>
       <c r="M21" s="1">
@@ -8597,15 +9061,19 @@
         <v>23.044</v>
       </c>
       <c r="R21" s="4">
+        <f t="shared" si="5"/>
+        <v>41.920597670981998</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="6"/>
+        <v>10.464996372764666</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="4"/>
-        <v>41.920597670981998</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="5"/>
-        <v>10.464996372764666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -8631,11 +9099,11 @@
         <v>3.645</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.16963407548E-2</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22:J23" si="13">I22-AVERAGE($I$18:$I$20)</f>
+        <f t="shared" ref="J22:J23" si="14">I22-AVERAGE($I$18:$I$20)</f>
         <v>1.3201930776666516E-4</v>
       </c>
       <c r="K22" s="2">
@@ -8643,7 +9111,7 @@
         <v>1.1561117979406417</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2900161902049234E-2</v>
       </c>
       <c r="M22" s="1">
@@ -8662,15 +9130,19 @@
         <v>21.997</v>
       </c>
       <c r="R22" s="4">
+        <f t="shared" si="5"/>
+        <v>61.900034304777208</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="6"/>
+        <v>7.9852046427402747</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="4"/>
-        <v>61.900034304777208</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="5"/>
-        <v>7.9852046427402747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -8696,11 +9168,11 @@
         <v>3.831</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1670563320324999E-2</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0624187329166465E-4</v>
       </c>
       <c r="K23" s="2">
@@ -8708,7 +9180,7 @@
         <v>1.1535932489744443</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0381612935851825E-2</v>
       </c>
       <c r="M23" s="1">
@@ -8727,15 +9199,19 @@
         <v>20.888000000000002</v>
       </c>
       <c r="R23" s="4">
+        <f t="shared" si="5"/>
+        <v>68.512861253630547</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="6"/>
+        <v>7.1127400666291214</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="4"/>
-        <v>68.512861253630547</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="5"/>
-        <v>7.1127400666291214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -8761,7 +9237,7 @@
         <v>2.641</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1593935448874999E-2</v>
       </c>
       <c r="K24" s="2">
@@ -8784,15 +9260,19 @@
         <v>21.434000000000001</v>
       </c>
       <c r="R24" s="4">
+        <f t="shared" si="5"/>
+        <v>46.027987522412161</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="4"/>
-        <v>46.027987522412161</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -8818,7 +9298,7 @@
         <v>4.0880000000000001</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1580957185199999E-2</v>
       </c>
       <c r="K25" s="2">
@@ -8841,15 +9321,19 @@
         <v>20.888000000000002</v>
       </c>
       <c r="R25" s="4">
+        <f t="shared" si="5"/>
+        <v>73.108999427001223</v>
+      </c>
+      <c r="S25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="4"/>
-        <v>73.108999427001223</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -8875,7 +9359,7 @@
         <v>4.3879999999999999</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" ref="I26:I62" si="14">(((G26/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I26:I62" si="15">(((G26/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1587655258725E-2</v>
       </c>
       <c r="K26" s="2">
@@ -8898,15 +9382,19 @@
         <v>19.969000000000001</v>
       </c>
       <c r="R26" s="4">
+        <f t="shared" si="5"/>
+        <v>82.085625855801922</v>
+      </c>
+      <c r="S26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="4"/>
-        <v>82.085625855801922</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -8932,7 +9420,7 @@
         <v>2.702</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1734439779075E-2</v>
       </c>
       <c r="J27" s="2">
@@ -8963,15 +9451,19 @@
         <v>21.231999999999999</v>
       </c>
       <c r="R27" s="4">
+        <f t="shared" si="5"/>
+        <v>47.539132349016647</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="6"/>
+        <v>6.8245423686553277</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="4"/>
-        <v>47.539132349016647</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="5"/>
-        <v>6.8245423686553277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -8997,11 +9489,11 @@
         <v>3.355</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1636464036924999E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ref="J28:J29" si="15">I28-AVERAGE($I$24:$I$26)</f>
+        <f t="shared" ref="J28:J29" si="16">I28-AVERAGE($I$24:$I$26)</f>
         <v>4.8948072658332523E-5</v>
       </c>
       <c r="K28" s="2">
@@ -9028,15 +9520,19 @@
         <v>17.686</v>
       </c>
       <c r="R28" s="4">
+        <f t="shared" si="5"/>
+        <v>70.863029590730179</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="6"/>
+        <v>3.3894374372415621</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="4"/>
-        <v>70.863029590730179</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="5"/>
-        <v>3.3894374372415621</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -9062,11 +9558,11 @@
         <v>3.6</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1630530092999998E-2</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.3014128733332227E-5</v>
       </c>
       <c r="K29" s="2">
@@ -9074,7 +9570,7 @@
         <v>1.1496816028210215</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29" si="16">K29-AVERAGE($K$24:$K$26)</f>
+        <f t="shared" ref="L29" si="17">K29-AVERAGE($K$24:$K$26)</f>
         <v>4.2032577488597678E-3</v>
       </c>
       <c r="M29" s="1">
@@ -9093,15 +9589,19 @@
         <v>19.254999999999999</v>
       </c>
       <c r="R29" s="4">
+        <f t="shared" si="5"/>
+        <v>69.841858852229976</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="6"/>
+        <v>2.9356333441540583</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="4"/>
-        <v>69.841858852229976</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="5"/>
-        <v>2.9356333441540583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -9127,7 +9627,7 @@
         <v>3.1379999999999999</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1585959846175E-2</v>
       </c>
       <c r="K30" s="2">
@@ -9150,15 +9650,19 @@
         <v>21.524999999999999</v>
       </c>
       <c r="R30" s="4">
+        <f t="shared" si="5"/>
+        <v>54.458614860273862</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
         <f t="shared" si="4"/>
-        <v>54.458614860273862</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -9184,7 +9688,7 @@
         <v>4.9160000000000004</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1575870947549999E-2</v>
       </c>
       <c r="K31" s="2">
@@ -9207,15 +9711,19 @@
         <v>21.966000000000001</v>
       </c>
       <c r="R31" s="4">
+        <f t="shared" si="5"/>
+        <v>83.602200138265033</v>
+      </c>
+      <c r="S31" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
         <f t="shared" si="4"/>
-        <v>83.602200138265033</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -9241,7 +9749,7 @@
         <v>4.4020000000000001</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1581852649575E-2</v>
       </c>
       <c r="K32" s="2">
@@ -9264,15 +9772,19 @@
         <v>23.27</v>
       </c>
       <c r="R32" s="4">
+        <f t="shared" si="5"/>
+        <v>70.665993120171748</v>
+      </c>
+      <c r="S32" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
         <f t="shared" si="4"/>
-        <v>70.665993120171748</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -9298,7 +9810,7 @@
         <v>3.5179999999999998</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2025489580000001E-2</v>
       </c>
       <c r="J33" s="6">
@@ -9336,8 +9848,12 @@
         <f>R33*(L33/100)*1000</f>
         <v>17.594088067265837</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -9363,11 +9879,11 @@
         <v>3.7429999999999999</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1854981223474999E-2</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" ref="J34:J35" si="17">I34-AVERAGE($I$30:$I$32)</f>
+        <f t="shared" ref="J34:J35" si="18">I34-AVERAGE($I$30:$I$32)</f>
         <v>2.737534090416667E-4</v>
       </c>
       <c r="K34" s="2">
@@ -9375,7 +9891,7 @@
         <v>1.1716087229358363</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ref="L34:L35" si="18">K34-AVERAGE($K$30:$K$32)</f>
+        <f t="shared" ref="L34:L35" si="19">K34-AVERAGE($K$30:$K$32)</f>
         <v>2.6744872240799689E-2</v>
       </c>
       <c r="M34" s="1">
@@ -9394,15 +9910,19 @@
         <v>26.111999999999998</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" ref="R34:R35" si="19">((H34/Q34)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R34:R35" si="20">((H34/Q34)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>53.547167392210397</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" ref="S34:S35" si="20">R34*(L34/100)*1000</f>
+        <f t="shared" ref="S34:S35" si="21">R34*(L34/100)*1000</f>
         <v>14.321121507613821</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -9428,11 +9948,11 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1810470674275E-2</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2924285984166765E-4</v>
       </c>
       <c r="K35" s="2">
@@ -9440,7 +9960,7 @@
         <v>1.1672611636845833</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.2397312989546725E-2</v>
       </c>
       <c r="M35" s="1">
@@ -9459,15 +9979,19 @@
         <v>26.465</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>65.070753973178014</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14.574100432030592</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -9493,7 +10017,7 @@
         <v>3.2850000000000001</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1600251457599998E-2</v>
       </c>
       <c r="K36" s="2">
@@ -9523,8 +10047,12 @@
         <f>R36*(L36/100)*1000</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -9550,7 +10078,7 @@
         <v>3.7749999999999999</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1576957444324999E-2</v>
       </c>
       <c r="K37" s="2">
@@ -9573,15 +10101,19 @@
         <v>19.936</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" ref="R37:R62" si="21">((H37/Q37)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R37:R62" si="22">((H37/Q37)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>70.735225576759831</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" ref="S37:S62" si="22">R37*(L37/100)*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S37:S62" si="23">R37*(L37/100)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -9630,15 +10162,19 @@
         <v>14.063000000000001</v>
       </c>
       <c r="R38" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>108.74935089844752</v>
       </c>
       <c r="S38" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -9664,7 +10200,7 @@
         <v>22.815999999999999</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2096649148999999E-2</v>
       </c>
       <c r="J39" s="6">
@@ -9695,15 +10231,19 @@
         <v>197.083</v>
       </c>
       <c r="R39" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43.246120644641096</v>
       </c>
       <c r="S39" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21.269373322154006</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -9729,11 +10269,11 @@
         <v>2.8679999999999999</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1810602009049999E-2</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J40:J41" si="23">I40-AVERAGE($I$36:$I$38)</f>
+        <f t="shared" ref="J40:J41" si="24">I40-AVERAGE($I$36:$I$38)</f>
         <v>2.1749436724166453E-4</v>
       </c>
       <c r="K40" s="2">
@@ -9741,7 +10281,7 @@
         <v>1.1672739923458877</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" ref="L40:L41" si="24">K40-AVERAGE($K$36:$K$38)</f>
+        <f t="shared" ref="L40:L41" si="25">K40-AVERAGE($K$36:$K$38)</f>
         <v>2.1249229402872993E-2</v>
       </c>
       <c r="M40" s="1">
@@ -9760,15 +10300,19 @@
         <v>10.667</v>
       </c>
       <c r="R40" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>100.43698419915798</v>
       </c>
       <c r="S40" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21.342085177806382</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>25</v>
       </c>
@@ -9794,11 +10338,11 @@
         <v>3.7989999999999999</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1859016782924999E-2</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.6590914111666517E-4</v>
       </c>
       <c r="K41" s="2">
@@ -9806,7 +10350,7 @@
         <v>1.1720028765103276</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.5978113567312944E-2</v>
       </c>
       <c r="M41" s="1">
@@ -9825,15 +10369,19 @@
         <v>22.670999999999999</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>62.597275096508696</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16.261591214614331</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -9859,11 +10407,11 @@
         <v>2.6789999999999998</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" ref="I42:I53" si="25">(((G42/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I42:I53" si="26">(((G42/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1584574861274999E-2</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" ref="K42:K53" si="26">(I42/(1+I42))*100</f>
+        <f t="shared" ref="K42:K53" si="27">(I42/(1+I42))*100</f>
         <v>1.1451909359989663</v>
       </c>
       <c r="M42" s="1">
@@ -9882,15 +10430,19 @@
         <v>21.914000000000001</v>
       </c>
       <c r="R42" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45.667566321161573</v>
       </c>
       <c r="S42" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -9916,11 +10468,11 @@
         <v>2.5750000000000002</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.15076485017E-2</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1376729102094041</v>
       </c>
       <c r="M43" s="1">
@@ -9939,15 +10491,19 @@
         <v>26.08</v>
       </c>
       <c r="R43" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>36.883018648966825</v>
       </c>
       <c r="S43" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -9973,11 +10529,11 @@
         <v>2.7509999999999999</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1531670826E-2</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1400207387064241</v>
       </c>
       <c r="M44" s="1">
@@ -9996,15 +10552,19 @@
         <v>24.088000000000001</v>
       </c>
       <c r="R44" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>42.66253521280008</v>
       </c>
       <c r="S44" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -10030,7 +10590,7 @@
         <v>3.1139999999999999</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.18422895084E-2</v>
       </c>
       <c r="J45" s="6">
@@ -10038,7 +10598,7 @@
         <v>3.0099144540833393E-4</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1703691011129347</v>
       </c>
       <c r="L45" s="6">
@@ -10061,15 +10621,19 @@
         <v>23.178000000000001</v>
       </c>
       <c r="R45" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50.187950567466139</v>
       </c>
       <c r="S45" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>14.759058103972265</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -10095,19 +10659,19 @@
         <v>2.9249999999999998</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1650875043599998E-2</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" ref="J46:J47" si="27">I46-AVERAGE($I$42:$I$44)</f>
+        <f t="shared" ref="J46:J47" si="28">I46-AVERAGE($I$42:$I$44)</f>
         <v>1.095769806083325E-4</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1516695463835653</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" ref="L46:L47" si="28">K46-AVERAGE($K$42:$K$44)</f>
+        <f t="shared" ref="L46:L47" si="29">K46-AVERAGE($K$42:$K$44)</f>
         <v>1.0708018078633863E-2</v>
       </c>
       <c r="M46" s="1">
@@ -10126,15 +10690,19 @@
         <v>26.106000000000002</v>
       </c>
       <c r="R46" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>41.854518354487332</v>
       </c>
       <c r="S46" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.4817893921236323</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -10160,19 +10728,19 @@
         <v>2.911</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1624500632874998E-2</v>
       </c>
       <c r="J47" s="2">
+        <f t="shared" si="28"/>
+        <v>8.3202569883332467E-5</v>
+      </c>
+      <c r="K47" s="2">
         <f t="shared" si="27"/>
-        <v>8.3202569883332467E-5</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="26"/>
         <v>1.1490924375203131</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.1309092153816209E-3</v>
       </c>
       <c r="M47" s="1">
@@ -10191,15 +10759,19 @@
         <v>25.204000000000001</v>
       </c>
       <c r="R47" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43.144907910266582</v>
       </c>
       <c r="S47" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.5080732932437795</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -10225,11 +10797,11 @@
         <v>2.5179999999999998</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1577972303949999E-2</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1445457118426807</v>
       </c>
       <c r="M48" s="1">
@@ -10248,15 +10820,19 @@
         <v>25.257999999999999</v>
       </c>
       <c r="R48" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>37.240334969325609</v>
       </c>
       <c r="S48" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -10282,11 +10858,11 @@
         <v>3.8860000000000001</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.14833396288E-2</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1352969622825642</v>
       </c>
       <c r="M49" s="1">
@@ -10305,15 +10881,19 @@
         <v>27.559000000000001</v>
       </c>
       <c r="R49" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>52.673982281327618</v>
       </c>
       <c r="S49" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -10339,11 +10919,11 @@
         <v>4.9169999999999998</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1490443646174998E-2</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1359913203682646</v>
       </c>
       <c r="M50" s="1">
@@ -10362,15 +10942,19 @@
         <v>30.465</v>
       </c>
       <c r="R50" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>60.291465129801651</v>
       </c>
       <c r="S50" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -10396,7 +10980,7 @@
         <v>2.2930000000000001</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1778759295875E-2</v>
       </c>
       <c r="J51" s="2">
@@ -10404,7 +10988,7 @@
         <v>2.6150743623333528E-4</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.16416352761469</v>
       </c>
       <c r="L51" s="2">
@@ -10427,15 +11011,19 @@
         <v>31.542999999999999</v>
       </c>
       <c r="R51" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.155504189289097</v>
       </c>
       <c r="S51" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.9388276869675032</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -10461,19 +11049,19 @@
         <v>3.3119999999999998</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1608000209325E-2</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" ref="J52" si="29">I52-AVERAGE($I$48:$I$50)</f>
+        <f t="shared" ref="J52" si="30">I52-AVERAGE($I$48:$I$50)</f>
         <v>9.0748349683335977E-5</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1474800720163381</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" ref="L52:L53" si="30">K52-AVERAGE($K$48:$K$50)</f>
+        <f t="shared" ref="L52:L53" si="31">K52-AVERAGE($K$48:$K$50)</f>
         <v>8.8687405185015056E-3</v>
       </c>
       <c r="M52" s="1">
@@ -10492,15 +11080,19 @@
         <v>28.402000000000001</v>
       </c>
       <c r="R52" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43.561037702405216</v>
       </c>
       <c r="S52" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.8633154009929287</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -10526,7 +11118,7 @@
         <v>2.9740000000000002</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.1589374550325E-2</v>
       </c>
       <c r="J53" s="2">
@@ -10534,11 +11126,11 @@
         <v>7.212269068333603E-5</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1456599725038379</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.0486410060013327E-3</v>
       </c>
       <c r="M53" s="1">
@@ -10557,15 +11149,19 @@
         <v>27.032</v>
       </c>
       <c r="R53" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>41.097896801341136</v>
       </c>
       <c r="S53" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.8968432065434415</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -10591,11 +11187,11 @@
         <v>3.97</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.162124114255E-2</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" ref="K54:K62" si="31">(I54/(1+I54))*100</f>
+        <f t="shared" ref="K54:K62" si="32">(I54/(1+I54))*100</f>
         <v>1.148773935334205</v>
       </c>
       <c r="M54" s="1">
@@ -10614,15 +11210,19 @@
         <v>33.411999999999999</v>
       </c>
       <c r="R54" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>44.385881145769012</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -10648,11 +11248,11 @@
         <v>3.887</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1596896451074999E-2</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1463950207597213</v>
       </c>
       <c r="M55" s="1">
@@ -10671,15 +11271,19 @@
         <v>32.936</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>44.085979919643719</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -10705,11 +11309,11 @@
         <v>2.931</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1586353850499999E-2</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1453647833818366</v>
       </c>
       <c r="M56" s="1">
@@ -10728,15 +11332,19 @@
         <v>16.818000000000001</v>
       </c>
       <c r="R56" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>65.102592330592984</v>
       </c>
       <c r="S56" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -10762,7 +11370,7 @@
         <v>4.0830000000000002</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1902679625849998E-2</v>
       </c>
       <c r="J57" s="2">
@@ -10770,7 +11378,7 @@
         <v>3.0118247780833163E-4</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1762672305849613</v>
       </c>
       <c r="L57" s="2">
@@ -10793,15 +11401,19 @@
         <v>36.549999999999997</v>
       </c>
       <c r="R57" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>41.730040911622794</v>
       </c>
       <c r="S57" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12.278084199309653</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -10827,19 +11439,19 @@
         <v>2.633</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1712112867324998E-2</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" ref="J58:J59" si="32">I58-AVERAGE($I$54:$I$56)</f>
+        <f t="shared" ref="J58:J59" si="33">I58-AVERAGE($I$54:$I$56)</f>
         <v>1.1061571928333222E-4</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1576527273288577</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" ref="L58:L59" si="33">K58-AVERAGE($K$54:$K$56)</f>
+        <f t="shared" ref="L58:L59" si="34">K58-AVERAGE($K$54:$K$56)</f>
         <v>1.0808147503603482E-2</v>
       </c>
       <c r="M58" s="1">
@@ -10858,15 +11470,19 @@
         <v>11.842000000000001</v>
       </c>
       <c r="R58" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>83.058218967839963</v>
       </c>
       <c r="S58" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.9770548199101086</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -10892,19 +11508,19 @@
         <v>2.198</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1696603424349999E-2</v>
       </c>
       <c r="J59" s="2">
+        <f t="shared" si="33"/>
+        <v>9.5106276308333168E-5</v>
+      </c>
+      <c r="K59" s="2">
         <f t="shared" si="32"/>
-        <v>9.5106276308333168E-5</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="31"/>
         <v>1.156137461049074</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>9.2928812238197711E-3</v>
       </c>
       <c r="M59" s="1">
@@ -10923,15 +11539,19 @@
         <v>10.311</v>
       </c>
       <c r="R59" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>79.631283010994579</v>
       </c>
       <c r="S59" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.4000405472154984</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -10957,11 +11577,11 @@
         <v>2.9289999999999998</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1591332632424999E-2</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.145851319451435</v>
       </c>
       <c r="M60" s="1">
@@ -10980,15 +11600,19 @@
         <v>25.594000000000001</v>
       </c>
       <c r="R60" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>42.750186916127106</v>
       </c>
       <c r="S60" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -11014,11 +11638,11 @@
         <v>3.74</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1560874904149998E-2</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1428748571602716</v>
       </c>
       <c r="M61" s="1">
@@ -11037,15 +11661,19 @@
         <v>29.236999999999998</v>
       </c>
       <c r="R61" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>47.785441875656367</v>
       </c>
       <c r="S61" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -11071,11 +11699,11 @@
         <v>2.9849999999999999</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1590699837599999E-2</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1457894817993839</v>
       </c>
       <c r="M62" s="1">
@@ -11094,15 +11722,19 @@
         <v>13.154999999999999</v>
       </c>
       <c r="R62" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>84.763775955827299</v>
       </c>
       <c r="S62" s="4">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -11128,7 +11760,7 @@
         <v>2.2549999999999999</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" ref="I63:I65" si="34">(((G63/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I63:I65" si="35">(((G63/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1708184763599999E-2</v>
       </c>
       <c r="J63" s="2">
@@ -11136,7 +11768,7 @@
         <v>1.2721563887499975E-4</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" ref="K63:K65" si="35">(I63/(1+I63))*100</f>
+        <f t="shared" ref="K63:K65" si="36">(I63/(1+I63))*100</f>
         <v>1.1572689575834343</v>
       </c>
       <c r="L63" s="2">
@@ -11166,8 +11798,12 @@
         <f>R63*(L63/100)*1000</f>
         <v>3.6990890316132332</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -11193,19 +11829,19 @@
         <v>3.0390000000000001</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.1641383121224999E-2</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" ref="J64" si="36">I64-AVERAGE($I$60:$I$62)</f>
+        <f t="shared" ref="J64" si="37">I64-AVERAGE($I$60:$I$62)</f>
         <v>6.0413996499999317E-5</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.1507420826644863</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" ref="L64" si="37">K64-AVERAGE($K$60:$K$62)</f>
+        <f t="shared" ref="L64" si="38">K64-AVERAGE($K$60:$K$62)</f>
         <v>5.9035298607894582E-3</v>
       </c>
       <c r="M64" s="1">
@@ -11224,15 +11860,19 @@
         <v>24.760999999999999</v>
       </c>
       <c r="R64" s="4">
-        <f t="shared" ref="R64:R65" si="38">((H64/Q64)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R64:R65" si="39">((H64/Q64)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>45.847887709781652</v>
       </c>
       <c r="S64" s="4">
-        <f t="shared" ref="S64:S65" si="39">R64*(L64/100)*1000</f>
+        <f t="shared" ref="S64:S65" si="40">R64*(L64/100)*1000</f>
         <v>2.7066437414881799</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -11258,7 +11898,7 @@
         <v>3.3679999999999999</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.1654564356824999E-2</v>
       </c>
       <c r="J65" s="2">
@@ -11266,7 +11906,7 @@
         <v>7.3595232099999894E-5</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.1520300275850155</v>
       </c>
       <c r="L65" s="2">
@@ -11289,15 +11929,19 @@
         <v>31.367999999999999</v>
       </c>
       <c r="R65" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>40.109021346316744</v>
       </c>
       <c r="S65" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.8844301551540834</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -11323,11 +11967,11 @@
         <v>2.2810000000000001</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" ref="I66:I83" si="40">(((G66/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I66:I83" si="41">(((G66/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.15949503085E-2</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" ref="K66:K83" si="41">(I66/(1+I66))*100</f>
+        <f t="shared" ref="K66:K83" si="42">(I66/(1+I66))*100</f>
         <v>1.1462048426560412</v>
       </c>
       <c r="M66" s="1">
@@ -11346,15 +11990,19 @@
         <v>24.687000000000001</v>
       </c>
       <c r="R66" s="4">
-        <f t="shared" ref="R66:R83" si="42">((H66/Q66)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R66:R83" si="43">((H66/Q66)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>34.515469086377998</v>
       </c>
       <c r="S66" s="4">
-        <f t="shared" ref="S66:S83" si="43">R66*(L66/100)*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S66:S83" si="44">R66*(L66/100)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -11380,11 +12028,11 @@
         <v>2.4649999999999999</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1583118239224999E-2</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1450485907066865</v>
       </c>
       <c r="M67" s="1">
@@ -11403,15 +12051,19 @@
         <v>24.427</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>37.696723409117318</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -11437,11 +12089,11 @@
         <v>2.68</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.15629523815E-2</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1430778830202906</v>
       </c>
       <c r="M68" s="1">
@@ -11460,15 +12112,19 @@
         <v>23.844999999999999</v>
       </c>
       <c r="R68" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>41.985011755261581</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>64</v>
       </c>
@@ -11479,19 +12135,19 @@
         <v>36</v>
       </c>
       <c r="D69" s="6">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>291</v>
       </c>
       <c r="F69" s="6">
-        <v>790.6</v>
+        <v>771.8</v>
       </c>
       <c r="G69" s="6">
-        <v>-0.29599999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="H69" s="6">
-        <v>1.8260000000000001</v>
+        <v>4.9589999999999996</v>
       </c>
       <c r="I69" s="6">
         <v>1.19359909006E-2</v>
@@ -11501,7 +12157,7 @@
         <v>3.556505908583335E-4</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1795203459437429</v>
       </c>
       <c r="L69" s="6">
@@ -11509,33 +12165,37 @@
         <v>3.4743240482736804E-2</v>
       </c>
       <c r="M69" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>291</v>
       </c>
       <c r="O69" s="7">
-        <v>1016.6</v>
+        <v>997.6</v>
       </c>
       <c r="P69" s="7">
-        <v>-35.274000000000001</v>
+        <v>-32.139000000000003</v>
       </c>
       <c r="Q69" s="7">
-        <v>18.614999999999998</v>
+        <v>55.811</v>
       </c>
       <c r="R69" s="8">
-        <f t="shared" si="42"/>
-        <v>36.64329715815547</v>
+        <f t="shared" si="43"/>
+        <v>33.191823775869814</v>
       </c>
       <c r="S69" s="8">
-        <f t="shared" si="43"/>
-        <v>12.731068852461817</v>
+        <f t="shared" si="44"/>
+        <v>11.531915155056661</v>
       </c>
       <c r="T69" s="9" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>65</v>
       </c>
@@ -11564,15 +12224,15 @@
         <v>1.172067350675E-2</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" ref="J70:J71" si="44">I70-AVERAGE($I$66:$I$68)</f>
+        <f t="shared" ref="J70:J71" si="45">I70-AVERAGE($I$66:$I$68)</f>
         <v>1.4033319700833442E-4</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1584890784256374</v>
       </c>
       <c r="L70" s="6">
-        <f t="shared" ref="L70" si="45">K70-AVERAGE($K$66:$K$68)</f>
+        <f t="shared" ref="L70" si="46">K70-AVERAGE($K$66:$K$68)</f>
         <v>1.3711972964631336E-2</v>
       </c>
       <c r="M70" s="7">
@@ -11591,18 +12251,22 @@
         <v>27.431999999999999</v>
       </c>
       <c r="R70" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>48.396812950383286</v>
       </c>
       <c r="S70" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6.6361579074997534</v>
       </c>
       <c r="T70" s="9" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>66</v>
       </c>
@@ -11631,11 +12295,11 @@
         <v>1.1714751502349999E-2</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.3441119260833301E-4</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1579105162748822</v>
       </c>
       <c r="L71" s="6">
@@ -11658,18 +12322,22 @@
         <v>27.146000000000001</v>
       </c>
       <c r="R71" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>47.324184944116254</v>
       </c>
       <c r="S71" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6.2152796230292839</v>
       </c>
       <c r="T71" s="9" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U71">
+        <f t="shared" ref="U71:U101" si="47">M71-D71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>67</v>
       </c>
@@ -11699,7 +12367,7 @@
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1446448878937265</v>
       </c>
       <c r="L72" s="6"/>
@@ -11719,18 +12387,22 @@
         <v>24.696999999999999</v>
       </c>
       <c r="R72" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>36.286314310409409</v>
       </c>
       <c r="S72" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T72" s="9" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>68</v>
       </c>
@@ -11760,7 +12432,7 @@
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1430335441105404</v>
       </c>
       <c r="L73" s="6"/>
@@ -11780,18 +12452,22 @@
         <v>24.545999999999999</v>
       </c>
       <c r="R73" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>43.266617244988026</v>
       </c>
       <c r="S73" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T73" s="9" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U73">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>69</v>
       </c>
@@ -11821,7 +12497,7 @@
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1420452428249854</v>
       </c>
       <c r="L74" s="6"/>
@@ -11841,83 +12517,91 @@
         <v>24.870999999999999</v>
       </c>
       <c r="R74" s="8">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>53.230099450449828</v>
       </c>
       <c r="S74" s="8">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="T74" s="9" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="U74">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
         <v>70</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>6</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="2">
-        <v>25</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D75" s="6">
+        <v>12</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F75" s="2">
-        <v>790.6</v>
-      </c>
-      <c r="G75" s="2">
-        <v>-8.2129999999999992</v>
-      </c>
-      <c r="H75" s="2">
-        <v>1.8959999999999999</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="40"/>
-        <v>1.1841465681174999E-2</v>
-      </c>
-      <c r="J75" s="2">
+      <c r="F75" s="6">
+        <v>769.5</v>
+      </c>
+      <c r="G75" s="6">
+        <v>-6.2469999999999999</v>
+      </c>
+      <c r="H75" s="6">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="I75" s="6">
+        <f t="shared" si="41"/>
+        <v>1.1864938787324999E-2</v>
+      </c>
+      <c r="J75" s="6">
         <f>I75-AVERAGE($I$72:$I$74)</f>
-        <v>2.7684176617500181E-4</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="41"/>
-        <v>1.170288635404291</v>
-      </c>
-      <c r="L75" s="2">
+        <v>3.0031487232500161E-4</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="42"/>
+        <v>1.1725812736969221</v>
+      </c>
+      <c r="L75" s="6">
         <f>K75-AVERAGE($K$72:$K$74)</f>
-        <v>2.7047410461206844E-2</v>
-      </c>
-      <c r="M75" s="1">
-        <v>25</v>
-      </c>
-      <c r="N75" s="1" t="s">
+        <v>2.9340048753837999E-2</v>
+      </c>
+      <c r="M75" s="7">
+        <v>12</v>
+      </c>
+      <c r="N75" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O75" s="1">
-        <v>1019.1</v>
-      </c>
-      <c r="P75" s="1">
-        <v>-34.378999999999998</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>24.530999999999999</v>
-      </c>
-      <c r="R75" s="4">
-        <f t="shared" si="42"/>
-        <v>28.872200992968182</v>
-      </c>
-      <c r="S75" s="4">
+      <c r="O75" s="7">
+        <v>989</v>
+      </c>
+      <c r="P75" s="7">
+        <v>-32.325000000000003</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>31.361000000000001</v>
+      </c>
+      <c r="R75" s="8">
         <f t="shared" si="43"/>
-        <v>7.8091827117527419</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>28.015877307392291</v>
+      </c>
+      <c r="S75" s="8">
+        <f t="shared" si="44"/>
+        <v>8.2198720608043327</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -11943,7 +12627,7 @@
         <v>4.3239999999999998</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1765769092674998E-2</v>
       </c>
       <c r="J76" s="2">
@@ -11951,7 +12635,7 @@
         <v>2.0114517767500124E-4</v>
       </c>
       <c r="K76" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1628945603908138</v>
       </c>
       <c r="L76" s="2">
@@ -11974,15 +12658,19 @@
         <v>23.183</v>
       </c>
       <c r="R76" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>69.674339749330827</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13.693331711926884</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -12008,7 +12696,7 @@
         <v>4.3380000000000001</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1754187753425E-2</v>
       </c>
       <c r="J77" s="2">
@@ -12016,7 +12704,7 @@
         <v>1.8956383842500327E-4</v>
       </c>
       <c r="K77" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.161763192651061</v>
       </c>
       <c r="L77" s="2">
@@ -12039,15 +12727,19 @@
         <v>26.382000000000001</v>
       </c>
       <c r="R77" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>61.424077613548029</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>11.376947820504018</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -12073,11 +12765,11 @@
         <v>2.0990000000000002</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1612823777424999E-2</v>
       </c>
       <c r="K78" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1479514201947338</v>
       </c>
       <c r="M78" s="1">
@@ -12096,15 +12788,19 @@
         <v>15.256</v>
       </c>
       <c r="R78" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>51.395911237603158</v>
       </c>
       <c r="S78" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -12130,11 +12826,11 @@
         <v>3.5939999999999999</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1590365530899999E-2</v>
       </c>
       <c r="K79" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1457568128198985</v>
       </c>
       <c r="M79" s="1">
@@ -12153,15 +12849,19 @@
         <v>18.571999999999999</v>
       </c>
       <c r="R79" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>72.289664578183391</v>
       </c>
       <c r="S79" s="4">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -12187,11 +12887,11 @@
         <v>3.7</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.15815780405E-2</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1448980776156756</v>
       </c>
       <c r="M80" s="1">
@@ -12210,80 +12910,88 @@
         <v>18.263999999999999</v>
       </c>
       <c r="R80" s="4">
+        <f t="shared" si="43"/>
+        <v>75.676778713724119</v>
+      </c>
+      <c r="S80" s="4">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>76</v>
+      </c>
+      <c r="B81" s="6">
+        <v>7</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="6">
+        <v>13</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" s="6">
+        <v>769.3</v>
+      </c>
+      <c r="G81" s="6">
+        <v>9.8089999999999993</v>
+      </c>
+      <c r="H81" s="6">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="I81" s="6">
+        <f t="shared" si="41"/>
+        <v>1.2056639800724998E-2</v>
+      </c>
+      <c r="J81" s="6">
+        <f>I81-AVERAGE($I$78:$I$80)</f>
+        <v>4.6171735111666563E-4</v>
+      </c>
+      <c r="K81" s="6">
         <f t="shared" si="42"/>
-        <v>75.676778713724119</v>
-      </c>
-      <c r="S80" s="4">
+        <v>1.1913008942956951</v>
+      </c>
+      <c r="L81" s="6">
+        <f>K81-AVERAGE($K$78:$K$80)</f>
+        <v>4.5098790752259088E-2</v>
+      </c>
+      <c r="M81" s="7">
+        <v>13</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="O81" s="7">
+        <v>985.6</v>
+      </c>
+      <c r="P81" s="7">
+        <v>-33.323999999999998</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>23.050999999999998</v>
+      </c>
+      <c r="R81" s="8">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>76</v>
-      </c>
-      <c r="B81" s="2">
-        <v>7</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="2">
-        <v>18</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F81" s="2">
-        <v>787.9</v>
-      </c>
-      <c r="G81" s="2">
-        <v>12.07</v>
-      </c>
-      <c r="H81" s="2">
-        <v>1.865</v>
-      </c>
-      <c r="I81" s="2">
-        <f t="shared" si="40"/>
-        <v>1.2083635066749998E-2</v>
-      </c>
-      <c r="J81" s="2">
-        <f>I81-AVERAGE($I$78:$I$80)</f>
-        <v>4.8871261714166642E-4</v>
-      </c>
-      <c r="K81" s="2">
-        <f t="shared" si="41"/>
-        <v>1.1939364147463019</v>
-      </c>
-      <c r="L81" s="2">
-        <f>K81-AVERAGE($K$78:$K$80)</f>
-        <v>4.7734311202865864E-2</v>
-      </c>
-      <c r="M81" s="1">
-        <v>18</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="O81" s="1">
-        <v>1010.9</v>
-      </c>
-      <c r="P81" s="1">
-        <v>-36.792999999999999</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>13.531000000000001</v>
-      </c>
-      <c r="R81" s="4">
-        <f t="shared" si="42"/>
-        <v>51.487968172928383</v>
-      </c>
-      <c r="S81" s="4">
-        <f t="shared" si="43"/>
-        <v>24.577426959698165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>38.310208300918042</v>
+      </c>
+      <c r="S81" s="8">
+        <f t="shared" si="44"/>
+        <v>17.27744067838562</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -12309,19 +13017,19 @@
         <v>3.387</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1835101914349999E-2</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" ref="J82" si="46">I82-AVERAGE($I$78:$I$80)</f>
+        <f t="shared" ref="J82" si="48">I82-AVERAGE($I$78:$I$80)</f>
         <v>2.4017946474166711E-4</v>
       </c>
       <c r="K82" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1696670625439343</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" ref="L82" si="47">K82-AVERAGE($K$78:$K$80)</f>
+        <f t="shared" ref="L82" si="49">K82-AVERAGE($K$78:$K$80)</f>
         <v>2.3464959000498276E-2</v>
       </c>
       <c r="M82" s="1">
@@ -12340,15 +13048,19 @@
         <v>17.667000000000002</v>
       </c>
       <c r="R82" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>71.615858011803908</v>
       </c>
       <c r="S82" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>16.804631720324846</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U82">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -12374,7 +13086,7 @@
         <v>5.3920000000000003</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1802148825349999E-2</v>
       </c>
       <c r="J83" s="2">
@@ -12382,7 +13094,7 @@
         <v>2.0722637574166654E-4</v>
       </c>
       <c r="K83" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.1664482862634444</v>
       </c>
       <c r="L83" s="2">
@@ -12405,129 +13117,145 @@
         <v>30.603000000000002</v>
       </c>
       <c r="R83" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>65.817698681871406</v>
       </c>
       <c r="S83" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>13.325571537236273</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="U83">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>79</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="6">
         <v>7</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="2">
-        <v>16</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="6">
+        <v>14</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="F84" s="2">
-        <v>774.6</v>
-      </c>
-      <c r="G84" s="2">
-        <v>-39.204000000000001</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="I84" s="2">
-        <f t="shared" ref="I84:I93" si="48">(((G84/1000)+1)*0.0112372)*(17/16)</f>
-        <v>1.14714478619E-2</v>
-      </c>
-      <c r="K84" s="2">
-        <f t="shared" ref="K84:K93" si="49">(I84/(1+I84))*100</f>
-        <v>1.1341346200279734</v>
-      </c>
-      <c r="M84" s="1">
-        <v>16</v>
-      </c>
-      <c r="N84" s="1" t="s">
+      <c r="F84" s="6">
+        <v>769.5</v>
+      </c>
+      <c r="G84" s="6">
+        <v>-30.56</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" ref="I84:I93" si="50">(((G84/1000)+1)*0.0112372)*(17/16)</f>
+        <v>1.1574653115999999E-2</v>
+      </c>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6">
+        <f t="shared" ref="K84:K93" si="51">(I84/(1+I84))*100</f>
+        <v>1.1442213464271829</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="7">
+        <v>14</v>
+      </c>
+      <c r="N84" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="O84" s="1">
-        <v>992.8</v>
-      </c>
-      <c r="P84" s="1">
-        <v>-39.735999999999997</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>5.1470000000000002</v>
-      </c>
-      <c r="R84" s="4">
-        <f t="shared" ref="R84:R93" si="50">((H84/Q84)*$D$1)/256.4*(1/$D$2*1000)</f>
-        <v>67.64232955174046</v>
-      </c>
-      <c r="S84" s="4">
-        <f t="shared" ref="S84:S93" si="51">R84*(L84/100)*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="O84" s="7">
+        <v>985.2</v>
+      </c>
+      <c r="P84" s="7">
+        <v>-33.113999999999997</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>22.777000000000001</v>
+      </c>
+      <c r="R84" s="8">
+        <f t="shared" ref="R84:R93" si="52">((H84/Q84)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <v>39.771505686587389</v>
+      </c>
+      <c r="S84" s="8">
+        <f t="shared" ref="S84:S93" si="53">R84*(L84/100)*1000</f>
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
         <v>80</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="6">
         <v>7</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="2">
-        <v>17</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="D85" s="6">
+        <v>15</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F85" s="2">
-        <v>775</v>
-      </c>
-      <c r="G85" s="2">
-        <v>-39.380000000000003</v>
-      </c>
-      <c r="H85" s="2">
-        <v>1.661</v>
-      </c>
-      <c r="I85" s="2">
-        <f t="shared" si="48"/>
-        <v>1.14693465055E-2</v>
-      </c>
-      <c r="K85" s="2">
-        <f t="shared" si="49"/>
-        <v>1.1339292233744063</v>
-      </c>
-      <c r="M85" s="1">
-        <v>17</v>
-      </c>
-      <c r="N85" s="1" t="s">
+      <c r="F85" s="6">
+        <v>771.4</v>
+      </c>
+      <c r="G85" s="6">
+        <v>-34.984999999999999</v>
+      </c>
+      <c r="H85" s="6">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="50"/>
+        <v>1.1521820717874998E-2</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
+        <f t="shared" si="51"/>
+        <v>1.1390580491578504</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" s="7">
+        <v>15</v>
+      </c>
+      <c r="N85" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="O85" s="1">
-        <v>992.8</v>
-      </c>
-      <c r="P85" s="1">
-        <v>-41.533999999999999</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>6.53</v>
-      </c>
-      <c r="R85" s="4">
-        <f t="shared" si="50"/>
-        <v>95.019614260833848</v>
-      </c>
-      <c r="S85" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O85" s="7">
+        <v>985.6</v>
+      </c>
+      <c r="P85" s="7">
+        <v>-33.142000000000003</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>22.920999999999999</v>
+      </c>
+      <c r="R85" s="8">
+        <f t="shared" si="52"/>
+        <v>49.919502386308103</v>
+      </c>
+      <c r="S85" s="8">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -12553,11 +13281,11 @@
         <v>2.1070000000000002</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1499649019949997E-2</v>
       </c>
       <c r="K86" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1368910539012147</v>
       </c>
       <c r="M86" s="1">
@@ -12576,80 +13304,88 @@
         <v>7.5339999999999998</v>
       </c>
       <c r="R86" s="4">
+        <f t="shared" si="52"/>
+        <v>104.47099513924812</v>
+      </c>
+      <c r="S86" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>82</v>
+      </c>
+      <c r="B87" s="12">
+        <v>7</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="12">
+        <v>9</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="12">
+        <v>773.5</v>
+      </c>
+      <c r="G87" s="12">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="H87" s="12">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="I87" s="12">
         <f t="shared" si="50"/>
-        <v>104.47099513924812</v>
-      </c>
-      <c r="S86" s="4">
+        <v>1.1982125225200001E-2</v>
+      </c>
+      <c r="J87" s="12">
+        <f>I87-AVERAGE($I$84:$I$86)</f>
+        <v>4.5008427392500411E-4</v>
+      </c>
+      <c r="K87" s="12">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>82</v>
-      </c>
-      <c r="B87" s="2">
-        <v>7</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="2">
-        <v>19</v>
-      </c>
-      <c r="E87" s="2" t="s">
+        <v>1.1840253821216038</v>
+      </c>
+      <c r="L87" s="12">
+        <f>K87-AVERAGE($K$84:$K$86)</f>
+        <v>4.3968565626187894E-2</v>
+      </c>
+      <c r="M87" s="13">
+        <v>9</v>
+      </c>
+      <c r="N87" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F87" s="2">
-        <v>773.7</v>
-      </c>
-      <c r="G87" s="2">
-        <v>8.6989999999999998</v>
-      </c>
-      <c r="H87" s="2">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="I87" s="2">
-        <f t="shared" si="48"/>
-        <v>1.2043386927974999E-2</v>
-      </c>
-      <c r="J87" s="2">
-        <f>I87-AVERAGE($I$84:$I$86)</f>
-        <v>5.632391321916657E-4</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="49"/>
-        <v>1.1900069783107137</v>
-      </c>
-      <c r="L87" s="2">
-        <f>K87-AVERAGE($K$84:$K$86)</f>
-        <v>5.5022012542848886E-2</v>
-      </c>
-      <c r="M87" s="1">
-        <v>19</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="O87" s="1">
-        <v>989.6</v>
-      </c>
-      <c r="P87" s="1">
-        <v>-38.115000000000002</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>7.0659999999999998</v>
-      </c>
-      <c r="R87" s="4">
-        <f t="shared" si="50"/>
-        <v>69.889934572757966</v>
-      </c>
-      <c r="S87" s="4">
-        <f t="shared" si="51"/>
-        <v>38.454848566811769</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O87" s="13">
+        <v>1000.9</v>
+      </c>
+      <c r="P87" s="13">
+        <v>-31.673999999999999</v>
+      </c>
+      <c r="Q87" s="13">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="R87" s="14">
+        <f t="shared" si="52"/>
+        <v>43.814911816569243</v>
+      </c>
+      <c r="S87" s="14">
+        <f t="shared" si="53"/>
+        <v>19.264788256124604</v>
+      </c>
+      <c r="U87" s="15">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -12675,20 +13411,20 @@
         <v>3.5939999999999999</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1681440227600001E-2</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" ref="J88:J89" si="52">I88-AVERAGE($I$84:$I$86)</f>
-        <v>2.0129243181666798E-4</v>
+        <f t="shared" ref="J88:J89" si="54">I88-AVERAGE($I$84:$I$86)</f>
+        <v>1.4939927632500426E-4</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1546559779699035</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" ref="L88:L89" si="53">K88-AVERAGE($K$84:$K$86)</f>
-        <v>1.9671012202038707E-2</v>
+        <f t="shared" ref="L88:L89" si="55">K88-AVERAGE($K$84:$K$86)</f>
+        <v>1.4599161474487587E-2</v>
       </c>
       <c r="M88" s="1">
         <v>20</v>
@@ -12706,15 +13442,19 @@
         <v>17.391999999999999</v>
       </c>
       <c r="R88" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>77.194322133510937</v>
       </c>
       <c r="S88" s="4">
-        <f t="shared" si="51"/>
-        <v>15.184904526164004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="53"/>
+        <v>11.269723737407373</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -12740,20 +13480,20 @@
         <v>3.4470000000000001</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1697475009674999E-2</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="52"/>
-        <v>2.1732721389166633E-4</v>
+        <f t="shared" si="54"/>
+        <v>1.6543405840000261E-4</v>
       </c>
       <c r="K89" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1562226158134017</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="53"/>
-        <v>2.1237650045536904E-2</v>
+        <f t="shared" si="55"/>
+        <v>1.6165799317985785E-2</v>
       </c>
       <c r="M89" s="1">
         <v>21</v>
@@ -12771,15 +13511,19 @@
         <v>17.568999999999999</v>
       </c>
       <c r="R89" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>73.29106836081742</v>
       </c>
       <c r="S89" s="4">
-        <f t="shared" si="51"/>
-        <v>15.565300613105626</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="53"/>
+        <v>11.848087029217517</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -12805,11 +13549,11 @@
         <v>2.2679999999999998</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1565471621274999E-2</v>
       </c>
       <c r="K90" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1433240799271818</v>
       </c>
       <c r="M90" s="1">
@@ -12828,15 +13572,19 @@
         <v>18.524000000000001</v>
       </c>
       <c r="R90" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>45.73672776321547</v>
       </c>
       <c r="S90" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -12862,11 +13610,11 @@
         <v>3.2850000000000001</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.1551920260399999E-2</v>
       </c>
       <c r="K91" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1419997361505905</v>
       </c>
       <c r="M91" s="1">
@@ -12885,15 +13633,19 @@
         <v>18.981000000000002</v>
       </c>
       <c r="R91" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>64.650679910553464</v>
       </c>
       <c r="S91" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -12919,11 +13671,11 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.15398852192E-2</v>
       </c>
       <c r="K92" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.1408235491079342</v>
       </c>
       <c r="M92" s="1">
@@ -12942,15 +13694,19 @@
         <v>21.709</v>
       </c>
       <c r="R92" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>69.862323720458136</v>
       </c>
       <c r="S92" s="4">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -12976,7 +13732,7 @@
         <v>2.2250000000000001</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.2063182660424998E-2</v>
       </c>
       <c r="J93" s="2">
@@ -12984,7 +13740,7 @@
         <v>5.1075696013333331E-4</v>
       </c>
       <c r="K93" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.191939679962899</v>
       </c>
       <c r="L93" s="2">
@@ -13007,15 +13763,19 @@
         <v>15.826000000000001</v>
       </c>
       <c r="R93" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>52.51890538151541</v>
       </c>
       <c r="S93" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>26.201975073397662</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U93">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -13041,19 +13801,19 @@
         <v>4.8390000000000004</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" ref="I94:I101" si="54">(((G94/1000)+1)*0.0112372)*(17/16)</f>
+        <f t="shared" ref="I94:I101" si="56">(((G94/1000)+1)*0.0112372)*(17/16)</f>
         <v>1.1837561456499999E-2</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" ref="J94:J101" si="55">I94-AVERAGE($I$90:$I$92)</f>
+        <f t="shared" ref="J94" si="57">I94-AVERAGE($I$90:$I$92)</f>
         <v>2.851357562083344E-4</v>
       </c>
       <c r="K94" s="2">
-        <f t="shared" ref="K94:K101" si="56">(I94/(1+I94))*100</f>
+        <f t="shared" ref="K94:K101" si="58">(I94/(1+I94))*100</f>
         <v>1.1699072961336103</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" ref="L94:L101" si="57">K94-AVERAGE($K$90:$K$92)</f>
+        <f t="shared" ref="L94" si="59">K94-AVERAGE($K$90:$K$92)</f>
         <v>2.7858174405041458E-2</v>
       </c>
       <c r="M94" s="1">
@@ -13072,15 +13832,19 @@
         <v>34.134</v>
       </c>
       <c r="R94" s="4">
-        <f t="shared" ref="R94:R101" si="58">((H94/Q94)*$D$1)/256.4*(1/$D$2*1000)</f>
+        <f t="shared" ref="R94:R101" si="60">((H94/Q94)*$D$1)/256.4*(1/$D$2*1000)</f>
         <v>52.957228677616094</v>
       </c>
       <c r="S94" s="4">
-        <f t="shared" ref="S94:S101" si="59">R94*(L94/100)*1000</f>
+        <f t="shared" ref="S94:S101" si="61">R94*(L94/100)*1000</f>
         <v>14.75291712508692</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U94">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -13106,7 +13870,7 @@
         <v>3.5219999999999998</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1761327589375E-2</v>
       </c>
       <c r="J95" s="2">
@@ -13114,7 +13878,7 @@
         <v>2.0890188908333565E-4</v>
       </c>
       <c r="K95" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1624606780926849</v>
       </c>
       <c r="L95" s="2">
@@ -13137,15 +13901,19 @@
         <v>30.414999999999999</v>
       </c>
       <c r="R95" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>43.25719384192103</v>
       </c>
       <c r="S95" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>8.8294665025786543</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U95">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -13171,11 +13939,11 @@
         <v>3.0110000000000001</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1559943621199999E-2</v>
       </c>
       <c r="K96" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1427838452971468</v>
       </c>
       <c r="M96" s="1">
@@ -13194,15 +13962,19 @@
         <v>30.591999999999999</v>
       </c>
       <c r="R96" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>36.767127131214956</v>
       </c>
       <c r="S96" s="4">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -13228,11 +14000,11 @@
         <v>4.5119999999999996</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1541891059399999E-2</v>
       </c>
       <c r="K97" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1410195822253131</v>
       </c>
       <c r="M97" s="1">
@@ -13251,15 +14023,19 @@
         <v>31.013999999999999</v>
       </c>
       <c r="R97" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>54.346067052200375</v>
       </c>
       <c r="S97" s="4">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -13285,11 +14061,11 @@
         <v>8.1419999999999995</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1558618333924998E-2</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.142654328126083</v>
       </c>
       <c r="M98" s="1">
@@ -13308,15 +14084,19 @@
         <v>36.892000000000003</v>
       </c>
       <c r="R98" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>82.443365066273472</v>
       </c>
       <c r="S98" s="4">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -13342,7 +14122,7 @@
         <v>2.9929999999999999</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1946808110249998E-2</v>
       </c>
       <c r="J99" s="2">
@@ -13350,7 +14130,7 @@
         <v>3.9332377207499866E-4</v>
       </c>
       <c r="K99" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1805766878755164</v>
       </c>
       <c r="L99" s="2">
@@ -13373,15 +14153,19 @@
         <v>32.652000000000001</v>
       </c>
       <c r="R99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>34.241575653470832</v>
       </c>
       <c r="S99" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>13.157018181263659</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U99">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -13407,19 +14191,19 @@
         <v>5.0940000000000003</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1757089057999999E-2</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" ref="J100:J101" si="60">I100-AVERAGE($I$96:$I$98)</f>
+        <f t="shared" ref="J100:J101" si="62">I100-AVERAGE($I$96:$I$98)</f>
         <v>2.0360471982499954E-4</v>
       </c>
       <c r="K100" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1620466201967983</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" ref="L100:L101" si="61">K100-AVERAGE($K$96:$K$98)</f>
+        <f t="shared" ref="L100:L101" si="63">K100-AVERAGE($K$96:$K$98)</f>
         <v>1.989403498061737E-2</v>
       </c>
       <c r="M100" s="1">
@@ -13438,15 +14222,19 @@
         <v>35.503</v>
       </c>
       <c r="R100" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>53.598261103640795</v>
       </c>
       <c r="S100" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10.662856812960934</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U100">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -13472,19 +14260,19 @@
         <v>5.4669999999999996</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1.1726488055424998E-2</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1.7300371724999868E-4</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1.1590571358830124</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1.6904550666831497E-2</v>
       </c>
       <c r="M101" s="1">
@@ -13503,12 +14291,16 @@
         <v>29.794</v>
       </c>
       <c r="R101" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>68.545203847490683</v>
       </c>
       <c r="S101" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>11.587258714081994</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13530,8 +14322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E3CC5-31DA-4142-8695-256DEB906D50}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14812,7 +15604,7 @@
         <v>267.6464872717296</v>
       </c>
       <c r="J32">
-        <v>12.731068852461817</v>
+        <v>11.531915155056661</v>
       </c>
       <c r="K32">
         <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
@@ -14820,7 +15612,7 @@
       </c>
       <c r="L32">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>7.1492936266965081</v>
+        <v>6.4758936171890227</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -14932,7 +15724,7 @@
         <v>245.54736114691471</v>
       </c>
       <c r="J35">
-        <v>7.8091827117527419</v>
+        <v>8.2198720608043327</v>
       </c>
       <c r="K35">
         <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
@@ -14940,7 +15732,7 @@
       </c>
       <c r="L35">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>3.6233557829683409</v>
+        <v>3.8139101191666795</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -15052,7 +15844,7 @@
         <v>188.85825369654802</v>
       </c>
       <c r="J38">
-        <v>24.577426959698165</v>
+        <v>17.27744067838562</v>
       </c>
       <c r="K38">
         <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
@@ -15060,7 +15852,7 @@
       </c>
       <c r="L38">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>6.982984920015789</v>
+        <v>4.9088990442926264</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -15172,7 +15964,7 @@
         <v>166.57125043078503</v>
       </c>
       <c r="J41">
-        <v>38.454848566811769</v>
+        <v>19.264788256124604</v>
       </c>
       <c r="K41">
         <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
@@ -15180,7 +15972,7 @@
       </c>
       <c r="L41">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>9.7990646489321005</v>
+        <v>4.9090534121274807</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -15212,7 +16004,7 @@
         <v>111.53206267383696</v>
       </c>
       <c r="J42">
-        <v>15.184904526164004</v>
+        <v>11.269723737407373</v>
       </c>
       <c r="K42">
         <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
@@ -15220,7 +16012,7 @@
       </c>
       <c r="L42">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>3.0537994224648188</v>
+        <v>2.2664268834442716</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -15252,7 +16044,7 @@
         <v>107.61572972183208</v>
       </c>
       <c r="J43">
-        <v>15.565300613105626</v>
+        <v>11.848087029217517</v>
       </c>
       <c r="K43">
         <f>Table1[[#This Row],[Uncorrected intracellular TG 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
@@ -15260,7 +16052,7 @@
       </c>
       <c r="L43">
         <f>Table1[[#This Row],[Uncorrected intracellular 13C 16:0 (nmol/L)]]/Table1[[#This Row],[Protein (mg/mL)]]</f>
-        <v>3.4349809874292299</v>
+        <v>2.6146590222936199</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
